--- a/inspired_mcc_codes.xlsx
+++ b/inspired_mcc_codes.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpicornell/devel/inspired/mcc-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1AF39A82-6FBF-C04A-B7B4-27394C087E40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BB9238-4B3B-6F4D-8D23-DC27FB774363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="660" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="660" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="2" r:id="rId1"/>
     <sheet name="Linked_fi_categories" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="prod_platform" localSheetId="0">MCC!$A$1:$C$980</definedName>
+    <definedName name="prod_platform" localSheetId="0">MCC!$A$1:$C$984</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="2497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="2499">
   <si>
     <t>category_id</t>
   </si>
@@ -7532,6 +7532,12 @@
   </si>
   <si>
     <t>Travel: Transportation Centers</t>
+  </si>
+  <si>
+    <t>5817</t>
+  </si>
+  <si>
+    <t>Digital Goods: Applications (Excludes Games)</t>
   </si>
 </sst>
 </file>
@@ -8391,13 +8397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E980"/>
+  <dimension ref="A1:E984"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B789" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D807" sqref="D807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22894,82 +22900,82 @@
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
-        <v>1441</v>
+        <v>1887</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1442</v>
+        <v>1888</v>
+      </c>
+      <c r="C806" s="4" t="s">
+        <v>1888</v>
       </c>
       <c r="D806">
-        <v>19002000</v>
+        <v>19019000</v>
       </c>
       <c r="E806" s="3" t="str">
         <f>VLOOKUP(D806,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Antiques</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
-        <v>1443</v>
+        <v>1885</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1444</v>
+        <v>1886</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>1444</v>
+        <v>1886</v>
       </c>
       <c r="D807">
-        <v>19043000</v>
+        <v>19019000</v>
       </c>
       <c r="E807" s="3" t="str">
         <f>VLOOKUP(D807,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Pharmacies</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
-        <v>1445</v>
+        <v>2497</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1446</v>
+        <v>2498</v>
       </c>
       <c r="C808" s="4" t="s">
-        <v>1447</v>
+        <v>2498</v>
       </c>
       <c r="D808">
-        <v>19025004</v>
+        <v>19019000</v>
       </c>
       <c r="E808" s="3" t="str">
         <f>VLOOKUP(D808,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Food and Beverage Store: Beer, Wine and Spirits</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
-        <v>1448</v>
+        <v>1883</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1449</v>
+        <v>1884</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>1449</v>
+        <v>1884</v>
       </c>
       <c r="D809">
-        <v>19050000</v>
+        <v>19019000</v>
       </c>
       <c r="E809" s="3" t="str">
         <f>VLOOKUP(D809,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Vintage and Thrift</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C810" s="4" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="D810">
         <v>19002000</v>
@@ -22981,352 +22987,352 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="D811">
-        <v>19041000</v>
+        <v>19043000</v>
       </c>
       <c r="E811" s="3" t="str">
         <f>VLOOKUP(D811,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Pawn Shops</v>
+        <v>Shops: Pharmacies</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="D812">
-        <v>19005002</v>
+        <v>19025004</v>
       </c>
       <c r="E812" s="3" t="str">
         <f>VLOOKUP(D812,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Salvage Yards</v>
+        <v>Shops: Food and Beverage Store: Beer, Wine and Spirits</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="D813">
-        <v>19002000</v>
+        <v>19050000</v>
       </c>
       <c r="E813" s="3" t="str">
         <f>VLOOKUP(D813,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Antiques</v>
+        <v>Shops: Vintage and Thrift</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>1461</v>
+        <v>1451</v>
       </c>
       <c r="D814">
-        <v>19007000</v>
+        <v>19002000</v>
       </c>
       <c r="E814" s="3" t="str">
         <f>VLOOKUP(D814,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Bicycles</v>
+        <v>Shops: Antiques</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
-        <v>1462</v>
+        <v>1452</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>1463</v>
+        <v>1453</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
       <c r="D815">
-        <v>19046000</v>
+        <v>19041000</v>
       </c>
       <c r="E815" s="3" t="str">
         <f>VLOOKUP(D815,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Sporting Goods</v>
+        <v>Shops: Pawn Shops</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="C816" s="4" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
       <c r="D816">
-        <v>19009000</v>
+        <v>19005002</v>
       </c>
       <c r="E816" s="3" t="str">
         <f>VLOOKUP(D816,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Bookstores</v>
+        <v>Shops: Automotive: Salvage Yards</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>1468</v>
+        <v>1458</v>
       </c>
       <c r="D817">
-        <v>19039000</v>
+        <v>19002000</v>
       </c>
       <c r="E817" s="3" t="str">
         <f>VLOOKUP(D817,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Office Supplies</v>
+        <v>Shops: Antiques</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>1469</v>
+        <v>1459</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1470</v>
+        <v>1460</v>
       </c>
       <c r="C818" s="4" t="s">
-        <v>1471</v>
+        <v>1461</v>
       </c>
       <c r="D818">
-        <v>19033000</v>
+        <v>19007000</v>
       </c>
       <c r="E818" s="3" t="str">
         <f>VLOOKUP(D818,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Jewelry and Watches</v>
+        <v>Shops: Bicycles</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>1473</v>
+        <v>1463</v>
       </c>
       <c r="D819">
-        <v>19031000</v>
+        <v>19046000</v>
       </c>
       <c r="E819" s="3" t="str">
         <f>VLOOKUP(D819,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Hobby and Collectibles</v>
+        <v>Shops: Sporting Goods</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
-        <v>1474</v>
+        <v>1464</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="D820">
-        <v>19013003</v>
+        <v>19009000</v>
       </c>
       <c r="E820" s="3" t="str">
         <f>VLOOKUP(D820,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics: Cameras</v>
+        <v>Shops: Bookstores</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
-        <v>1476</v>
+        <v>1466</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>1477</v>
+        <v>1467</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>1478</v>
+        <v>1468</v>
       </c>
       <c r="D821">
-        <v>19028000</v>
+        <v>19039000</v>
       </c>
       <c r="E821" s="3" t="str">
         <f>VLOOKUP(D821,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Gift and Novelty</v>
+        <v>Shops: Office Supplies</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
-        <v>1479</v>
+        <v>1469</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>1481</v>
+        <v>1471</v>
       </c>
       <c r="D822">
-        <v>19034000</v>
+        <v>19033000</v>
       </c>
       <c r="E822" s="3" t="str">
         <f>VLOOKUP(D822,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Luggage</v>
+        <v>Shops: Jewelry and Watches</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
-        <v>1482</v>
+        <v>1472</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>1484</v>
+        <v>1473</v>
       </c>
       <c r="D823">
-        <v>18037001</v>
+        <v>19031000</v>
       </c>
       <c r="E823" s="3" t="str">
         <f>VLOOKUP(D823,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Apparel and Fabric Products</v>
+        <v>Shops: Hobby and Collectibles</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
-        <v>1485</v>
+        <v>1474</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>1486</v>
+        <v>1475</v>
       </c>
       <c r="C824" s="4" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="D824">
-        <v>19028000</v>
+        <v>19013003</v>
       </c>
       <c r="E824" s="3" t="str">
         <f>VLOOKUP(D824,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Gift and Novelty</v>
+        <v>Shops: Computers and Electronics: Cameras</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>1489</v>
+        <v>1477</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>1490</v>
+        <v>1478</v>
       </c>
       <c r="D825">
-        <v>18030000</v>
+        <v>19028000</v>
       </c>
       <c r="E825" s="3" t="str">
         <f>VLOOKUP(D825,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Insurance</v>
+        <v>Shops: Gift and Novelty</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
-        <v>1491</v>
+        <v>1479</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>1492</v>
+        <v>1480</v>
+      </c>
+      <c r="C826" s="4" t="s">
+        <v>1481</v>
       </c>
       <c r="D826">
-        <v>18001008</v>
+        <v>19034000</v>
       </c>
       <c r="E826" s="3" t="str">
         <f>VLOOKUP(D826,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
+        <v>Shops: Luggage</v>
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
-        <v>1493</v>
+        <v>1482</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1494</v>
+        <v>1483</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>1495</v>
+        <v>1484</v>
       </c>
       <c r="D827">
-        <v>18067000</v>
+        <v>18037001</v>
       </c>
       <c r="E827" s="3" t="str">
         <f>VLOOKUP(D827,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Travel Agents and Tour Operators</v>
+        <v>Service: Manufacturing: Apparel and Fabric Products</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
-        <v>1496</v>
+        <v>1485</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1497</v>
+        <v>1486</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="D828">
-        <v>19038000</v>
+        <v>19028000</v>
       </c>
       <c r="E828" s="3" t="str">
         <f>VLOOKUP(D828,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Newsstands</v>
+        <v>Shops: Gift and Novelty</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
-        <v>1499</v>
+        <v>1488</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1500</v>
+        <v>1489</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>1500</v>
+        <v>1490</v>
       </c>
       <c r="D829">
-        <v>18001008</v>
+        <v>18030000</v>
       </c>
       <c r="E829" s="3" t="str">
         <f>VLOOKUP(D829,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
+        <v>Service: Insurance</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
-        <v>1501</v>
+        <v>1491</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C830" s="4" t="s">
-        <v>1503</v>
+        <v>1492</v>
       </c>
       <c r="D830">
         <v>18001008</v>
@@ -23338,1501 +23344,1501 @@
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
-        <v>1504</v>
+        <v>1493</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1505</v>
+        <v>1494</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>1506</v>
+        <v>1495</v>
       </c>
       <c r="D831">
-        <v>18001000</v>
+        <v>18067000</v>
       </c>
       <c r="E831" s="3" t="str">
         <f>VLOOKUP(D831,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing</v>
+        <v>Service: Travel Agents and Tour Operators</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>1507</v>
+        <v>1496</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>1508</v>
+        <v>1497</v>
       </c>
       <c r="C832" s="4" t="s">
-        <v>1509</v>
+        <v>1498</v>
       </c>
       <c r="D832">
-        <v>18001000</v>
+        <v>19038000</v>
       </c>
       <c r="E832" s="3" t="str">
         <f>VLOOKUP(D832,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing</v>
+        <v>Shops: Newsstands</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>1510</v>
+        <v>1499</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>1511</v>
+        <v>1500</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>1512</v>
+        <v>1500</v>
       </c>
       <c r="D833">
-        <v>18001000</v>
+        <v>18001008</v>
       </c>
       <c r="E833" s="3" t="str">
         <f>VLOOKUP(D833,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing</v>
+        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>1513</v>
+        <v>1501</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="C834" s="4" t="s">
-        <v>1515</v>
+        <v>1503</v>
       </c>
       <c r="D834">
-        <v>18001000</v>
+        <v>18001008</v>
       </c>
       <c r="E834" s="3" t="str">
         <f>VLOOKUP(D834,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing</v>
+        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
-        <v>1516</v>
+        <v>1504</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>1517</v>
+        <v>1505</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>1517</v>
+        <v>1506</v>
       </c>
       <c r="D835">
-        <v>19003000</v>
+        <v>18001000</v>
       </c>
       <c r="E835" s="3" t="str">
         <f>VLOOKUP(D835,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Arts and Crafts</v>
+        <v>Service: Advertising and Marketing</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
-        <v>1518</v>
+        <v>1507</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>1519</v>
+        <v>1508</v>
       </c>
       <c r="C836" s="4" t="s">
-        <v>1519</v>
+        <v>1509</v>
       </c>
       <c r="D836">
-        <v>17001017</v>
+        <v>18001000</v>
       </c>
       <c r="E836" s="3" t="str">
         <f>VLOOKUP(D836,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Art Dealers and Galleries</v>
+        <v>Service: Advertising and Marketing</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="D837">
-        <v>19031000</v>
+        <v>18001000</v>
       </c>
       <c r="E837" s="3" t="str">
         <f>VLOOKUP(D837,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Hobby and Collectibles</v>
+        <v>Service: Advertising and Marketing</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
-        <v>1523</v>
+        <v>1513</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>1524</v>
+        <v>1514</v>
       </c>
       <c r="C838" s="4" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="D838">
-        <v>19000000</v>
+        <v>18001000</v>
       </c>
       <c r="E838" s="3" t="str">
         <f>VLOOKUP(D838,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Service: Advertising and Marketing</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="C839" s="4" t="s">
-        <v>1527</v>
+        <v>1517</v>
       </c>
       <c r="D839">
-        <v>19000000</v>
+        <v>19003000</v>
       </c>
       <c r="E839" s="3" t="str">
         <f>VLOOKUP(D839,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Shops: Arts and Crafts</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
-        <v>1528</v>
+        <v>1518</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>1529</v>
+        <v>1519</v>
       </c>
       <c r="C840" s="4" t="s">
-        <v>1530</v>
+        <v>1519</v>
       </c>
       <c r="D840">
-        <v>19000000</v>
+        <v>17001017</v>
       </c>
       <c r="E840" s="3" t="str">
         <f>VLOOKUP(D840,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Recreation: Arts and Entertainment: Art Dealers and Galleries</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
-        <v>1531</v>
+        <v>1520</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>1532</v>
+        <v>1521</v>
       </c>
       <c r="C841" s="4" t="s">
-        <v>1532</v>
+        <v>1522</v>
       </c>
       <c r="D841">
-        <v>19006000</v>
+        <v>19031000</v>
       </c>
       <c r="E841" s="3" t="str">
         <f>VLOOKUP(D841,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Beauty Products</v>
+        <v>Shops: Hobby and Collectibles</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
       <c r="B842" s="4" t="s">
-        <v>1534</v>
+        <v>1524</v>
       </c>
       <c r="C842" s="4" t="s">
-        <v>1535</v>
+        <v>1524</v>
       </c>
       <c r="D842">
-        <v>19039000</v>
+        <v>19000000</v>
       </c>
       <c r="E842" s="3" t="str">
         <f>VLOOKUP(D842,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Office Supplies</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>1537</v>
+        <v>1526</v>
       </c>
       <c r="C843" s="4" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="D843">
-        <v>19026000</v>
+        <v>19000000</v>
       </c>
       <c r="E843" s="3" t="str">
         <f>VLOOKUP(D843,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Fuel Dealer</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
-        <v>1539</v>
+        <v>1528</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
       <c r="C844" s="4" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="D844">
-        <v>19024000</v>
+        <v>19000000</v>
       </c>
       <c r="E844" s="3" t="str">
         <f>VLOOKUP(D844,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Florists</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="C845" s="4" t="s">
-        <v>1542</v>
+        <v>1532</v>
       </c>
       <c r="D845">
-        <v>19000000</v>
+        <v>19006000</v>
       </c>
       <c r="E845" s="3" t="str">
         <f>VLOOKUP(D845,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Shops: Beauty Products</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
-        <v>1543</v>
+        <v>1533</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="C846" s="4" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="D846">
-        <v>19038000</v>
+        <v>19039000</v>
       </c>
       <c r="E846" s="3" t="str">
         <f>VLOOKUP(D846,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Newsstands</v>
+        <v>Shops: Office Supplies</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="D847">
-        <v>19042000</v>
+        <v>19026000</v>
       </c>
       <c r="E847" s="3" t="str">
         <f>VLOOKUP(D847,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Pets</v>
+        <v>Shops: Fuel Dealer</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="D848">
-        <v>18024006</v>
+        <v>19024000</v>
       </c>
       <c r="E848" s="3" t="str">
         <f>VLOOKUP(D848,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Pools and Spas</v>
+        <v>Shops: Florists</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="C849" s="4" t="s">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="D849">
-        <v>18045000</v>
+        <v>19000000</v>
       </c>
       <c r="E849" s="3" t="str">
         <f>VLOOKUP(D849,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
-        <v>1554</v>
+        <v>1543</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>1555</v>
+        <v>1544</v>
       </c>
       <c r="D850">
-        <v>17025000</v>
+        <v>19038000</v>
       </c>
       <c r="E850" s="3" t="str">
         <f>VLOOKUP(D850,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Outdoors</v>
+        <v>Shops: Newsstands</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
-        <v>1556</v>
+        <v>1545</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>1557</v>
+        <v>1546</v>
       </c>
       <c r="C851" s="4" t="s">
-        <v>1558</v>
+        <v>1547</v>
       </c>
       <c r="D851">
-        <v>19000000</v>
+        <v>19042000</v>
       </c>
       <c r="E851" s="3" t="str">
         <f>VLOOKUP(D851,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Shops: Pets</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
-        <v>1559</v>
+        <v>1548</v>
       </c>
       <c r="B852" s="4" t="s">
-        <v>1560</v>
+        <v>1549</v>
       </c>
       <c r="C852" s="4" t="s">
-        <v>1561</v>
+        <v>1550</v>
       </c>
       <c r="D852">
-        <v>11000000</v>
+        <v>18024006</v>
       </c>
       <c r="E852" s="3" t="str">
         <f>VLOOKUP(D852,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Cash Advance</v>
+        <v>Service: Home Improvement: Pools and Spas</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
-        <v>1562</v>
+        <v>1551</v>
       </c>
       <c r="B853" s="4" t="s">
-        <v>1560</v>
+        <v>1552</v>
       </c>
       <c r="C853" s="4" t="s">
-        <v>1563</v>
+        <v>1553</v>
       </c>
       <c r="D853">
-        <v>11000000</v>
+        <v>18045000</v>
       </c>
       <c r="E853" s="3" t="str">
         <f>VLOOKUP(D853,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Cash Advance</v>
+        <v>Service: Personal Care</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
-        <v>1564</v>
+        <v>1554</v>
       </c>
       <c r="B854" s="4" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="C854" s="4" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="D854">
-        <v>18020012</v>
+        <v>17025000</v>
       </c>
       <c r="E854" s="3" t="str">
         <f>VLOOKUP(D854,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Banking and Finance</v>
+        <v>Recreation: Outdoors</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="B855" s="4" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="C855" s="4" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="D855">
-        <v>18020010</v>
+        <v>19000000</v>
       </c>
       <c r="E855" s="3" t="str">
         <f>VLOOKUP(D855,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Check Cashing</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="B856" s="4" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
       <c r="C856" s="4" t="s">
-        <v>1571</v>
+        <v>1561</v>
       </c>
       <c r="D856">
-        <v>18020003</v>
+        <v>11000000</v>
       </c>
       <c r="E856" s="3" t="str">
         <f>VLOOKUP(D856,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Stock Brokers</v>
+        <v>Cash Advance</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="B857" s="4" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
       <c r="C857" s="4" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
       <c r="D857">
-        <v>18030000</v>
+        <v>11000000</v>
       </c>
       <c r="E857" s="3" t="str">
         <f>VLOOKUP(D857,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Insurance</v>
+        <v>Cash Advance</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="B858" s="4" t="s">
-        <v>1576</v>
+        <v>1565</v>
+      </c>
+      <c r="C858" s="4" t="s">
+        <v>1566</v>
       </c>
       <c r="D858">
-        <v>18030000</v>
+        <v>18020012</v>
       </c>
       <c r="E858" s="3" t="str">
         <f>VLOOKUP(D858,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Insurance</v>
+        <v>Service: Financial: Banking and Finance</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
-        <v>1577</v>
+        <v>1567</v>
       </c>
       <c r="B859" s="4" t="s">
-        <v>1578</v>
+        <v>1568</v>
       </c>
       <c r="C859" s="4" t="s">
-        <v>1579</v>
+        <v>1569</v>
       </c>
       <c r="D859">
-        <v>18030000</v>
+        <v>18020010</v>
       </c>
       <c r="E859" s="3" t="str">
         <f>VLOOKUP(D859,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Insurance</v>
+        <v>Service: Financial: Check Cashing</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="C860" s="4" t="s">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="D860">
-        <v>18050003</v>
+        <v>18020003</v>
       </c>
       <c r="E860" s="3" t="str">
         <f>VLOOKUP(D860,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Real Estate: Real Estate Agents</v>
+        <v>Service: Financial: Stock Brokers</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
-        <v>1582</v>
+        <v>1572</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>1583</v>
+        <v>1573</v>
       </c>
       <c r="C861" s="4" t="s">
-        <v>1584</v>
+        <v>1574</v>
       </c>
       <c r="D861">
-        <v>22012003</v>
+        <v>18030000</v>
       </c>
       <c r="E861" s="3" t="str">
         <f>VLOOKUP(D861,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Hotels and Motels</v>
+        <v>Service: Insurance</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C862" s="4" t="s">
-        <v>1586</v>
+        <v>1576</v>
       </c>
       <c r="D862">
-        <v>22012002</v>
+        <v>18030000</v>
       </c>
       <c r="E862" s="3" t="str">
         <f>VLOOKUP(D862,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Lodges and Vacation Rentals</v>
+        <v>Service: Insurance</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
-        <v>1587</v>
+        <v>1577</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="C863" s="4" t="s">
-        <v>1589</v>
+        <v>1579</v>
       </c>
       <c r="D863">
-        <v>17041000</v>
+        <v>18030000</v>
       </c>
       <c r="E863" s="3" t="str">
         <f>VLOOKUP(D863,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports and Recreation Camps</v>
+        <v>Service: Insurance</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
-        <v>1590</v>
+        <v>1580</v>
       </c>
       <c r="B864" s="4" t="s">
-        <v>1591</v>
+        <v>1581</v>
       </c>
       <c r="C864" s="4" t="s">
-        <v>1592</v>
+        <v>1581</v>
       </c>
       <c r="D864">
-        <v>17007000</v>
+        <v>18050003</v>
       </c>
       <c r="E864" s="3" t="str">
         <f>VLOOKUP(D864,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Campgrounds and RV Parks</v>
+        <v>Service: Real Estate: Real Estate Agents</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
-        <v>1593</v>
+        <v>1582</v>
       </c>
       <c r="B865" s="4" t="s">
-        <v>1594</v>
+        <v>1583</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>1595</v>
+        <v>1584</v>
       </c>
       <c r="D865">
-        <v>18045008</v>
+        <v>22012003</v>
       </c>
       <c r="E865" s="3" t="str">
         <f>VLOOKUP(D865,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Laundry and Garment Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
-        <v>1596</v>
+        <v>1585</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>1597</v>
+        <v>1586</v>
       </c>
       <c r="C866" s="4" t="s">
-        <v>1598</v>
+        <v>1586</v>
       </c>
       <c r="D866">
-        <v>18045008</v>
+        <v>22012002</v>
       </c>
       <c r="E866" s="3" t="str">
         <f>VLOOKUP(D866,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Laundry and Garment Services</v>
+        <v>Travel: Lodging: Lodges and Vacation Rentals</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
-        <v>1599</v>
+        <v>1587</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>1600</v>
+        <v>1588</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>1600</v>
+        <v>1589</v>
       </c>
       <c r="D867">
-        <v>18045008</v>
+        <v>17041000</v>
       </c>
       <c r="E867" s="3" t="str">
         <f>VLOOKUP(D867,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Laundry and Garment Services</v>
+        <v>Recreation: Sports and Recreation Camps</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
-        <v>1601</v>
+        <v>1590</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>1602</v>
+        <v>1591</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>1603</v>
+        <v>1592</v>
       </c>
       <c r="D868">
-        <v>18024025</v>
+        <v>17007000</v>
       </c>
       <c r="E868" s="3" t="str">
         <f>VLOOKUP(D868,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Carpet and Flooring</v>
+        <v>Recreation: Campgrounds and RV Parks</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
-        <v>1604</v>
+        <v>1593</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>1605</v>
+        <v>1595</v>
       </c>
       <c r="D869">
-        <v>18047000</v>
+        <v>18045008</v>
       </c>
       <c r="E869" s="3" t="str">
         <f>VLOOKUP(D869,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Photography</v>
+        <v>Service: Personal Care: Laundry and Garment Services</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
-        <v>1606</v>
+        <v>1596</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>1607</v>
+        <v>1597</v>
       </c>
       <c r="C870" s="4" t="s">
-        <v>1607</v>
+        <v>1598</v>
       </c>
       <c r="D870">
-        <v>18045009</v>
+        <v>18045008</v>
       </c>
       <c r="E870" s="3" t="str">
         <f>VLOOKUP(D870,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Hair Salons and Barbers</v>
+        <v>Service: Personal Care: Laundry and Garment Services</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
-        <v>1608</v>
+        <v>1599</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>1609</v>
+        <v>1600</v>
       </c>
       <c r="C871" s="4" t="s">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="D871">
-        <v>18011000</v>
+        <v>18045008</v>
       </c>
       <c r="E871" s="3" t="str">
         <f>VLOOKUP(D871,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Cleaning</v>
+        <v>Service: Personal Care: Laundry and Garment Services</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>1612</v>
+        <v>1602</v>
       </c>
       <c r="C872" s="4" t="s">
-        <v>1613</v>
+        <v>1603</v>
       </c>
       <c r="D872">
-        <v>18022000</v>
+        <v>18024025</v>
       </c>
       <c r="E872" s="3" t="str">
         <f>VLOOKUP(D872,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Funeral Services</v>
+        <v>Service: Home Improvement: Carpet and Flooring</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
-        <v>1614</v>
+        <v>1604</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>1615</v>
+        <v>1605</v>
       </c>
       <c r="C873" s="4" t="s">
-        <v>1616</v>
+        <v>1605</v>
       </c>
       <c r="D873">
-        <v>18015000</v>
+        <v>18047000</v>
       </c>
       <c r="E873" s="3" t="str">
         <f>VLOOKUP(D873,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Dating and Escort</v>
+        <v>Service: Photography</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>1619</v>
+        <v>1607</v>
       </c>
       <c r="D874">
-        <v>18020001</v>
+        <v>18045009</v>
       </c>
       <c r="E874" s="3" t="str">
         <f>VLOOKUP(D874,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Taxes</v>
+        <v>Service: Personal Care: Hair Salons and Barbers</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
-        <v>1620</v>
+        <v>1608</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>1621</v>
+        <v>1609</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>1622</v>
+        <v>1610</v>
       </c>
       <c r="D875">
-        <v>18014000</v>
+        <v>18011000</v>
       </c>
       <c r="E875" s="3" t="str">
         <f>VLOOKUP(D875,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Credit Counseling and Bankruptcy Services</v>
+        <v>Service: Cleaning</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
-        <v>1623</v>
+        <v>1611</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>1624</v>
+        <v>1612</v>
       </c>
       <c r="C876" s="4" t="s">
-        <v>1625</v>
+        <v>1613</v>
       </c>
       <c r="D876">
-        <v>19053000</v>
+        <v>18022000</v>
       </c>
       <c r="E876" s="3" t="str">
         <f>VLOOKUP(D876,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Wholesale</v>
+        <v>Service: Funeral Services</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
-        <v>1626</v>
+        <v>1614</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>1628</v>
+        <v>1616</v>
       </c>
       <c r="D877">
-        <v>19016000</v>
+        <v>18015000</v>
       </c>
       <c r="E877" s="3" t="str">
         <f>VLOOKUP(D877,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Costumes</v>
+        <v>Service: Dating and Escort</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
-        <v>1629</v>
+        <v>1617</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>1630</v>
+        <v>1618</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>1630</v>
+        <v>1619</v>
       </c>
       <c r="D878">
-        <v>18045006</v>
+        <v>18020001</v>
       </c>
       <c r="E878" s="3" t="str">
         <f>VLOOKUP(D878,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Massage Clinics and Therapists</v>
+        <v>Service: Financial: Taxes</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
-        <v>1631</v>
+        <v>1620</v>
       </c>
       <c r="B879" s="4" t="s">
-        <v>1632</v>
+        <v>1621</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>1633</v>
+        <v>1622</v>
       </c>
       <c r="D879">
-        <v>18045003</v>
+        <v>18014000</v>
       </c>
       <c r="E879" s="3" t="str">
         <f>VLOOKUP(D879,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Spas</v>
+        <v>Service: Credit Counseling and Bankruptcy Services</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
-        <v>1634</v>
+        <v>1623</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>1636</v>
+        <v>1625</v>
       </c>
       <c r="D880">
-        <v>18045000</v>
+        <v>19053000</v>
       </c>
       <c r="E880" s="3" t="str">
         <f>VLOOKUP(D880,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care</v>
+        <v>Shops: Wholesale</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
-        <v>1637</v>
+        <v>1626</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>1638</v>
+        <v>1627</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>1638</v>
+        <v>1628</v>
       </c>
       <c r="D881">
-        <v>18001010</v>
+        <v>19016000</v>
       </c>
       <c r="E881" s="3" t="str">
         <f>VLOOKUP(D881,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Advertising Agencies and Media Buyers</v>
+        <v>Shops: Costumes</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
-        <v>1639</v>
+        <v>1629</v>
       </c>
       <c r="B882" s="4" t="s">
-        <v>1640</v>
+        <v>1630</v>
       </c>
       <c r="C882" s="4" t="s">
-        <v>1641</v>
+        <v>1630</v>
       </c>
       <c r="D882">
-        <v>18020008</v>
+        <v>18045006</v>
       </c>
       <c r="E882" s="3" t="str">
         <f>VLOOKUP(D882,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Credit Reporting</v>
+        <v>Service: Personal Care: Massage Clinics and Therapists</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
-        <v>1642</v>
+        <v>1631</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>1643</v>
+        <v>1632</v>
+      </c>
+      <c r="C883" s="4" t="s">
+        <v>1633</v>
       </c>
       <c r="D883">
-        <v>18008001</v>
+        <v>18045003</v>
       </c>
       <c r="E883" s="3" t="str">
         <f>VLOOKUP(D883,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services: Printing and Publishing</v>
+        <v>Service: Personal Care: Spas</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
-        <v>1644</v>
+        <v>1634</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>1645</v>
+        <v>1635</v>
       </c>
       <c r="C884" s="4" t="s">
-        <v>1645</v>
+        <v>1636</v>
       </c>
       <c r="D884">
-        <v>18074000</v>
+        <v>18045000</v>
       </c>
       <c r="E884" s="3" t="str">
         <f>VLOOKUP(D884,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Art and Graphic Design</v>
+        <v>Service: Personal Care</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
-        <v>1646</v>
+        <v>1637</v>
       </c>
       <c r="B885" s="4" t="s">
-        <v>1647</v>
+        <v>1638</v>
       </c>
       <c r="C885" s="4" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="D885">
-        <v>18008001</v>
+        <v>18001010</v>
       </c>
       <c r="E885" s="3" t="str">
         <f>VLOOKUP(D885,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services: Printing and Publishing</v>
+        <v>Service: Advertising and Marketing: Advertising Agencies and Media Buyers</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="D886">
-        <v>18008000</v>
+        <v>18020008</v>
       </c>
       <c r="E886" s="3" t="str">
         <f>VLOOKUP(D886,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services</v>
+        <v>Service: Financial: Credit Reporting</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A887" s="1" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C887" s="4" t="s">
-        <v>1654</v>
+        <v>1643</v>
       </c>
       <c r="D887">
-        <v>18024008</v>
+        <v>18008001</v>
       </c>
       <c r="E887" s="3" t="str">
         <f>VLOOKUP(D887,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Pest Control</v>
+        <v>Service: Business Services: Printing and Publishing</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A888" s="1" t="s">
-        <v>1655</v>
+        <v>1644</v>
       </c>
       <c r="B888" s="4" t="s">
-        <v>1656</v>
+        <v>1645</v>
       </c>
       <c r="C888" s="4" t="s">
-        <v>1657</v>
+        <v>1645</v>
       </c>
       <c r="D888">
-        <v>18011000</v>
+        <v>18074000</v>
       </c>
       <c r="E888" s="3" t="str">
         <f>VLOOKUP(D888,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Cleaning</v>
+        <v>Service: Art and Graphic Design</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A889" s="1" t="s">
-        <v>1658</v>
+        <v>1646</v>
       </c>
       <c r="B889" s="4" t="s">
-        <v>1659</v>
+        <v>1647</v>
       </c>
       <c r="C889" s="4" t="s">
-        <v>1660</v>
+        <v>1648</v>
       </c>
       <c r="D889">
-        <v>18016000</v>
+        <v>18008001</v>
       </c>
       <c r="E889" s="3" t="str">
         <f>VLOOKUP(D889,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Employment Agencies</v>
+        <v>Service: Business Services: Printing and Publishing</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
-        <v>1661</v>
+        <v>1649</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>1662</v>
+        <v>1650</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="D890">
-        <v>18059000</v>
+        <v>18008000</v>
       </c>
       <c r="E890" s="3" t="str">
         <f>VLOOKUP(D890,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Software Development</v>
+        <v>Service: Business Services</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>1665</v>
+        <v>1653</v>
       </c>
       <c r="C891" s="4" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="D891">
-        <v>18012000</v>
+        <v>18024008</v>
       </c>
       <c r="E891" s="3" t="str">
         <f>VLOOKUP(D891,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Computers</v>
+        <v>Service: Home Improvement: Pest Control</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="B892" s="4" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="C892" s="4" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="D892">
-        <v>18012001</v>
+        <v>18011000</v>
       </c>
       <c r="E892" s="3" t="str">
         <f>VLOOKUP(D892,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Computers: Maintenance and Repair</v>
+        <v>Service: Cleaning</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
       <c r="C893" s="4" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
       <c r="D893">
-        <v>18001003</v>
+        <v>18016000</v>
       </c>
       <c r="E893" s="3" t="str">
         <f>VLOOKUP(D893,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Public Relations</v>
+        <v>Service: Employment Agencies</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
       <c r="B894" s="4" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="D894">
-        <v>18057000</v>
+        <v>18059000</v>
       </c>
       <c r="E894" s="3" t="str">
         <f>VLOOKUP(D894,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Security and Safety</v>
+        <v>Service: Software Development</v>
       </c>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="B895" s="4" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="C895" s="4" t="s">
-        <v>1677</v>
+        <v>1665</v>
       </c>
       <c r="D895">
-        <v>19022000</v>
+        <v>18012000</v>
       </c>
       <c r="E895" s="3" t="str">
         <f>VLOOKUP(D895,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Equipment Rental</v>
+        <v>Service: Computers</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A896" s="1" t="s">
-        <v>1678</v>
+        <v>1666</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>1679</v>
+        <v>1667</v>
       </c>
       <c r="C896" s="4" t="s">
-        <v>1680</v>
+        <v>1668</v>
       </c>
       <c r="D896">
-        <v>18047000</v>
+        <v>18012001</v>
       </c>
       <c r="E896" s="3" t="str">
         <f>VLOOKUP(D896,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Photography</v>
+        <v>Service: Computers: Maintenance and Repair</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897" s="1" t="s">
-        <v>1681</v>
+        <v>1669</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>1682</v>
+        <v>1670</v>
       </c>
       <c r="C897" s="4" t="s">
-        <v>1683</v>
+        <v>1671</v>
       </c>
       <c r="D897">
-        <v>18008000</v>
+        <v>18001003</v>
       </c>
       <c r="E897" s="3" t="str">
         <f>VLOOKUP(D897,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services</v>
+        <v>Service: Advertising and Marketing: Public Relations</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898" s="1" t="s">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>1685</v>
+        <v>1673</v>
       </c>
       <c r="C898" s="4" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="D898">
-        <v>22009000</v>
+        <v>18057000</v>
       </c>
       <c r="E898" s="3" t="str">
         <f>VLOOKUP(D898,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Gas Stations</v>
+        <v>Service: Security and Safety</v>
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A899" s="1" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="C899" s="4" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="D899">
-        <v>22005000</v>
+        <v>19022000</v>
       </c>
       <c r="E899" s="3" t="str">
         <f>VLOOKUP(D899,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Car and Truck Rentals</v>
+        <v>Shops: Equipment Rental</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A900" s="1" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="C900" s="4" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="D900">
-        <v>22005000</v>
+        <v>18047000</v>
       </c>
       <c r="E900" s="3" t="str">
         <f>VLOOKUP(D900,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Car and Truck Rentals</v>
+        <v>Service: Photography</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901" s="1" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="C901" s="4" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="D901">
-        <v>19005003</v>
+        <v>18008000</v>
       </c>
       <c r="E901" s="3" t="str">
         <f>VLOOKUP(D901,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: RVs and Motor Homes</v>
+        <v>Service: Business Services</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902" s="1" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="C902" s="4" t="s">
-        <v>1697</v>
+        <v>1685</v>
       </c>
       <c r="D902">
-        <v>22013000</v>
+        <v>22009000</v>
       </c>
       <c r="E902" s="3" t="str">
         <f>VLOOKUP(D902,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Parking</v>
+        <v>Travel: Gas Stations</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903" s="1" t="s">
-        <v>1698</v>
+        <v>1686</v>
       </c>
       <c r="B903" s="4" t="s">
-        <v>1699</v>
+        <v>1687</v>
       </c>
       <c r="C903" s="4" t="s">
-        <v>1700</v>
+        <v>1688</v>
       </c>
       <c r="D903">
-        <v>18006003</v>
+        <v>22005000</v>
       </c>
       <c r="E903" s="3" t="str">
         <f>VLOOKUP(D903,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Travel: Car and Truck Rentals</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904" s="1" t="s">
-        <v>1701</v>
+        <v>1689</v>
       </c>
       <c r="B904" s="4" t="s">
-        <v>1702</v>
+        <v>1690</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>1703</v>
+        <v>1691</v>
       </c>
       <c r="D904">
-        <v>18006003</v>
+        <v>22005000</v>
       </c>
       <c r="E904" s="3" t="str">
         <f>VLOOKUP(D904,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Travel: Car and Truck Rentals</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905" s="1" t="s">
-        <v>1704</v>
+        <v>1692</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>1705</v>
+        <v>1693</v>
       </c>
       <c r="C905" s="4" t="s">
-        <v>1706</v>
+        <v>1694</v>
       </c>
       <c r="D905">
-        <v>18006003</v>
+        <v>19005003</v>
       </c>
       <c r="E905" s="3" t="str">
         <f>VLOOKUP(D905,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Shops: Automotive: RVs and Motor Homes</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906" s="1" t="s">
-        <v>1707</v>
+        <v>1695</v>
       </c>
       <c r="B906" s="4" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="C906" s="4" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="D906">
-        <v>18006003</v>
+        <v>22013000</v>
       </c>
       <c r="E906" s="3" t="str">
         <f>VLOOKUP(D906,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Travel: Parking</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907" s="1" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="C907" s="4" t="s">
-        <v>1711</v>
+        <v>1700</v>
       </c>
       <c r="D907">
-        <v>18006004</v>
+        <v>18006003</v>
       </c>
       <c r="E907" s="3" t="str">
         <f>VLOOKUP(D907,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Car Wash and Detail</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>1712</v>
+        <v>1701</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>1713</v>
+        <v>1702</v>
       </c>
       <c r="C908" s="4" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="D908">
-        <v>18006001</v>
+        <v>18006003</v>
       </c>
       <c r="E908" s="3" t="str">
         <f>VLOOKUP(D908,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Towing</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A909" s="1" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="C909" s="4" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="D909">
-        <v>19013000</v>
+        <v>18006003</v>
       </c>
       <c r="E909" s="3" t="str">
         <f>VLOOKUP(D909,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A910" s="1" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="B910" s="4" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="D910">
-        <v>18053000</v>
+        <v>18006003</v>
       </c>
       <c r="E910" s="3" t="str">
         <f>VLOOKUP(D910,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A911" s="1" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>1722</v>
+        <v>1711</v>
       </c>
       <c r="D911">
-        <v>18053000</v>
+        <v>18006004</v>
       </c>
       <c r="E911" s="3" t="str">
         <f>VLOOKUP(D911,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Service: Automotive: Car Wash and Detail</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A912" s="1" t="s">
-        <v>1723</v>
+        <v>1712</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>1724</v>
+        <v>1713</v>
       </c>
       <c r="C912" s="4" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="D912">
-        <v>19033000</v>
+        <v>18006001</v>
       </c>
       <c r="E912" s="3" t="str">
         <f>VLOOKUP(D912,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Jewelry and Watches</v>
+        <v>Service: Automotive: Towing</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A913" s="1" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="C913" s="4" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="D913">
-        <v>18053000</v>
+        <v>19013000</v>
       </c>
       <c r="E913" s="3" t="str">
         <f>VLOOKUP(D913,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Shops: Computers and Electronics</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A914" s="1" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="C914" s="4" t="s">
-        <v>1730</v>
+        <v>1719</v>
       </c>
       <c r="D914">
         <v>18053000</v>
@@ -24844,13 +24850,13 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915" s="1" t="s">
-        <v>1731</v>
+        <v>1720</v>
       </c>
       <c r="B915" s="4" t="s">
-        <v>1732</v>
+        <v>1721</v>
       </c>
       <c r="C915" s="4" t="s">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="D915">
         <v>18053000</v>
@@ -24862,784 +24868,784 @@
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A916" s="1" t="s">
-        <v>1734</v>
+        <v>1723</v>
       </c>
       <c r="B916" s="4" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="C916" s="4" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="D916">
-        <v>18018001</v>
+        <v>19033000</v>
       </c>
       <c r="E916" s="3" t="str">
         <f>VLOOKUP(D916,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Entertainment: Media</v>
+        <v>Shops: Jewelry and Watches</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A917" s="1" t="s">
-        <v>1737</v>
+        <v>1726</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="C917" s="4" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="D917">
-        <v>17001009</v>
+        <v>18053000</v>
       </c>
       <c r="E917" s="3" t="str">
         <f>VLOOKUP(D917,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Movie Theatres</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918" s="1" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="C918" s="4" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="D918">
-        <v>19036000</v>
+        <v>18053000</v>
       </c>
       <c r="E918" s="3" t="str">
         <f>VLOOKUP(D918,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Music, Video and DVD</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919" s="1" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="C919" s="4" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="D919">
-        <v>17001012</v>
+        <v>18053000</v>
       </c>
       <c r="E919" s="3" t="str">
         <f>VLOOKUP(D919,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Dance Halls and Saloons</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A920" s="1" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="C920" s="4" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="D920">
-        <v>17001000</v>
+        <v>18018001</v>
       </c>
       <c r="E920" s="3" t="str">
         <f>VLOOKUP(D920,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment</v>
+        <v>Service: Entertainment: Media</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921" s="1" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="B921" s="4" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="C921" s="4" t="s">
-        <v>1749</v>
+        <v>1738</v>
       </c>
       <c r="D921">
-        <v>17001002</v>
+        <v>17001009</v>
       </c>
       <c r="E921" s="3" t="str">
         <f>VLOOKUP(D921,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Symphony and Opera</v>
+        <v>Recreation: Arts and Entertainment: Movie Theatres</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922" s="1" t="s">
-        <v>1750</v>
+        <v>1739</v>
       </c>
       <c r="B922" s="4" t="s">
-        <v>1751</v>
+        <v>1740</v>
       </c>
       <c r="C922" s="4" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="D922">
-        <v>17001016</v>
+        <v>19036000</v>
       </c>
       <c r="E922" s="3" t="str">
         <f>VLOOKUP(D922,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Billiards and Pool</v>
+        <v>Shops: Music, Video and DVD</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923" s="1" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="C923" s="4" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="D923">
-        <v>17001015</v>
+        <v>17001012</v>
       </c>
       <c r="E923" s="3" t="str">
         <f>VLOOKUP(D923,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Bowling</v>
+        <v>Recreation: Arts and Entertainment: Dance Halls and Saloons</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A924" s="1" t="s">
-        <v>1755</v>
+        <v>1744</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>1756</v>
+        <v>1745</v>
       </c>
       <c r="C924" s="4" t="s">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="D924">
-        <v>17042000</v>
+        <v>17001000</v>
       </c>
       <c r="E924" s="3" t="str">
         <f>VLOOKUP(D924,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Recreation: Arts and Entertainment</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A925" s="1" t="s">
-        <v>1758</v>
+        <v>1747</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>1759</v>
+        <v>1748</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="D925">
-        <v>17023001</v>
+        <v>17001002</v>
       </c>
       <c r="E925" s="3" t="str">
         <f>VLOOKUP(D925,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Landmarks: Monuments and Memorials</v>
+        <v>Recreation: Arts and Entertainment: Symphony and Opera</v>
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A926" s="1" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="C926" s="4" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="D926">
-        <v>17015000</v>
+        <v>17001016</v>
       </c>
       <c r="E926" s="3" t="str">
         <f>VLOOKUP(D926,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Golf</v>
+        <v>Recreation: Arts and Entertainment: Billiards and Pool</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A927" s="1" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="C927" s="4" t="s">
-        <v>1763</v>
+        <v>1754</v>
       </c>
       <c r="D927">
-        <v>19013001</v>
+        <v>17001015</v>
       </c>
       <c r="E927" s="3" t="str">
         <f>VLOOKUP(D927,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics: Video Games</v>
+        <v>Recreation: Arts and Entertainment: Bowling</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928" s="1" t="s">
-        <v>1764</v>
+        <v>1755</v>
       </c>
       <c r="B928" s="4" t="s">
-        <v>1765</v>
+        <v>1756</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>1766</v>
+        <v>1757</v>
       </c>
       <c r="D928">
-        <v>17001018</v>
+        <v>17042000</v>
       </c>
       <c r="E928" s="3" t="str">
         <f>VLOOKUP(D928,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
+        <v>Recreation: Sports Clubs</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929" s="1" t="s">
-        <v>1767</v>
+        <v>1758</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="C929" s="4" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="D929">
-        <v>17001014</v>
+        <v>17023001</v>
       </c>
       <c r="E929" s="3" t="str">
         <f>VLOOKUP(D929,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+        <v>Recreation: Landmarks: Monuments and Memorials</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" s="1" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="C930" s="4" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="D930">
-        <v>17001018</v>
+        <v>17015000</v>
       </c>
       <c r="E930" s="3" t="str">
         <f>VLOOKUP(D930,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
+        <v>Recreation: Golf</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" s="1" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="B931" s="4" t="s">
-        <v>1774</v>
+        <v>1763</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="D931">
-        <v>17042000</v>
+        <v>19013001</v>
       </c>
       <c r="E931" s="3" t="str">
         <f>VLOOKUP(D931,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Shops: Computers and Electronics: Video Games</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" s="1" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>1777</v>
+        <v>1765</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>1778</v>
+        <v>1766</v>
       </c>
       <c r="D932">
-        <v>17001019</v>
+        <v>17001018</v>
       </c>
       <c r="E932" s="3" t="str">
         <f>VLOOKUP(D932,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Aquarium</v>
+        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933" s="1" t="s">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>1780</v>
+        <v>1768</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>1781</v>
+        <v>1769</v>
       </c>
       <c r="D933">
-        <v>17042000</v>
+        <v>17001014</v>
       </c>
       <c r="E933" s="3" t="str">
         <f>VLOOKUP(D933,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" s="1" t="s">
-        <v>1782</v>
+        <v>1770</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
       <c r="D934">
-        <v>14002000</v>
+        <v>17001018</v>
       </c>
       <c r="E934" s="3" t="str">
         <f>VLOOKUP(D934,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Physicians</v>
+        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935" s="1" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>1786</v>
+        <v>1774</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>1787</v>
+        <v>1775</v>
       </c>
       <c r="D935">
-        <v>14001012</v>
+        <v>17042000</v>
       </c>
       <c r="E935" s="3" t="str">
         <f>VLOOKUP(D935,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Dentists</v>
+        <v>Recreation: Sports Clubs</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936" s="1" t="s">
-        <v>1788</v>
+        <v>1776</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="D936">
-        <v>14001016</v>
+        <v>17001019</v>
       </c>
       <c r="E936" s="3" t="str">
         <f>VLOOKUP(D936,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Alternative Medicine</v>
+        <v>Recreation: Arts and Entertainment: Aquarium</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937" s="1" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="C937" s="4" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="D937">
-        <v>14001014</v>
+        <v>17042000</v>
       </c>
       <c r="E937" s="3" t="str">
         <f>VLOOKUP(D937,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Chiropractors</v>
+        <v>Recreation: Sports Clubs</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938" s="1" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="D938">
-        <v>14001005</v>
+        <v>14002000</v>
       </c>
       <c r="E938" s="3" t="str">
         <f>VLOOKUP(D938,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Optometrists</v>
+        <v>Healthcare: Physicians</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A939" s="1" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="D939">
-        <v>19029000</v>
+        <v>14001012</v>
       </c>
       <c r="E939" s="3" t="str">
         <f>VLOOKUP(D939,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Glasses and Optometrist</v>
+        <v>Healthcare: Healthcare Services: Dentists</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A940" s="1" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>1799</v>
+        <v>1789</v>
+      </c>
+      <c r="C940" s="4" t="s">
+        <v>1789</v>
       </c>
       <c r="D940">
-        <v>19029000</v>
+        <v>14001016</v>
       </c>
       <c r="E940" s="3" t="str">
         <f>VLOOKUP(D940,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Glasses and Optometrist</v>
+        <v>Healthcare: Healthcare Services: Alternative Medicine</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941" s="1" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
       <c r="D941">
-        <v>14001003</v>
+        <v>14001014</v>
       </c>
       <c r="E941" s="3" t="str">
         <f>VLOOKUP(D941,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Podiatrists</v>
+        <v>Healthcare: Healthcare Services: Chiropractors</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942" s="1" t="s">
-        <v>1803</v>
+        <v>1792</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>1804</v>
+        <v>1793</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>1805</v>
+        <v>1794</v>
       </c>
       <c r="D942">
-        <v>14001007</v>
+        <v>14001005</v>
       </c>
       <c r="E942" s="3" t="str">
         <f>VLOOKUP(D942,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Nurses</v>
+        <v>Healthcare: Healthcare Services: Optometrists</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A943" s="1" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1807</v>
+        <v>1796</v>
       </c>
       <c r="C943" s="4" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
       <c r="D943">
-        <v>14001010</v>
+        <v>19029000</v>
       </c>
       <c r="E943" s="3" t="str">
         <f>VLOOKUP(D943,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Hospitals, Clinics and Medical Centers</v>
+        <v>Shops: Glasses and Optometrist</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A944" s="1" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1809</v>
-      </c>
-      <c r="C944" s="4" t="s">
-        <v>1810</v>
+        <v>1799</v>
       </c>
       <c r="D944">
-        <v>14001009</v>
+        <v>19029000</v>
       </c>
       <c r="E944" s="3" t="str">
         <f>VLOOKUP(D944,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Medical Supplies and Labs</v>
+        <v>Shops: Glasses and Optometrist</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A945" s="1" t="s">
-        <v>1811</v>
+        <v>1800</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1812</v>
+        <v>1801</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>1813</v>
+        <v>1802</v>
       </c>
       <c r="D945">
-        <v>14001000</v>
+        <v>14001003</v>
       </c>
       <c r="E945" s="3" t="str">
         <f>VLOOKUP(D945,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services</v>
+        <v>Healthcare: Healthcare Services: Podiatrists</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A946" s="1" t="s">
-        <v>1814</v>
+        <v>1803</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1815</v>
+        <v>1804</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>1816</v>
+        <v>1805</v>
       </c>
       <c r="D946">
-        <v>18033000</v>
+        <v>14001007</v>
       </c>
       <c r="E946" s="3" t="str">
         <f>VLOOKUP(D946,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Legal</v>
+        <v>Healthcare: Healthcare Services: Nurses</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A947" s="1" t="s">
-        <v>1817</v>
+        <v>1806</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1818</v>
+        <v>1807</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>1819</v>
+        <v>1807</v>
       </c>
       <c r="D947">
-        <v>12008003</v>
+        <v>14001010</v>
       </c>
       <c r="E947" s="3" t="str">
         <f>VLOOKUP(D947,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Healthcare: Healthcare Services: Hospitals, Clinics and Medical Centers</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A948" s="1" t="s">
-        <v>1820</v>
+        <v>1808</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
       <c r="D948">
-        <v>12008003</v>
+        <v>14001009</v>
       </c>
       <c r="E948" s="3" t="str">
         <f>VLOOKUP(D948,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Healthcare: Healthcare Services: Medical Supplies and Labs</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949" s="1" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>1824</v>
+        <v>1813</v>
       </c>
       <c r="D949">
-        <v>12008003</v>
+        <v>14001000</v>
       </c>
       <c r="E949" s="3" t="str">
         <f>VLOOKUP(D949,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Healthcare: Healthcare Services</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" s="1" t="s">
-        <v>1825</v>
+        <v>1814</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>1827</v>
+        <v>1816</v>
       </c>
       <c r="D950">
-        <v>12008003</v>
+        <v>18033000</v>
       </c>
       <c r="E950" s="3" t="str">
         <f>VLOOKUP(D950,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Service: Legal</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951" s="1" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>1829</v>
+        <v>1818</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="D951">
-        <v>12008001</v>
+        <v>12008003</v>
       </c>
       <c r="E951" s="3" t="str">
         <f>VLOOKUP(D951,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Vocational Schools</v>
+        <v>Community: Education: Primary and Secondary Schools</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952" s="1" t="s">
-        <v>1831</v>
+        <v>1820</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>1832</v>
+        <v>1821</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="D952">
-        <v>12008000</v>
+        <v>12008003</v>
       </c>
       <c r="E952" s="3" t="str">
         <f>VLOOKUP(D952,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education</v>
+        <v>Community: Education: Primary and Secondary Schools</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953" s="1" t="s">
-        <v>1834</v>
+        <v>1823</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>1835</v>
+        <v>1824</v>
       </c>
       <c r="D953">
-        <v>12005000</v>
+        <v>12008003</v>
       </c>
       <c r="E953" s="3" t="str">
         <f>VLOOKUP(D953,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Day Care and Preschools</v>
+        <v>Community: Education: Primary and Secondary Schools</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954" s="1" t="s">
-        <v>1836</v>
+        <v>1825</v>
       </c>
       <c r="B954" s="4" t="s">
-        <v>1837</v>
+        <v>1826</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>1838</v>
+        <v>1827</v>
       </c>
       <c r="D954">
-        <v>12015003</v>
+        <v>12008003</v>
       </c>
       <c r="E954" s="3" t="str">
         <f>VLOOKUP(D954,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations: Charities and Non-Profits</v>
+        <v>Community: Education: Primary and Secondary Schools</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955" s="1" t="s">
-        <v>1839</v>
+        <v>1828</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>1840</v>
+        <v>1829</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>1841</v>
+        <v>1830</v>
       </c>
       <c r="D955">
-        <v>12015000</v>
+        <v>12008001</v>
       </c>
       <c r="E955" s="3" t="str">
         <f>VLOOKUP(D955,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Community: Education: Vocational Schools</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956" s="1" t="s">
-        <v>1842</v>
+        <v>1831</v>
       </c>
       <c r="B956" s="4" t="s">
-        <v>1843</v>
+        <v>1832</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>1843</v>
+        <v>1833</v>
       </c>
       <c r="D956">
-        <v>12015000</v>
+        <v>12008000</v>
       </c>
       <c r="E956" s="3" t="str">
         <f>VLOOKUP(D956,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Community: Education</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" s="1" t="s">
-        <v>1844</v>
+        <v>1834</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>1845</v>
+        <v>1835</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>1845</v>
+        <v>1835</v>
       </c>
       <c r="D957">
-        <v>12018000</v>
+        <v>12005000</v>
       </c>
       <c r="E957" s="3" t="str">
         <f>VLOOKUP(D957,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Religious</v>
+        <v>Community: Day Care and Preschools</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" s="1" t="s">
-        <v>1846</v>
+        <v>1836</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>1847</v>
+        <v>1837</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>1847</v>
+        <v>1838</v>
       </c>
       <c r="D958">
-        <v>12015000</v>
+        <v>12015003</v>
       </c>
       <c r="E958" s="3" t="str">
         <f>VLOOKUP(D958,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Community: Organizations and Associations: Charities and Non-Profits</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" s="1" t="s">
-        <v>1848</v>
+        <v>1839</v>
       </c>
       <c r="B959" s="4" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="D959">
         <v>12015000</v>
@@ -25651,379 +25657,451 @@
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" s="1" t="s">
-        <v>1851</v>
+        <v>1842</v>
       </c>
       <c r="B960" s="4" t="s">
-        <v>1852</v>
+        <v>1843</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>1853</v>
+        <v>1843</v>
       </c>
       <c r="D960">
-        <v>18054000</v>
+        <v>12015000</v>
       </c>
       <c r="E960" s="3" t="str">
         <f>VLOOKUP(D960,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Research</v>
+        <v>Community: Organizations and Associations</v>
       </c>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961" s="1" t="s">
-        <v>1854</v>
+        <v>1844</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>1855</v>
+        <v>1845</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>1856</v>
+        <v>1845</v>
       </c>
       <c r="D961">
-        <v>18050007</v>
+        <v>12018000</v>
       </c>
       <c r="E961" s="3" t="str">
         <f>VLOOKUP(D961,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Real Estate: Building and Land Surveyors</v>
+        <v>Community: Religious</v>
       </c>
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962" s="1" t="s">
-        <v>1857</v>
+        <v>1846</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>1858</v>
+        <v>1847</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>1859</v>
+        <v>1847</v>
       </c>
       <c r="D962">
-        <v>18020014</v>
+        <v>12015000</v>
       </c>
       <c r="E962" s="3" t="str">
         <f>VLOOKUP(D962,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Accounting and Bookkeeping</v>
+        <v>Community: Organizations and Associations</v>
       </c>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A963" s="1" t="s">
-        <v>1860</v>
+        <v>1848</v>
       </c>
       <c r="B963" s="4" t="s">
-        <v>1861</v>
+        <v>1849</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>1862</v>
+        <v>1850</v>
       </c>
       <c r="D963">
-        <v>18000000</v>
+        <v>12015000</v>
       </c>
       <c r="E963" s="3" t="str">
         <f>VLOOKUP(D963,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service</v>
+        <v>Community: Organizations and Associations</v>
       </c>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A964" s="1" t="s">
-        <v>1863</v>
+        <v>1851</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>1864</v>
+        <v>1852</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>1865</v>
+        <v>1853</v>
       </c>
       <c r="D964">
-        <v>12004000</v>
+        <v>18054000</v>
       </c>
       <c r="E964" s="3" t="str">
         <f>VLOOKUP(D964,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Courts</v>
+        <v>Service: Research</v>
       </c>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A965" s="1" t="s">
-        <v>1866</v>
+        <v>1854</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>1867</v>
+        <v>1855</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>1868</v>
+        <v>1856</v>
       </c>
       <c r="D965">
-        <v>12009000</v>
+        <v>18050007</v>
       </c>
       <c r="E965" s="3" t="str">
         <f>VLOOKUP(D965,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Government Departments and Agencies</v>
+        <v>Service: Real Estate: Building and Land Surveyors</v>
       </c>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966" s="1" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
       <c r="B966" s="4" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>1871</v>
+        <v>1859</v>
       </c>
       <c r="D966">
-        <v>12004000</v>
+        <v>18020014</v>
       </c>
       <c r="E966" s="3" t="str">
         <f>VLOOKUP(D966,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Courts</v>
+        <v>Service: Financial: Accounting and Bookkeeping</v>
       </c>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967" s="1" t="s">
-        <v>1872</v>
+        <v>1860</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>1873</v>
+        <v>1861</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
       <c r="D967">
-        <v>20000000</v>
+        <v>18000000</v>
       </c>
       <c r="E967" s="3" t="str">
         <f>VLOOKUP(D967,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Tax</v>
+        <v>Service</v>
       </c>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
-        <v>1875</v>
+        <v>1863</v>
       </c>
       <c r="B968" s="4" t="s">
-        <v>1876</v>
+        <v>1864</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>1877</v>
+        <v>1865</v>
       </c>
       <c r="D968">
-        <v>12009000</v>
+        <v>12004000</v>
       </c>
       <c r="E968" s="3" t="str">
         <f>VLOOKUP(D968,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Government Departments and Agencies</v>
+        <v>Community: Courts</v>
       </c>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969" s="1" t="s">
-        <v>1878</v>
+        <v>1866</v>
       </c>
       <c r="B969" s="4" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>1879</v>
+        <v>1868</v>
       </c>
       <c r="D969">
-        <v>12016000</v>
+        <v>12009000</v>
       </c>
       <c r="E969" s="3" t="str">
         <f>VLOOKUP(D969,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Post Offices</v>
+        <v>Community: Government Departments and Agencies</v>
       </c>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970" s="1" t="s">
-        <v>1880</v>
+        <v>1869</v>
       </c>
       <c r="B970" s="4" t="s">
-        <v>1881</v>
+        <v>1870</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>1882</v>
+        <v>1871</v>
       </c>
       <c r="D970">
-        <v>12009000</v>
+        <v>12004000</v>
       </c>
       <c r="E970" s="3" t="str">
         <f>VLOOKUP(D970,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Government Departments and Agencies</v>
+        <v>Community: Courts</v>
       </c>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" s="1" t="s">
-        <v>1883</v>
+        <v>1872</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>1884</v>
+        <v>1873</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>1884</v>
+        <v>1874</v>
       </c>
       <c r="D971">
-        <v>19019000</v>
+        <v>20000000</v>
       </c>
       <c r="E971" s="3" t="str">
         <f>VLOOKUP(D971,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Tax</v>
       </c>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972" s="1" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="D972">
-        <v>19019000</v>
+        <v>12009000</v>
       </c>
       <c r="E972" s="3" t="str">
         <f>VLOOKUP(D972,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Community: Government Departments and Agencies</v>
       </c>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973" s="1" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="D973">
-        <v>19019000</v>
+        <v>12016000</v>
       </c>
       <c r="E973" s="3" t="str">
         <f>VLOOKUP(D973,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Community: Post Offices</v>
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974" s="1" t="s">
-        <v>1889</v>
+        <v>1880</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>1890</v>
+        <v>1881</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="D974">
-        <v>18020010</v>
+        <v>12009000</v>
       </c>
       <c r="E974" s="3" t="str">
         <f>VLOOKUP(D974,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Check Cashing</v>
+        <v>Community: Government Departments and Agencies</v>
       </c>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975" s="1" t="s">
-        <v>1892</v>
+        <v>1883</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>1893</v>
+        <v>1884</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>674</v>
+        <v>1884</v>
       </c>
       <c r="D975">
-        <v>22012003</v>
+        <v>19019000</v>
       </c>
       <c r="E975" s="3" t="str">
         <f>VLOOKUP(D975,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Hotels and Motels</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976" s="1" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>674</v>
+        <v>1886</v>
       </c>
       <c r="D976">
-        <v>22012003</v>
+        <v>19019000</v>
       </c>
       <c r="E976" s="3" t="str">
         <f>VLOOKUP(D976,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Hotels and Motels</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" s="1" t="s">
-        <v>1896</v>
+        <v>1887</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>674</v>
+        <v>1888</v>
       </c>
       <c r="D977">
-        <v>22012003</v>
+        <v>19019000</v>
       </c>
       <c r="E977" s="3" t="str">
         <f>VLOOKUP(D977,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Hotels and Motels</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A978" s="1" t="s">
-        <v>1898</v>
+        <v>1889</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1899</v>
+        <v>1890</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>1899</v>
+        <v>1891</v>
       </c>
       <c r="D978">
-        <v>10000000</v>
+        <v>18020010</v>
       </c>
       <c r="E978" s="3" t="str">
         <f>VLOOKUP(D978,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Bank Fees</v>
+        <v>Service: Financial: Check Cashing</v>
       </c>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A979" s="1" t="s">
-        <v>1900</v>
+        <v>1892</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>1901</v>
+        <v>1893</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>1901</v>
+        <v>674</v>
       </c>
       <c r="D979">
-        <v>17001014</v>
+        <v>22012003</v>
       </c>
       <c r="E979" s="3" t="str">
         <f>VLOOKUP(D979,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A980" s="1" t="s">
-        <v>1902</v>
+        <v>1894</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>1903</v>
+        <v>1895</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>1903</v>
+        <v>674</v>
       </c>
       <c r="D980">
-        <v>19031000</v>
+        <v>22012003</v>
       </c>
       <c r="E980" s="3" t="str">
         <f>VLOOKUP(D980,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Travel: Lodging: Hotels and Motels</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A981" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C981" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="D981">
+        <v>22012003</v>
+      </c>
+      <c r="E981" s="3" t="str">
+        <f>VLOOKUP(D981,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Travel: Lodging: Hotels and Motels</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A982" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C982" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D982">
+        <v>10000000</v>
+      </c>
+      <c r="E982" s="3" t="str">
+        <f>VLOOKUP(D982,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Bank Fees</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A983" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C983" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D983">
+        <v>17001014</v>
+      </c>
+      <c r="E983" s="3" t="str">
+        <f>VLOOKUP(D983,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A984" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C984" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D984">
+        <v>19031000</v>
+      </c>
+      <c r="E984" s="3" t="str">
+        <f>VLOOKUP(D984,Linked_fi_categories!$A:$C,3,TRUE)</f>
         <v>Shops: Hobby and Collectibles</v>
       </c>
     </row>
@@ -26037,8 +26115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256"/>
+    <sheetView topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="B497" sqref="B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28984,7 +29062,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>18001009</v>
       </c>
@@ -28995,7 +29073,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>18001010</v>
       </c>
@@ -29006,7 +29084,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>18003000</v>
       </c>
@@ -29017,7 +29095,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>18004000</v>
       </c>
@@ -29028,7 +29106,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>18005000</v>
       </c>
@@ -29039,7 +29117,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>18006000</v>
       </c>
@@ -29050,7 +29128,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>18006001</v>
       </c>
@@ -29061,7 +29139,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>18006002</v>
       </c>
@@ -29072,7 +29150,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>18006003</v>
       </c>
@@ -29083,7 +29161,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>18006004</v>
       </c>
@@ -29094,7 +29172,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>18006005</v>
       </c>
@@ -29105,7 +29183,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>18006006</v>
       </c>
@@ -29116,7 +29194,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>18006007</v>
       </c>
@@ -29127,7 +29205,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>18006008</v>
       </c>
@@ -29138,7 +29216,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>18006009</v>
       </c>
@@ -29149,7 +29227,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>18007000</v>
       </c>
@@ -29160,7 +29238,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>18008000</v>
       </c>
@@ -29171,7 +29249,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>18008001</v>
       </c>
@@ -29182,7 +29260,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>18009000</v>
       </c>
@@ -29193,7 +29271,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>18010000</v>
       </c>
@@ -29204,7 +29282,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>18011000</v>
       </c>
@@ -29215,7 +29293,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>18012000</v>
       </c>
@@ -29226,7 +29304,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>18012001</v>
       </c>
@@ -29237,7 +29315,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>18012002</v>
       </c>
@@ -29248,7 +29326,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>18013000</v>
       </c>
@@ -29259,7 +29337,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>18013001</v>
       </c>
@@ -29270,7 +29348,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>18013002</v>
       </c>
@@ -29281,7 +29359,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>18013003</v>
       </c>
@@ -29292,7 +29370,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>18013004</v>
       </c>
@@ -29303,7 +29381,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>18013005</v>
       </c>
@@ -29314,7 +29392,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>18013006</v>
       </c>
@@ -29325,7 +29403,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>18013007</v>
       </c>
@@ -29336,7 +29414,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>18013008</v>
       </c>
@@ -29347,7 +29425,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>18013009</v>
       </c>
@@ -29358,7 +29436,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>18013010</v>
       </c>
@@ -29369,7 +29447,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>18014000</v>
       </c>
@@ -29380,7 +29458,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>18015000</v>
       </c>
@@ -29391,7 +29469,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>18016000</v>
       </c>
@@ -29402,7 +29480,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>18017000</v>
       </c>
@@ -29413,7 +29491,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>18018000</v>
       </c>
@@ -29424,7 +29502,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>18018001</v>
       </c>
@@ -29435,7 +29513,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>18019000</v>
       </c>
@@ -29446,7 +29524,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>18020000</v>
       </c>
@@ -29457,7 +29535,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>18020001</v>
       </c>
@@ -29468,7 +29546,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>18020002</v>
       </c>
@@ -29479,7 +29557,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>18020003</v>
       </c>
@@ -29490,7 +29568,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>18020004</v>
       </c>
@@ -29501,7 +29579,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>18020005</v>
       </c>
@@ -29512,7 +29590,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>18020006</v>
       </c>
@@ -29523,7 +29601,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>18020007</v>
       </c>
@@ -29534,7 +29612,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>18020008</v>
       </c>
@@ -29545,7 +29623,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>18020009</v>
       </c>
@@ -29556,7 +29634,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>18020010</v>
       </c>
@@ -29567,7 +29645,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>18020011</v>
       </c>
@@ -29578,7 +29656,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>18020012</v>
       </c>
@@ -29589,7 +29667,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>18020013</v>
       </c>
@@ -29600,7 +29678,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>18020014</v>
       </c>
@@ -29611,7 +29689,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>18021000</v>
       </c>
@@ -29622,7 +29700,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>18021001</v>
       </c>
@@ -29633,7 +29711,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>18021002</v>
       </c>
@@ -29644,7 +29722,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>18022000</v>
       </c>
@@ -29655,7 +29733,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>18023000</v>
       </c>
@@ -29666,7 +29744,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>18024000</v>
       </c>
@@ -29677,7 +29755,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>18024001</v>
       </c>
@@ -29688,7 +29766,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>18024002</v>
       </c>
@@ -29699,7 +29777,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>18024003</v>
       </c>
@@ -29710,7 +29788,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>18024004</v>
       </c>
@@ -29721,7 +29799,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>18024005</v>
       </c>
@@ -29732,7 +29810,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>18024006</v>
       </c>
@@ -29743,7 +29821,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>18024007</v>
       </c>
@@ -29754,7 +29832,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>18024008</v>
       </c>
@@ -29765,7 +29843,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>18024009</v>
       </c>
@@ -29776,7 +29854,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>18024010</v>
       </c>
@@ -29787,7 +29865,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>18024011</v>
       </c>
@@ -29798,7 +29876,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>18024012</v>
       </c>
@@ -29809,7 +29887,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>18024013</v>
       </c>
@@ -29820,7 +29898,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>18024014</v>
       </c>
@@ -29831,7 +29909,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>18024015</v>
       </c>
@@ -29842,7 +29920,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>18024016</v>
       </c>
@@ -29853,7 +29931,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>18024017</v>
       </c>
@@ -29864,7 +29942,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>18024018</v>
       </c>
@@ -29875,7 +29953,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>18024019</v>
       </c>
@@ -29886,7 +29964,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>18024020</v>
       </c>
@@ -29897,7 +29975,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>18024021</v>
       </c>
@@ -29908,7 +29986,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>18024022</v>
       </c>
@@ -29919,7 +29997,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>18024023</v>
       </c>
@@ -29930,7 +30008,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>18024024</v>
       </c>
@@ -29941,7 +30019,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>18024025</v>
       </c>
@@ -29952,7 +30030,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>18024026</v>
       </c>
@@ -29963,7 +30041,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>18024027</v>
       </c>
@@ -29974,7 +30052,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>18025000</v>
       </c>
@@ -29985,7 +30063,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>18026000</v>
       </c>
@@ -29996,7 +30074,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>18027000</v>
       </c>
@@ -30007,7 +30085,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>18028000</v>
       </c>
@@ -30018,7 +30096,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>18029000</v>
       </c>
@@ -30029,7 +30107,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>18030000</v>
       </c>
@@ -30040,7 +30118,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>18031000</v>
       </c>
@@ -30051,7 +30129,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>18032000</v>
       </c>
@@ -30062,7 +30140,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>18033000</v>
       </c>
@@ -30073,7 +30151,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>18034000</v>
       </c>
@@ -30084,7 +30162,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>18035000</v>
       </c>
@@ -30095,7 +30173,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>18036000</v>
       </c>
@@ -30106,7 +30184,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>18037000</v>
       </c>
@@ -30117,7 +30195,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>18037001</v>
       </c>
@@ -30128,7 +30206,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>18037002</v>
       </c>
@@ -30139,7 +30217,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>18037003</v>
       </c>
@@ -30150,7 +30228,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>18037004</v>
       </c>
@@ -30161,7 +30239,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>18037005</v>
       </c>
@@ -30172,7 +30250,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>18037006</v>
       </c>
@@ -30183,7 +30261,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>18037007</v>
       </c>
@@ -30194,7 +30272,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>18037008</v>
       </c>
@@ -30205,7 +30283,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>18037009</v>
       </c>
@@ -30216,7 +30294,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>18037010</v>
       </c>
@@ -30227,7 +30305,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>18037011</v>
       </c>
@@ -30238,7 +30316,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>18037012</v>
       </c>
@@ -30249,7 +30327,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>18037013</v>
       </c>
@@ -30260,7 +30338,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>18037014</v>
       </c>
@@ -30271,7 +30349,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>18037015</v>
       </c>
@@ -30282,7 +30360,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>18037016</v>
       </c>
@@ -30293,7 +30371,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>18037017</v>
       </c>
@@ -30304,7 +30382,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>18037018</v>
       </c>
@@ -30315,7 +30393,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>18037019</v>
       </c>
@@ -30326,7 +30404,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>18037020</v>
       </c>
@@ -30337,7 +30415,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>18038000</v>
       </c>
@@ -30348,7 +30426,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>18039000</v>
       </c>
@@ -30359,7 +30437,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>18040000</v>
       </c>
@@ -30370,7 +30448,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>18040001</v>
       </c>
@@ -30381,7 +30459,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>18040002</v>
       </c>
@@ -30392,7 +30470,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>18040003</v>
       </c>
@@ -30403,7 +30481,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>18041000</v>
       </c>
@@ -30414,7 +30492,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>18042000</v>
       </c>
@@ -30425,7 +30503,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>18043000</v>
       </c>
@@ -30436,7 +30514,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>18044000</v>
       </c>
@@ -30447,7 +30525,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>18045000</v>
       </c>
@@ -30458,7 +30536,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>18045001</v>
       </c>
@@ -30469,7 +30547,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>18045002</v>
       </c>
@@ -30480,7 +30558,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>18045003</v>
       </c>
@@ -30491,7 +30569,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>18045004</v>
       </c>
@@ -30502,7 +30580,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>18045005</v>
       </c>
@@ -30513,7 +30591,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>18045006</v>
       </c>
@@ -30524,7 +30602,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>18045007</v>
       </c>
@@ -30535,7 +30613,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>18045008</v>
       </c>
@@ -30546,7 +30624,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>18045009</v>
       </c>
@@ -30557,7 +30635,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>18045010</v>
       </c>
@@ -30568,7 +30646,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>18046000</v>
       </c>
@@ -30579,7 +30657,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>18047000</v>
       </c>
@@ -30590,7 +30668,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>18048000</v>
       </c>
@@ -30601,7 +30679,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>18049000</v>
       </c>
@@ -30612,7 +30690,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>18050000</v>
       </c>
@@ -30623,7 +30701,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>18050001</v>
       </c>
@@ -30634,7 +30712,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>18050002</v>
       </c>
@@ -30645,7 +30723,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>18050003</v>
       </c>
@@ -30656,7 +30734,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>18050004</v>
       </c>
@@ -30667,7 +30745,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>18050005</v>
       </c>
@@ -30678,7 +30756,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>18050006</v>
       </c>
@@ -30689,7 +30767,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>18050007</v>
       </c>
@@ -30700,7 +30778,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>18050008</v>
       </c>
@@ -30711,7 +30789,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>18050009</v>
       </c>
@@ -30722,7 +30800,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>18050010</v>
       </c>
@@ -30733,7 +30811,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>18051000</v>
       </c>
@@ -30744,7 +30822,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>18052000</v>
       </c>
@@ -30755,7 +30833,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>18053000</v>
       </c>
@@ -30766,7 +30844,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>18054000</v>
       </c>
@@ -30777,7 +30855,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>18055000</v>
       </c>
@@ -30788,7 +30866,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>18056000</v>
       </c>
@@ -30799,7 +30877,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>18057000</v>
       </c>
@@ -30810,7 +30888,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>18058000</v>
       </c>
@@ -30821,7 +30899,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>18059000</v>
       </c>
@@ -30832,7 +30910,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>18060000</v>
       </c>
@@ -30843,7 +30921,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>18061000</v>
       </c>
@@ -30854,7 +30932,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>18062000</v>
       </c>
@@ -30865,7 +30943,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>18063000</v>
       </c>
@@ -30876,7 +30954,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>18064000</v>
       </c>
@@ -30887,7 +30965,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>18065000</v>
       </c>
@@ -30898,7 +30976,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>18066000</v>
       </c>
@@ -30909,7 +30987,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>18067000</v>
       </c>
@@ -30920,7 +30998,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>18068000</v>
       </c>
@@ -30931,7 +31009,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>18068001</v>
       </c>
@@ -30942,7 +31020,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>18068002</v>
       </c>
@@ -30953,7 +31031,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>18068003</v>
       </c>
@@ -30964,7 +31042,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>18068004</v>
       </c>
@@ -30975,7 +31053,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>18068005</v>
       </c>
@@ -30986,7 +31064,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>18069000</v>
       </c>
@@ -30997,7 +31075,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>18070000</v>
       </c>
@@ -31008,7 +31086,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>18071000</v>
       </c>
@@ -31019,7 +31097,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>18072000</v>
       </c>
@@ -31030,7 +31108,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>18073000</v>
       </c>
@@ -31041,7 +31119,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>18073001</v>
       </c>
@@ -31052,7 +31130,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>18073002</v>
       </c>
@@ -31063,7 +31141,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>18073003</v>
       </c>
@@ -31074,7 +31152,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>18073004</v>
       </c>
@@ -31085,7 +31163,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>18074000</v>
       </c>
@@ -31107,7 +31185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>19001000</v>
       </c>
@@ -31118,7 +31196,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>19002000</v>
       </c>
@@ -31129,7 +31207,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>19003000</v>
       </c>
@@ -31140,7 +31218,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>19004000</v>
       </c>
@@ -31151,7 +31229,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>19005000</v>
       </c>
@@ -31162,7 +31240,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>19005001</v>
       </c>
@@ -31173,7 +31251,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>19005002</v>
       </c>
@@ -31184,7 +31262,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>19005003</v>
       </c>
@@ -31195,7 +31273,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>19005004</v>
       </c>
@@ -31206,7 +31284,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>19005005</v>
       </c>
@@ -31217,7 +31295,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>19005006</v>
       </c>
@@ -31228,7 +31306,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>19005007</v>
       </c>
@@ -31239,7 +31317,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>19006000</v>
       </c>
@@ -31250,7 +31328,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>19007000</v>
       </c>
@@ -31261,7 +31339,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>19008000</v>
       </c>
@@ -31272,7 +31350,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>19009000</v>
       </c>
@@ -31283,7 +31361,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>19010000</v>
       </c>
@@ -31294,7 +31372,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>19011000</v>
       </c>
@@ -31305,7 +31383,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>19012000</v>
       </c>
@@ -31316,7 +31394,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>19012001</v>
       </c>
@@ -31327,7 +31405,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>19012002</v>
       </c>
@@ -31338,7 +31416,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>19012003</v>
       </c>
@@ -31349,7 +31427,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>19012004</v>
       </c>
@@ -31360,7 +31438,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>19012005</v>
       </c>
@@ -31371,7 +31449,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>19012006</v>
       </c>
@@ -31382,7 +31460,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>19012007</v>
       </c>
@@ -31393,7 +31471,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>19012008</v>
       </c>
@@ -31404,7 +31482,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>19013000</v>
       </c>
@@ -31415,7 +31493,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>19013001</v>
       </c>
@@ -31426,7 +31504,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>19013002</v>
       </c>
@@ -31437,7 +31515,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>19013003</v>
       </c>
@@ -31448,7 +31526,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>19014000</v>
       </c>
@@ -31459,7 +31537,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>19015000</v>
       </c>
@@ -31470,7 +31548,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>19016000</v>
       </c>
@@ -31481,7 +31559,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>19017000</v>
       </c>
@@ -31492,7 +31570,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>19018000</v>
       </c>
@@ -31503,7 +31581,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>19019000</v>
       </c>
@@ -31514,7 +31592,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>19020000</v>
       </c>
@@ -31525,7 +31603,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>19021000</v>
       </c>
@@ -31536,7 +31614,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>19022000</v>
       </c>
@@ -31547,7 +31625,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>19023000</v>
       </c>
@@ -31558,7 +31636,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>19024000</v>
       </c>
@@ -31569,7 +31647,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>19025000</v>
       </c>
@@ -31580,7 +31658,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>19025001</v>
       </c>
@@ -31591,7 +31669,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>19025002</v>
       </c>
@@ -31602,7 +31680,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>19025003</v>
       </c>
@@ -31613,7 +31691,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>19025004</v>
       </c>
@@ -31624,7 +31702,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>19026000</v>
       </c>
@@ -31635,7 +31713,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>19027000</v>
       </c>
@@ -31646,7 +31724,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>19028000</v>
       </c>
@@ -31657,7 +31735,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>19029000</v>
       </c>
@@ -31668,7 +31746,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>19030000</v>
       </c>
@@ -31679,7 +31757,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>19031000</v>
       </c>
@@ -31690,7 +31768,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>19032000</v>
       </c>
@@ -31701,7 +31779,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>19033000</v>
       </c>
@@ -31712,7 +31790,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>19034000</v>
       </c>
@@ -31723,7 +31801,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>19035000</v>
       </c>
@@ -31734,7 +31812,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>19036000</v>
       </c>
@@ -31745,7 +31823,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>19037000</v>
       </c>
@@ -31756,7 +31834,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>19038000</v>
       </c>
@@ -31767,7 +31845,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>19039000</v>
       </c>
@@ -31778,7 +31856,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>19040000</v>
       </c>
@@ -31789,7 +31867,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>19040001</v>
       </c>
@@ -31800,7 +31878,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>19040002</v>
       </c>
@@ -31811,7 +31889,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>19040003</v>
       </c>
@@ -31822,7 +31900,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>19040004</v>
       </c>
@@ -31833,7 +31911,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>19040005</v>
       </c>
@@ -31844,7 +31922,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>19040006</v>
       </c>
@@ -31855,7 +31933,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>19040007</v>
       </c>
@@ -31866,7 +31944,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>19040008</v>
       </c>
@@ -31877,7 +31955,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>19041000</v>
       </c>
@@ -31888,7 +31966,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>19042000</v>
       </c>
@@ -31899,7 +31977,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>19043000</v>
       </c>
@@ -31910,7 +31988,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>19044000</v>
       </c>
@@ -31921,7 +31999,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>19045000</v>
       </c>
@@ -31932,7 +32010,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>19046000</v>
       </c>
@@ -31943,7 +32021,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>19047000</v>
       </c>
@@ -31954,7 +32032,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>19048000</v>
       </c>
@@ -31965,7 +32043,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>19049000</v>
       </c>
@@ -31976,7 +32054,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>19050000</v>
       </c>
@@ -31987,7 +32065,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>19051000</v>
       </c>
@@ -31998,7 +32076,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>19052000</v>
       </c>
@@ -32009,7 +32087,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>19053000</v>
       </c>
@@ -32020,7 +32098,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>19054000</v>
       </c>
@@ -32042,7 +32120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>20001000</v>
       </c>
@@ -32053,7 +32131,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>20002000</v>
       </c>
@@ -32075,7 +32153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>21001000</v>
       </c>
@@ -32086,7 +32164,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>21002000</v>
       </c>
@@ -32097,7 +32175,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>21003000</v>
       </c>
@@ -32108,7 +32186,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>21004000</v>
       </c>
@@ -32119,7 +32197,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>21005000</v>
       </c>
@@ -32130,7 +32208,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>21006000</v>
       </c>
@@ -32141,7 +32219,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>21007000</v>
       </c>
@@ -32152,7 +32230,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>21007001</v>
       </c>
@@ -32163,7 +32241,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>21007002</v>
       </c>
@@ -32174,7 +32252,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>21008000</v>
       </c>
@@ -32185,7 +32263,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>21009000</v>
       </c>
@@ -32196,7 +32274,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>21009001</v>
       </c>
@@ -32207,7 +32285,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>21010000</v>
       </c>
@@ -32218,7 +32296,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>21010001</v>
       </c>
@@ -32229,7 +32307,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>21010002</v>
       </c>
@@ -32240,7 +32318,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>21010003</v>
       </c>
@@ -32251,7 +32329,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>21010004</v>
       </c>
@@ -32262,7 +32340,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>21010005</v>
       </c>
@@ -32273,7 +32351,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>21010006</v>
       </c>
@@ -32284,7 +32362,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>21010007</v>
       </c>
@@ -32295,7 +32373,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>21010008</v>
       </c>
@@ -32306,7 +32384,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>21010009</v>
       </c>
@@ -32317,7 +32395,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>21010010</v>
       </c>
@@ -32328,7 +32406,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>21010011</v>
       </c>
@@ -32339,7 +32417,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>21011000</v>
       </c>
@@ -32350,7 +32428,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>21012000</v>
       </c>
@@ -32361,7 +32439,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>21012001</v>
       </c>
@@ -32372,7 +32450,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>21012002</v>
       </c>
@@ -32383,7 +32461,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>21013000</v>
       </c>
@@ -32405,7 +32483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>22001000</v>
       </c>
@@ -32416,7 +32494,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>22002000</v>
       </c>
@@ -32427,7 +32505,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>22003000</v>
       </c>
@@ -32438,7 +32516,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>22004000</v>
       </c>
@@ -32449,7 +32527,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>22005000</v>
       </c>
@@ -32460,7 +32538,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>22006000</v>
       </c>
@@ -32471,7 +32549,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>22006001</v>
       </c>
@@ -32482,7 +32560,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>22007000</v>
       </c>
@@ -32493,7 +32571,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>22008000</v>
       </c>
@@ -32504,7 +32582,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>22009000</v>
       </c>
@@ -32515,7 +32593,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>22010000</v>
       </c>
@@ -32526,7 +32604,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>22011000</v>
       </c>
@@ -32537,7 +32615,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>22012000</v>
       </c>
@@ -32548,7 +32626,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>22012001</v>
       </c>
@@ -32559,7 +32637,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>22012002</v>
       </c>
@@ -32570,7 +32648,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>22012003</v>
       </c>
@@ -32581,7 +32659,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>22012004</v>
       </c>
@@ -32592,7 +32670,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>22012005</v>
       </c>
@@ -32603,7 +32681,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>22012006</v>
       </c>
@@ -32614,7 +32692,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>22013000</v>
       </c>
@@ -32625,7 +32703,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>22014000</v>
       </c>
@@ -32636,7 +32714,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>22015000</v>
       </c>
@@ -32647,7 +32725,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>22016000</v>
       </c>
@@ -32658,7 +32736,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>22017000</v>
       </c>
@@ -32669,7 +32747,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>22018000</v>
       </c>

--- a/inspired_mcc_codes.xlsx
+++ b/inspired_mcc_codes.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpicornell/devel/inspired/mcc-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA24FB8-D5F1-6348-B2C7-C585EFA58264}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C3B7D3-155C-754C-84BD-9D1EFF4B6A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="660" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="540" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC" sheetId="2" r:id="rId1"/>
     <sheet name="Linked_fi_categories" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="prod_platform" localSheetId="0">MCC!$A$1:$C$985</definedName>
+    <definedName name="prod_platform" localSheetId="0">MCC!$A$1:$C$986</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4158" uniqueCount="2501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="2503">
   <si>
     <t>category_id</t>
   </si>
@@ -7544,6 +7544,12 @@
   </si>
   <si>
     <t>Autograph Hotel</t>
+  </si>
+  <si>
+    <t>6050</t>
+  </si>
+  <si>
+    <t>Quasi Cash–Member Financial Institution</t>
   </si>
 </sst>
 </file>
@@ -8403,13 +8409,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E985"/>
+  <dimension ref="A1:E986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B681" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B841" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="F866" sqref="F866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23983,64 +23989,67 @@
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
-        <v>1566</v>
+        <v>2501</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C866" s="4" t="s">
-        <v>1568</v>
+        <v>2502</v>
+      </c>
+      <c r="C866" t="s">
+        <v>2502</v>
       </c>
       <c r="D866">
-        <v>18020010</v>
+        <v>18020012</v>
       </c>
       <c r="E866" s="3" t="str">
         <f>VLOOKUP(D866,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Check Cashing</v>
+        <v>Service: Financial: Banking and Finance</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C867" s="4" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D867">
-        <v>18020003</v>
+        <v>18020010</v>
       </c>
       <c r="E867" s="3" t="str">
         <f>VLOOKUP(D867,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Stock Brokers</v>
+        <v>Service: Financial: Check Cashing</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D868">
-        <v>18030000</v>
+        <v>18020003</v>
       </c>
       <c r="E868" s="3" t="str">
         <f>VLOOKUP(D868,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Insurance</v>
+        <v>Service: Financial: Stock Brokers</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>1575</v>
+        <v>1572</v>
+      </c>
+      <c r="C869" s="4" t="s">
+        <v>1573</v>
       </c>
       <c r="D869">
         <v>18030000</v>
@@ -24052,13 +24061,10 @@
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C870" s="4" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="D870">
         <v>18030000</v>
@@ -24070,175 +24076,175 @@
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C871" s="4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D871">
-        <v>18050003</v>
+        <v>18030000</v>
       </c>
       <c r="E871" s="3" t="str">
         <f>VLOOKUP(D871,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Real Estate: Real Estate Agents</v>
+        <v>Service: Insurance</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
-        <v>2492</v>
+        <v>1579</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>2493</v>
+        <v>1580</v>
       </c>
       <c r="C872" s="4" t="s">
-        <v>2493</v>
+        <v>1580</v>
       </c>
       <c r="D872">
-        <v>21010000</v>
+        <v>18050003</v>
       </c>
       <c r="E872" s="3" t="str">
         <f>VLOOKUP(D872,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Transfer: Third Party</v>
+        <v>Service: Real Estate: Real Estate Agents</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
-        <v>1886</v>
+        <v>2492</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>1887</v>
+        <v>2493</v>
       </c>
       <c r="C873" s="4" t="s">
-        <v>1888</v>
+        <v>2493</v>
       </c>
       <c r="D873">
-        <v>18020010</v>
+        <v>21010000</v>
       </c>
       <c r="E873" s="3" t="str">
         <f>VLOOKUP(D873,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Check Cashing</v>
+        <v>Transfer: Third Party</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
-        <v>1892</v>
+        <v>1886</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>1893</v>
+        <v>1887</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="D874">
-        <v>10000000</v>
+        <v>18020010</v>
       </c>
       <c r="E874" s="3" t="str">
         <f>VLOOKUP(D874,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Bank Fees</v>
+        <v>Service: Financial: Check Cashing</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
-        <v>1581</v>
+        <v>1892</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>1582</v>
+        <v>1893</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>1583</v>
+        <v>1893</v>
       </c>
       <c r="D875">
-        <v>22012003</v>
+        <v>10000000</v>
       </c>
       <c r="E875" s="3" t="str">
         <f>VLOOKUP(D875,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Hotels and Motels</v>
+        <v>Bank Fees</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C876" s="4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D876">
-        <v>22012002</v>
+        <v>22012003</v>
       </c>
       <c r="E876" s="3" t="str">
         <f>VLOOKUP(D876,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Lodges and Vacation Rentals</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="D877">
-        <v>17041000</v>
+        <v>22012002</v>
       </c>
       <c r="E877" s="3" t="str">
         <f>VLOOKUP(D877,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports and Recreation Camps</v>
+        <v>Travel: Lodging: Lodges and Vacation Rentals</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D878">
-        <v>17007000</v>
+        <v>17041000</v>
       </c>
       <c r="E878" s="3" t="str">
         <f>VLOOKUP(D878,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Campgrounds and RV Parks</v>
+        <v>Recreation: Sports and Recreation Camps</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B879" s="4" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="D879">
-        <v>18045008</v>
+        <v>17007000</v>
       </c>
       <c r="E879" s="3" t="str">
         <f>VLOOKUP(D879,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Laundry and Garment Services</v>
+        <v>Recreation: Campgrounds and RV Parks</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="D880">
         <v>18045008</v>
@@ -24250,13 +24256,13 @@
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D881">
         <v>18045008</v>
@@ -24268,586 +24274,586 @@
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B882" s="4" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="C882" s="4" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="D882">
-        <v>18024025</v>
+        <v>18045008</v>
       </c>
       <c r="E882" s="3" t="str">
         <f>VLOOKUP(D882,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Carpet and Flooring</v>
+        <v>Service: Personal Care: Laundry and Garment Services</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C883" s="4" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D883">
-        <v>18047000</v>
+        <v>18024025</v>
       </c>
       <c r="E883" s="3" t="str">
         <f>VLOOKUP(D883,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Photography</v>
+        <v>Service: Home Improvement: Carpet and Flooring</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C884" s="4" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D884">
-        <v>18045009</v>
+        <v>18047000</v>
       </c>
       <c r="E884" s="3" t="str">
         <f>VLOOKUP(D884,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Hair Salons and Barbers</v>
+        <v>Service: Photography</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B885" s="4" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C885" s="4" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="D885">
-        <v>18011000</v>
+        <v>18045009</v>
       </c>
       <c r="E885" s="3" t="str">
         <f>VLOOKUP(D885,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Cleaning</v>
+        <v>Service: Personal Care: Hair Salons and Barbers</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="D886">
-        <v>18022000</v>
+        <v>18011000</v>
       </c>
       <c r="E886" s="3" t="str">
         <f>VLOOKUP(D886,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Funeral Services</v>
+        <v>Service: Cleaning</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A887" s="1" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="C887" s="4" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="D887">
-        <v>18015000</v>
+        <v>18022000</v>
       </c>
       <c r="E887" s="3" t="str">
         <f>VLOOKUP(D887,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Dating and Escort</v>
+        <v>Service: Funeral Services</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A888" s="1" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B888" s="4" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C888" s="4" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="D888">
-        <v>18020001</v>
+        <v>18015000</v>
       </c>
       <c r="E888" s="3" t="str">
         <f>VLOOKUP(D888,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Taxes</v>
+        <v>Service: Dating and Escort</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A889" s="1" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B889" s="4" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="C889" s="4" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="D889">
-        <v>18014000</v>
+        <v>18020001</v>
       </c>
       <c r="E889" s="3" t="str">
         <f>VLOOKUP(D889,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Credit Counseling and Bankruptcy Services</v>
+        <v>Service: Financial: Taxes</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="D890">
-        <v>19053000</v>
+        <v>18014000</v>
       </c>
       <c r="E890" s="3" t="str">
         <f>VLOOKUP(D890,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Wholesale</v>
+        <v>Service: Credit Counseling and Bankruptcy Services</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C891" s="4" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="D891">
-        <v>19016000</v>
+        <v>19053000</v>
       </c>
       <c r="E891" s="3" t="str">
         <f>VLOOKUP(D891,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Costumes</v>
+        <v>Shops: Wholesale</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="B892" s="4" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="C892" s="4" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D892">
-        <v>18045006</v>
+        <v>19016000</v>
       </c>
       <c r="E892" s="3" t="str">
         <f>VLOOKUP(D892,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Massage Clinics and Therapists</v>
+        <v>Shops: Costumes</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="C893" s="4" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="D893">
-        <v>18045003</v>
+        <v>18045006</v>
       </c>
       <c r="E893" s="3" t="str">
         <f>VLOOKUP(D893,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Spas</v>
+        <v>Service: Personal Care: Massage Clinics and Therapists</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="B894" s="4" t="s">
-        <v>2495</v>
+        <v>1631</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D894">
-        <v>18045000</v>
+        <v>18045003</v>
       </c>
       <c r="E894" s="3" t="str">
         <f>VLOOKUP(D894,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care</v>
+        <v>Service: Personal Care: Spas</v>
       </c>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B895" s="4" t="s">
-        <v>1636</v>
+        <v>2495</v>
       </c>
       <c r="C895" s="4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D895">
-        <v>18001010</v>
+        <v>18045000</v>
       </c>
       <c r="E895" s="3" t="str">
         <f>VLOOKUP(D895,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Advertising Agencies and Media Buyers</v>
+        <v>Service: Personal Care</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A896" s="1" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C896" s="4" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="D896">
-        <v>18020008</v>
+        <v>18001010</v>
       </c>
       <c r="E896" s="3" t="str">
         <f>VLOOKUP(D896,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Credit Reporting</v>
+        <v>Service: Advertising and Marketing: Advertising Agencies and Media Buyers</v>
       </c>
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897" s="1" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>1641</v>
+        <v>1638</v>
+      </c>
+      <c r="C897" s="4" t="s">
+        <v>1639</v>
       </c>
       <c r="D897">
-        <v>18008001</v>
+        <v>18020008</v>
       </c>
       <c r="E897" s="3" t="str">
         <f>VLOOKUP(D897,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services: Printing and Publishing</v>
+        <v>Service: Financial: Credit Reporting</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C898" s="4" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D898">
-        <v>18074000</v>
+        <v>18008001</v>
       </c>
       <c r="E898" s="3" t="str">
         <f>VLOOKUP(D898,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Art and Graphic Design</v>
+        <v>Service: Business Services: Printing and Publishing</v>
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A899" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="C899" s="4" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="D899">
-        <v>18008001</v>
+        <v>18074000</v>
       </c>
       <c r="E899" s="3" t="str">
         <f>VLOOKUP(D899,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services: Printing and Publishing</v>
+        <v>Service: Art and Graphic Design</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A900" s="1" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="C900" s="4" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="D900">
-        <v>18008000</v>
+        <v>18008001</v>
       </c>
       <c r="E900" s="3" t="str">
         <f>VLOOKUP(D900,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services</v>
+        <v>Service: Business Services: Printing and Publishing</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901" s="1" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C901" s="4" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="D901">
-        <v>18024008</v>
+        <v>18008000</v>
       </c>
       <c r="E901" s="3" t="str">
         <f>VLOOKUP(D901,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Pest Control</v>
+        <v>Service: Business Services</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902" s="1" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C902" s="4" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="D902">
-        <v>18011000</v>
+        <v>18024008</v>
       </c>
       <c r="E902" s="3" t="str">
         <f>VLOOKUP(D902,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Cleaning</v>
+        <v>Service: Home Improvement: Pest Control</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903" s="1" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="B903" s="4" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C903" s="4" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="D903">
-        <v>18016000</v>
+        <v>18011000</v>
       </c>
       <c r="E903" s="3" t="str">
         <f>VLOOKUP(D903,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Employment Agencies</v>
+        <v>Service: Cleaning</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904" s="1" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="B904" s="4" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="D904">
-        <v>18059000</v>
+        <v>18016000</v>
       </c>
       <c r="E904" s="3" t="str">
         <f>VLOOKUP(D904,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Software Development</v>
+        <v>Service: Employment Agencies</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905" s="1" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="C905" s="4" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D905">
-        <v>18012000</v>
+        <v>18059000</v>
       </c>
       <c r="E905" s="3" t="str">
         <f>VLOOKUP(D905,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Computers</v>
+        <v>Service: Software Development</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906" s="1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B906" s="4" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="C906" s="4" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="D906">
-        <v>18012001</v>
+        <v>18012000</v>
       </c>
       <c r="E906" s="3" t="str">
         <f>VLOOKUP(D906,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Computers: Maintenance and Repair</v>
+        <v>Service: Computers</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907" s="1" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C907" s="4" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="D907">
-        <v>18001003</v>
+        <v>18012001</v>
       </c>
       <c r="E907" s="3" t="str">
         <f>VLOOKUP(D907,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Public Relations</v>
+        <v>Service: Computers: Maintenance and Repair</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C908" s="4" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="D908">
-        <v>18057000</v>
+        <v>18001003</v>
       </c>
       <c r="E908" s="3" t="str">
         <f>VLOOKUP(D908,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Security and Safety</v>
+        <v>Service: Advertising and Marketing: Public Relations</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A909" s="1" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="C909" s="4" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D909">
-        <v>19022000</v>
+        <v>18057000</v>
       </c>
       <c r="E909" s="3" t="str">
         <f>VLOOKUP(D909,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Equipment Rental</v>
+        <v>Service: Security and Safety</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A910" s="1" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B910" s="4" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D910">
-        <v>18047000</v>
+        <v>19022000</v>
       </c>
       <c r="E910" s="3" t="str">
         <f>VLOOKUP(D910,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Photography</v>
+        <v>Shops: Equipment Rental</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A911" s="1" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D911">
-        <v>18008000</v>
+        <v>18047000</v>
       </c>
       <c r="E911" s="3" t="str">
         <f>VLOOKUP(D911,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services</v>
+        <v>Service: Photography</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A912" s="1" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C912" s="4" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D912">
-        <v>22009000</v>
+        <v>18008000</v>
       </c>
       <c r="E912" s="3" t="str">
         <f>VLOOKUP(D912,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Gas Stations</v>
+        <v>Service: Business Services</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A913" s="1" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C913" s="4" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="D913">
-        <v>22005000</v>
+        <v>22009000</v>
       </c>
       <c r="E913" s="3" t="str">
         <f>VLOOKUP(D913,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Car and Truck Rentals</v>
+        <v>Travel: Gas Stations</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A914" s="1" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C914" s="4" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="D914">
         <v>22005000</v>
@@ -24859,67 +24865,67 @@
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A915" s="1" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="B915" s="4" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C915" s="4" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="D915">
-        <v>19005003</v>
+        <v>22005000</v>
       </c>
       <c r="E915" s="3" t="str">
         <f>VLOOKUP(D915,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: RVs and Motor Homes</v>
+        <v>Travel: Car and Truck Rentals</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A916" s="1" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B916" s="4" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="C916" s="4" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="D916">
-        <v>22013000</v>
+        <v>19005003</v>
       </c>
       <c r="E916" s="3" t="str">
         <f>VLOOKUP(D916,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Parking</v>
+        <v>Shops: Automotive: RVs and Motor Homes</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A917" s="1" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C917" s="4" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="D917">
-        <v>18006003</v>
+        <v>22013000</v>
       </c>
       <c r="E917" s="3" t="str">
         <f>VLOOKUP(D917,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Travel: Parking</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A918" s="1" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C918" s="4" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D918">
         <v>18006003</v>
@@ -24931,13 +24937,13 @@
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919" s="1" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="C919" s="4" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D919">
         <v>18006003</v>
@@ -24949,13 +24955,13 @@
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A920" s="1" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C920" s="4" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="D920">
         <v>18006003</v>
@@ -24967,85 +24973,85 @@
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921" s="1" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="B921" s="4" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C921" s="4" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D921">
-        <v>18006004</v>
+        <v>18006003</v>
       </c>
       <c r="E921" s="3" t="str">
         <f>VLOOKUP(D921,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Car Wash and Detail</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922" s="1" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B922" s="4" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C922" s="4" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D922">
-        <v>18006001</v>
+        <v>18006004</v>
       </c>
       <c r="E922" s="3" t="str">
         <f>VLOOKUP(D922,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Towing</v>
+        <v>Service: Automotive: Car Wash and Detail</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923" s="1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C923" s="4" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D923">
-        <v>19013000</v>
+        <v>18006001</v>
       </c>
       <c r="E923" s="3" t="str">
         <f>VLOOKUP(D923,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics</v>
+        <v>Service: Automotive: Towing</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A924" s="1" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="C924" s="4" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="D924">
-        <v>18053000</v>
+        <v>19013000</v>
       </c>
       <c r="E924" s="3" t="str">
         <f>VLOOKUP(D924,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Shops: Computers and Electronics</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A925" s="1" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="D925">
         <v>18053000</v>
@@ -25057,49 +25063,49 @@
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A926" s="1" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="C926" s="4" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="D926">
-        <v>19033000</v>
+        <v>18053000</v>
       </c>
       <c r="E926" s="3" t="str">
         <f>VLOOKUP(D926,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Jewelry and Watches</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A927" s="1" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="C927" s="4" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="D927">
-        <v>18053000</v>
+        <v>19033000</v>
       </c>
       <c r="E927" s="3" t="str">
         <f>VLOOKUP(D927,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Shops: Jewelry and Watches</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928" s="1" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="B928" s="4" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D928">
         <v>18053000</v>
@@ -25111,13 +25117,13 @@
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929" s="1" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C929" s="4" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D929">
         <v>18053000</v>
@@ -25129,460 +25135,463 @@
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" s="1" t="s">
-        <v>1894</v>
+        <v>1729</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>1895</v>
+        <v>1730</v>
       </c>
       <c r="C930" s="4" t="s">
-        <v>1895</v>
+        <v>1731</v>
       </c>
       <c r="D930">
-        <v>17001014</v>
+        <v>18053000</v>
       </c>
       <c r="E930" s="3" t="str">
         <f>VLOOKUP(D930,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" s="1" t="s">
-        <v>1732</v>
+        <v>1894</v>
       </c>
       <c r="B931" s="4" t="s">
-        <v>1733</v>
+        <v>1895</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>1734</v>
+        <v>1895</v>
       </c>
       <c r="D931">
-        <v>18018001</v>
+        <v>17001014</v>
       </c>
       <c r="E931" s="3" t="str">
         <f>VLOOKUP(D931,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Entertainment: Media</v>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" s="1" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D932">
-        <v>17001009</v>
+        <v>18018001</v>
       </c>
       <c r="E932" s="3" t="str">
         <f>VLOOKUP(D932,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Movie Theatres</v>
+        <v>Service: Entertainment: Media</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933" s="1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D933">
-        <v>19036000</v>
+        <v>17001009</v>
       </c>
       <c r="E933" s="3" t="str">
         <f>VLOOKUP(D933,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Music, Video and DVD</v>
+        <v>Recreation: Arts and Entertainment: Movie Theatres</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" s="1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D934">
-        <v>17001012</v>
+        <v>19036000</v>
       </c>
       <c r="E934" s="3" t="str">
         <f>VLOOKUP(D934,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Dance Halls and Saloons</v>
+        <v>Shops: Music, Video and DVD</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935" s="1" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="D935">
-        <v>17001000</v>
+        <v>17001012</v>
       </c>
       <c r="E935" s="3" t="str">
         <f>VLOOKUP(D935,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment</v>
+        <v>Recreation: Arts and Entertainment: Dance Halls and Saloons</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936" s="1" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D936">
-        <v>17001002</v>
+        <v>17001000</v>
       </c>
       <c r="E936" s="3" t="str">
         <f>VLOOKUP(D936,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Symphony and Opera</v>
+        <v>Recreation: Arts and Entertainment</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937" s="1" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C937" s="4" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="D937">
-        <v>17001016</v>
+        <v>17001002</v>
       </c>
       <c r="E937" s="3" t="str">
         <f>VLOOKUP(D937,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Billiards and Pool</v>
+        <v>Recreation: Arts and Entertainment: Symphony and Opera</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938" s="1" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D938">
-        <v>17001015</v>
+        <v>17001016</v>
       </c>
       <c r="E938" s="3" t="str">
         <f>VLOOKUP(D938,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Bowling</v>
+        <v>Recreation: Arts and Entertainment: Billiards and Pool</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A939" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="D939">
-        <v>17042000</v>
+        <v>17001015</v>
       </c>
       <c r="E939" s="3" t="str">
         <f>VLOOKUP(D939,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Recreation: Arts and Entertainment: Bowling</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A940" s="1" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C940" s="4" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="D940">
-        <v>17023001</v>
+        <v>17042000</v>
       </c>
       <c r="E940" s="3" t="str">
         <f>VLOOKUP(D940,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Landmarks: Monuments and Memorials</v>
+        <v>Recreation: Sports Clubs</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941" s="1" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="D941">
-        <v>17015000</v>
+        <v>17023001</v>
       </c>
       <c r="E941" s="3" t="str">
         <f>VLOOKUP(D941,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Golf</v>
+        <v>Recreation: Landmarks: Monuments and Memorials</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942" s="1" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D942">
-        <v>19013001</v>
+        <v>17015000</v>
       </c>
       <c r="E942" s="3" t="str">
         <f>VLOOKUP(D942,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics: Video Games</v>
+        <v>Recreation: Golf</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A943" s="1" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C943" s="4" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="D943">
-        <v>17001018</v>
+        <v>19013001</v>
       </c>
       <c r="E943" s="3" t="str">
         <f>VLOOKUP(D943,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
+        <v>Shops: Computers and Electronics: Video Games</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A944" s="1" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="C944" s="4" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D944">
-        <v>17001014</v>
+        <v>17001018</v>
       </c>
       <c r="E944" s="3" t="str">
         <f>VLOOKUP(D944,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A945" s="1" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D945">
-        <v>17001018</v>
+        <v>17001014</v>
       </c>
       <c r="E945" s="3" t="str">
         <f>VLOOKUP(D945,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A946" s="1" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D946">
-        <v>17042000</v>
+        <v>17001018</v>
       </c>
       <c r="E946" s="3" t="str">
         <f>VLOOKUP(D946,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A947" s="1" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="D947">
-        <v>17001019</v>
+        <v>17042000</v>
       </c>
       <c r="E947" s="3" t="str">
         <f>VLOOKUP(D947,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Aquarium</v>
+        <v>Recreation: Sports Clubs</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A948" s="1" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D948">
-        <v>17042000</v>
+        <v>17001019</v>
       </c>
       <c r="E948" s="3" t="str">
         <f>VLOOKUP(D948,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Recreation: Arts and Entertainment: Aquarium</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949" s="1" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="D949">
-        <v>14002000</v>
+        <v>17042000</v>
       </c>
       <c r="E949" s="3" t="str">
         <f>VLOOKUP(D949,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Physicians</v>
+        <v>Recreation: Sports Clubs</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" s="1" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D950">
-        <v>14001012</v>
+        <v>14002000</v>
       </c>
       <c r="E950" s="3" t="str">
         <f>VLOOKUP(D950,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Dentists</v>
+        <v>Healthcare: Physicians</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951" s="1" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="D951">
-        <v>14001016</v>
+        <v>14001012</v>
       </c>
       <c r="E951" s="3" t="str">
         <f>VLOOKUP(D951,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Alternative Medicine</v>
+        <v>Healthcare: Healthcare Services: Dentists</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952" s="1" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="D952">
-        <v>14001014</v>
+        <v>14001016</v>
       </c>
       <c r="E952" s="3" t="str">
         <f>VLOOKUP(D952,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Chiropractors</v>
+        <v>Healthcare: Healthcare Services: Alternative Medicine</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953" s="1" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D953">
-        <v>14001005</v>
+        <v>14001014</v>
       </c>
       <c r="E953" s="3" t="str">
         <f>VLOOKUP(D953,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Optometrists</v>
+        <v>Healthcare: Healthcare Services: Chiropractors</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954" s="1" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="B954" s="4" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D954">
-        <v>19029000</v>
+        <v>14001005</v>
       </c>
       <c r="E954" s="3" t="str">
         <f>VLOOKUP(D954,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Glasses and Optometrist</v>
+        <v>Healthcare: Healthcare Services: Optometrists</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955" s="1" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>2496</v>
+        <v>1794</v>
+      </c>
+      <c r="C955" s="4" t="s">
+        <v>1795</v>
       </c>
       <c r="D955">
         <v>19029000</v>
@@ -25594,139 +25603,136 @@
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B956" s="4" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C956" s="4" t="s">
-        <v>1799</v>
+        <v>2496</v>
       </c>
       <c r="D956">
-        <v>14001003</v>
+        <v>19029000</v>
       </c>
       <c r="E956" s="3" t="str">
         <f>VLOOKUP(D956,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Podiatrists</v>
+        <v>Shops: Glasses and Optometrist</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" s="1" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="C957" s="4" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="D957">
-        <v>14001007</v>
+        <v>14001003</v>
       </c>
       <c r="E957" s="3" t="str">
         <f>VLOOKUP(D957,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Nurses</v>
+        <v>Healthcare: Healthcare Services: Podiatrists</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" s="1" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="D958">
-        <v>14001010</v>
+        <v>14001007</v>
       </c>
       <c r="E958" s="3" t="str">
         <f>VLOOKUP(D958,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Hospitals, Clinics and Medical Centers</v>
+        <v>Healthcare: Healthcare Services: Nurses</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" s="1" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B959" s="4" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D959">
-        <v>14001009</v>
+        <v>14001010</v>
       </c>
       <c r="E959" s="3" t="str">
         <f>VLOOKUP(D959,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Medical Supplies and Labs</v>
+        <v>Healthcare: Healthcare Services: Hospitals, Clinics and Medical Centers</v>
       </c>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" s="1" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="B960" s="4" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="D960">
-        <v>14001000</v>
+        <v>14001009</v>
       </c>
       <c r="E960" s="3" t="str">
         <f>VLOOKUP(D960,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services</v>
+        <v>Healthcare: Healthcare Services: Medical Supplies and Labs</v>
       </c>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961" s="1" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D961">
-        <v>18033000</v>
+        <v>14001000</v>
       </c>
       <c r="E961" s="3" t="str">
         <f>VLOOKUP(D961,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Legal</v>
+        <v>Healthcare: Healthcare Services</v>
       </c>
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962" s="1" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="D962">
-        <v>12008003</v>
+        <v>18033000</v>
       </c>
       <c r="E962" s="3" t="str">
         <f>VLOOKUP(D962,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Service: Legal</v>
       </c>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A963" s="1" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="B963" s="4" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="D963">
         <v>12008003</v>
@@ -25738,13 +25744,13 @@
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A964" s="1" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="D964">
         <v>12008003</v>
@@ -25756,13 +25762,13 @@
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A965" s="1" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="D965">
         <v>12008003</v>
@@ -25774,103 +25780,103 @@
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966" s="1" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="B966" s="4" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="D966">
-        <v>12008001</v>
+        <v>12008003</v>
       </c>
       <c r="E966" s="3" t="str">
         <f>VLOOKUP(D966,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Vocational Schools</v>
+        <v>Community: Education: Primary and Secondary Schools</v>
       </c>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967" s="1" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D967">
-        <v>12008000</v>
+        <v>12008001</v>
       </c>
       <c r="E967" s="3" t="str">
         <f>VLOOKUP(D967,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education</v>
+        <v>Community: Education: Vocational Schools</v>
       </c>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B968" s="4" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D968">
-        <v>12005000</v>
+        <v>12008000</v>
       </c>
       <c r="E968" s="3" t="str">
         <f>VLOOKUP(D968,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Day Care and Preschools</v>
+        <v>Community: Education</v>
       </c>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969" s="1" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B969" s="4" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D969">
-        <v>12015003</v>
+        <v>12005000</v>
       </c>
       <c r="E969" s="3" t="str">
         <f>VLOOKUP(D969,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations: Charities and Non-Profits</v>
+        <v>Community: Day Care and Preschools</v>
       </c>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970" s="1" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="B970" s="4" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="D970">
-        <v>12015000</v>
+        <v>12015003</v>
       </c>
       <c r="E970" s="3" t="str">
         <f>VLOOKUP(D970,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Community: Organizations and Associations: Charities and Non-Profits</v>
       </c>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" s="1" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="D971">
         <v>12015000</v>
@@ -25882,49 +25888,49 @@
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972" s="1" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="D972">
-        <v>12018000</v>
+        <v>12015000</v>
       </c>
       <c r="E972" s="3" t="str">
         <f>VLOOKUP(D972,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Religious</v>
+        <v>Community: Organizations and Associations</v>
       </c>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973" s="1" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D973">
-        <v>12015000</v>
+        <v>12018000</v>
       </c>
       <c r="E973" s="3" t="str">
         <f>VLOOKUP(D973,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Community: Religious</v>
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974" s="1" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="D974">
         <v>12015000</v>
@@ -25936,205 +25942,223 @@
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975" s="1" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="D975">
-        <v>18054000</v>
+        <v>12015000</v>
       </c>
       <c r="E975" s="3" t="str">
         <f>VLOOKUP(D975,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Research</v>
+        <v>Community: Organizations and Associations</v>
       </c>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976" s="1" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="D976">
-        <v>18050007</v>
+        <v>18054000</v>
       </c>
       <c r="E976" s="3" t="str">
         <f>VLOOKUP(D976,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Real Estate: Building and Land Surveyors</v>
+        <v>Service: Research</v>
       </c>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A977" s="1" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="D977">
-        <v>18020014</v>
+        <v>18050007</v>
       </c>
       <c r="E977" s="3" t="str">
         <f>VLOOKUP(D977,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Accounting and Bookkeeping</v>
+        <v>Service: Real Estate: Building and Land Surveyors</v>
       </c>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A978" s="1" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="D978">
-        <v>18000000</v>
+        <v>18020014</v>
       </c>
       <c r="E978" s="3" t="str">
         <f>VLOOKUP(D978,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service</v>
+        <v>Service: Financial: Accounting and Bookkeeping</v>
       </c>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A979" s="1" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="D979">
-        <v>12004000</v>
+        <v>18000000</v>
       </c>
       <c r="E979" s="3" t="str">
         <f>VLOOKUP(D979,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Courts</v>
+        <v>Service</v>
       </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A980" s="1" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="D980">
-        <v>12009000</v>
+        <v>12004000</v>
       </c>
       <c r="E980" s="3" t="str">
         <f>VLOOKUP(D980,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Government Departments and Agencies</v>
+        <v>Community: Courts</v>
       </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" s="1" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="B981" s="4" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="D981">
-        <v>12004000</v>
+        <v>12009000</v>
       </c>
       <c r="E981" s="3" t="str">
         <f>VLOOKUP(D981,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Courts</v>
+        <v>Community: Government Departments and Agencies</v>
       </c>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="B982" s="4" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D982">
-        <v>20000000</v>
+        <v>12004000</v>
       </c>
       <c r="E982" s="3" t="str">
         <f>VLOOKUP(D982,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Tax</v>
+        <v>Community: Courts</v>
       </c>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A983" s="1" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D983">
-        <v>12009000</v>
+        <v>20000000</v>
       </c>
       <c r="E983" s="3" t="str">
         <f>VLOOKUP(D983,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Government Departments and Agencies</v>
+        <v>Tax</v>
       </c>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984" s="1" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B984" s="4" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D984">
-        <v>12016000</v>
+        <v>12009000</v>
       </c>
       <c r="E984" s="3" t="str">
         <f>VLOOKUP(D984,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Post Offices</v>
+        <v>Community: Government Departments and Agencies</v>
       </c>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A985" s="1" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="B985" s="4" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D985">
-        <v>12009000</v>
+        <v>12016000</v>
       </c>
       <c r="E985" s="3" t="str">
         <f>VLOOKUP(D985,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Post Offices</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A986" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C986" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D986">
+        <v>12009000</v>
+      </c>
+      <c r="E986" s="3" t="str">
+        <f>VLOOKUP(D986,Linked_fi_categories!$A:$C,3,TRUE)</f>
         <v>Community: Government Departments and Agencies</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E985">
-    <sortCondition ref="A2:A985"/>
+  <sortState ref="A2:E986">
+    <sortCondition ref="A2:A986"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -26145,8 +26169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C603"/>
   <sheetViews>
-    <sheetView topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="A561" sqref="A561"/>
+    <sheetView topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/inspired_mcc_codes.xlsx
+++ b/inspired_mcc_codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpicornell/devel/inspired/mcc-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596126D6-3600-1842-A3A3-B6D0FA90DCC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F525B465-EB93-284F-8893-B84CCE9C44DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="540" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="2506">
   <si>
     <t>category_id</t>
   </si>
@@ -7558,14 +7558,14 @@
     <t>00000000</t>
   </si>
   <si>
-    <t>DEFAULT</t>
+    <t>Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7704,12 +7704,6 @@
       <sz val="11"/>
       <color rgb="FFC33720"/>
       <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -8065,8 +8059,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8432,7 +8430,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8461,21 +8459,22 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2505</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2505</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>2504</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>2505</v>
+      <c r="E2" s="3" t="str">
+        <f>VLOOKUP(D2,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Default</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -26201,10 +26200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C603"/>
+  <dimension ref="A1:C604"/>
   <sheetViews>
-    <sheetView topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26225,6624 +26224,6635 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10000000</v>
+      <c r="A2" s="8" t="s">
+        <v>2504</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>10001000</v>
+        <v>10000000</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>1901</v>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>10002000</v>
+        <v>10001000</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10003000</v>
+        <v>10002000</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10004000</v>
+        <v>10003000</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>10005000</v>
+        <v>10004000</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10006000</v>
+        <v>10005000</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>10007000</v>
+        <v>10006000</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>10008000</v>
+        <v>10007000</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10009000</v>
+        <v>10008000</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11000000</v>
+        <v>10009000</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
+      <c r="C12" s="7" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12000000</v>
+        <v>11000000</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12001000</v>
+        <v>12000000</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>1910</v>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12002000</v>
+        <v>12001000</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>12002001</v>
+        <v>12002000</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>12002002</v>
+        <v>12002001</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>12003000</v>
+        <v>12002002</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>12004000</v>
+        <v>12003000</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>12005000</v>
+        <v>12004000</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>12006000</v>
+        <v>12005000</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>12007000</v>
+        <v>12006000</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>12008000</v>
+        <v>12007000</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>12008001</v>
+        <v>12008000</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>12008002</v>
+        <v>12008001</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>12008003</v>
+        <v>12008002</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>12008004</v>
+        <v>12008003</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>12008005</v>
+        <v>12008004</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>12008006</v>
+        <v>12008005</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>12008007</v>
+        <v>12008006</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>12008008</v>
+        <v>12008007</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>12008009</v>
+        <v>12008008</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>12008010</v>
+        <v>12008009</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>12008011</v>
+        <v>12008010</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>12009000</v>
+        <v>12008011</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>12010000</v>
+        <v>12009000</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>12011000</v>
+        <v>12010000</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>12012000</v>
+        <v>12011000</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>12012001</v>
+        <v>12012000</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>12012002</v>
+        <v>12012001</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>12012003</v>
+        <v>12012002</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>12013000</v>
+        <v>12012003</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>12014000</v>
+        <v>12013000</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>12015000</v>
+        <v>12014000</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>12015001</v>
+        <v>12015000</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>12015002</v>
+        <v>12015001</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>12015003</v>
+        <v>12015002</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>12016000</v>
+        <v>12015003</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>12017000</v>
+        <v>12016000</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>12018000</v>
+        <v>12017000</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>12018001</v>
+        <v>12018000</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>12018002</v>
+        <v>12018001</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>12018003</v>
+        <v>12018002</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>12018004</v>
+        <v>12018003</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>12019000</v>
+        <v>12018004</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>12019001</v>
+        <v>12019000</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>13000000</v>
+        <v>12019001</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>8</v>
+      <c r="C57" s="7" t="s">
+        <v>1952</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>13001000</v>
+        <v>13000000</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>1953</v>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>13001001</v>
+        <v>13001000</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>13001002</v>
+        <v>13001001</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>13001003</v>
+        <v>13001002</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>13002000</v>
+        <v>13001003</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>13003000</v>
+        <v>13002000</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>13004000</v>
+        <v>13003000</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>13004001</v>
+        <v>13004000</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>13004002</v>
+        <v>13004001</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>13004003</v>
+        <v>13004002</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>13004004</v>
+        <v>13004003</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>13004005</v>
+        <v>13004004</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>13004006</v>
+        <v>13004005</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>13005000</v>
+        <v>13004006</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>13005001</v>
+        <v>13005000</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>13005002</v>
+        <v>13005001</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>13005003</v>
+        <v>13005002</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>13005004</v>
+        <v>13005003</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>13005005</v>
+        <v>13005004</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>13005006</v>
+        <v>13005005</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>13005007</v>
+        <v>13005006</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>13005008</v>
+        <v>13005007</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>13005009</v>
+        <v>13005008</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>13005010</v>
+        <v>13005009</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>13005011</v>
+        <v>13005010</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>13005012</v>
+        <v>13005011</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>13005013</v>
+        <v>13005012</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>13005014</v>
+        <v>13005013</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>13005015</v>
+        <v>13005014</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>13005016</v>
+        <v>13005015</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>13005017</v>
+        <v>13005016</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>13005018</v>
+        <v>13005017</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>13005019</v>
+        <v>13005018</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>13005020</v>
+        <v>13005019</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>13005021</v>
+        <v>13005020</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>13005022</v>
+        <v>13005021</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>13005023</v>
+        <v>13005022</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>13005024</v>
+        <v>13005023</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>13005025</v>
+        <v>13005024</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>13005026</v>
+        <v>13005025</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>13005027</v>
+        <v>13005026</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>13005028</v>
+        <v>13005027</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>13005029</v>
+        <v>13005028</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>13005030</v>
+        <v>13005029</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>13005031</v>
+        <v>13005030</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>13005032</v>
+        <v>13005031</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>13005033</v>
+        <v>13005032</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>13005034</v>
+        <v>13005033</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>13005035</v>
+        <v>13005034</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>13005036</v>
+        <v>13005035</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>13005037</v>
+        <v>13005036</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>13005038</v>
+        <v>13005037</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>13005039</v>
+        <v>13005038</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>13005040</v>
+        <v>13005039</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>13005041</v>
+        <v>13005040</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>13005042</v>
+        <v>13005041</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>13005043</v>
+        <v>13005042</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>13005044</v>
+        <v>13005043</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>13005045</v>
+        <v>13005044</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>13005046</v>
+        <v>13005045</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>13005047</v>
+        <v>13005046</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>13005048</v>
+        <v>13005047</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>13005049</v>
+        <v>13005048</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>13005050</v>
+        <v>13005049</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>13005051</v>
+        <v>13005050</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>13005052</v>
+        <v>13005051</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>13005053</v>
+        <v>13005052</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>13005054</v>
+        <v>13005053</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>13005055</v>
+        <v>13005054</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>13005056</v>
+        <v>13005055</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>13005057</v>
+        <v>13005056</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>13005058</v>
+        <v>13005057</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>13005059</v>
+        <v>13005058</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>14000000</v>
+        <v>13005059</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>9</v>
+      <c r="C131" s="7" t="s">
+        <v>2025</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>14001000</v>
+        <v>14000000</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>2026</v>
+      <c r="C132" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>14001001</v>
+        <v>14001000</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>14001002</v>
+        <v>14001001</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>14001003</v>
+        <v>14001002</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>14001004</v>
+        <v>14001003</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>14001005</v>
+        <v>14001004</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>14001006</v>
+        <v>14001005</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>14001007</v>
+        <v>14001006</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>14001008</v>
+        <v>14001007</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>14001009</v>
+        <v>14001008</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>14001010</v>
+        <v>14001009</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>14001011</v>
+        <v>14001010</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>14001012</v>
+        <v>14001011</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>14001013</v>
+        <v>14001012</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>14001014</v>
+        <v>14001013</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>14001015</v>
+        <v>14001014</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>14001016</v>
+        <v>14001015</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>14001017</v>
+        <v>14001016</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>14002000</v>
+        <v>14001017</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>14002001</v>
+        <v>14002000</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>14002002</v>
+        <v>14002001</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>14002003</v>
+        <v>14002002</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>14002004</v>
+        <v>14002003</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>14002005</v>
+        <v>14002004</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>14002006</v>
+        <v>14002005</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>14002007</v>
+        <v>14002006</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>14002008</v>
+        <v>14002007</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>14002009</v>
+        <v>14002008</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>14002010</v>
+        <v>14002009</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>14002011</v>
+        <v>14002010</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>14002012</v>
+        <v>14002011</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>14002013</v>
+        <v>14002012</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>14002014</v>
+        <v>14002013</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>14002015</v>
+        <v>14002014</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>14002016</v>
+        <v>14002015</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>14002017</v>
+        <v>14002016</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>14002018</v>
+        <v>14002017</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>14002019</v>
+        <v>14002018</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>14002020</v>
+        <v>14002019</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>15000000</v>
+        <v>14002020</v>
       </c>
       <c r="B171" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>2064</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>15001000</v>
+        <v>15000000</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>2065</v>
+      <c r="C172" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>15002000</v>
+        <v>15001000</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>16000000</v>
+        <v>15002000</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>11</v>
+      <c r="C174" s="7" t="s">
+        <v>2066</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>16001000</v>
+        <v>16000000</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>2067</v>
+      <c r="C175" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>16002000</v>
+        <v>16001000</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>16003000</v>
+        <v>16002000</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>17000000</v>
+        <v>16003000</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>2069</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>17001000</v>
+        <v>17000000</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>2070</v>
+      <c r="C179" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>17001001</v>
+        <v>17001000</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>17001002</v>
+        <v>17001001</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>17001003</v>
+        <v>17001002</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>17001004</v>
+        <v>17001003</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>17001005</v>
+        <v>17001004</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>17001006</v>
+        <v>17001005</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>17001007</v>
+        <v>17001006</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>17001008</v>
+        <v>17001007</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>17001009</v>
+        <v>17001008</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>17001010</v>
+        <v>17001009</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>17001011</v>
+        <v>17001010</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>17001012</v>
+        <v>17001011</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>17001013</v>
+        <v>17001012</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>17001014</v>
+        <v>17001013</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>17001015</v>
+        <v>17001014</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>17001016</v>
+        <v>17001015</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>17001017</v>
+        <v>17001016</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>17001018</v>
+        <v>17001017</v>
       </c>
       <c r="B197" t="s">
         <v>6</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>17001019</v>
+        <v>17001018</v>
       </c>
       <c r="B198" t="s">
         <v>6</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>17002000</v>
+        <v>17001019</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>17003000</v>
+        <v>17002000</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>17004000</v>
+        <v>17003000</v>
       </c>
       <c r="B201" t="s">
         <v>6</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>17005000</v>
+        <v>17004000</v>
       </c>
       <c r="B202" t="s">
         <v>6</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>17006000</v>
+        <v>17005000</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>17007000</v>
+        <v>17006000</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>17008000</v>
+        <v>17007000</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>17009000</v>
+        <v>17008000</v>
       </c>
       <c r="B206" t="s">
         <v>6</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>17010000</v>
+        <v>17009000</v>
       </c>
       <c r="B207" t="s">
         <v>6</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>17011000</v>
+        <v>17010000</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>17012000</v>
+        <v>17011000</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>17013000</v>
+        <v>17012000</v>
       </c>
       <c r="B210" t="s">
         <v>6</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>17014000</v>
+        <v>17013000</v>
       </c>
       <c r="B211" t="s">
         <v>6</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>17015000</v>
+        <v>17014000</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>17016000</v>
+        <v>17015000</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>17017000</v>
+        <v>17016000</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>17018000</v>
+        <v>17017000</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>17019000</v>
+        <v>17018000</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>17020000</v>
+        <v>17019000</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>17021000</v>
+        <v>17020000</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>17022000</v>
+        <v>17021000</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>17023000</v>
+        <v>17022000</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>17023001</v>
+        <v>17023000</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>17023002</v>
+        <v>17023001</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>17023003</v>
+        <v>17023002</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>17023004</v>
+        <v>17023003</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>17024000</v>
+        <v>17023004</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>17025000</v>
+        <v>17024000</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>17025001</v>
+        <v>17025000</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>17025002</v>
+        <v>17025001</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>17025003</v>
+        <v>17025002</v>
       </c>
       <c r="B229" t="s">
         <v>6</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>17025004</v>
+        <v>17025003</v>
       </c>
       <c r="B230" t="s">
         <v>6</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>17025005</v>
+        <v>17025004</v>
       </c>
       <c r="B231" t="s">
         <v>6</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>17026000</v>
+        <v>17025005</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>17027000</v>
+        <v>17026000</v>
       </c>
       <c r="B233" t="s">
         <v>6</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>17027001</v>
+        <v>17027000</v>
       </c>
       <c r="B234" t="s">
         <v>6</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>17027002</v>
+        <v>17027001</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>17027003</v>
+        <v>17027002</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>17028000</v>
+        <v>17027003</v>
       </c>
       <c r="B237" t="s">
         <v>6</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>17029000</v>
+        <v>17028000</v>
       </c>
       <c r="B238" t="s">
         <v>6</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>17030000</v>
+        <v>17029000</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>17031000</v>
+        <v>17030000</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>17032000</v>
+        <v>17031000</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>17033000</v>
+        <v>17032000</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>17034000</v>
+        <v>17033000</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>17035000</v>
+        <v>17034000</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>17036000</v>
+        <v>17035000</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>17037000</v>
+        <v>17036000</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>17038000</v>
+        <v>17037000</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>17039000</v>
+        <v>17038000</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>17040000</v>
+        <v>17039000</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>17041000</v>
+        <v>17040000</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>17042000</v>
+        <v>17041000</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>17043000</v>
+        <v>17042000</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>17044000</v>
+        <v>17043000</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>17045000</v>
+        <v>17044000</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>17046000</v>
+        <v>17045000</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>17047000</v>
+        <v>17046000</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>17048000</v>
+        <v>17047000</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>18000000</v>
+        <v>17048000</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>13</v>
+      <c r="C258" s="7" t="s">
+        <v>2148</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>18001000</v>
+        <v>18000000</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
       </c>
-      <c r="C259" s="7" t="s">
-        <v>2149</v>
+      <c r="C259" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>18001001</v>
+        <v>18001000</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>18001002</v>
+        <v>18001001</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>18001003</v>
+        <v>18001002</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>18001004</v>
+        <v>18001003</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>18001005</v>
+        <v>18001004</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>18001006</v>
+        <v>18001005</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>18001007</v>
+        <v>18001006</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
+        <v>18001007</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268">
         <v>18001008</v>
       </c>
-      <c r="B267" t="s">
-        <v>6</v>
-      </c>
-      <c r="C267" s="7" t="s">
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="7" t="s">
         <v>2157</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <v>18001009</v>
-      </c>
-      <c r="B268" t="s">
-        <v>6</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>2158</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>18001010</v>
+        <v>18001009</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>18003000</v>
+        <v>18001010</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>18004000</v>
+        <v>18003000</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>18005000</v>
+        <v>18004000</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>18006000</v>
+        <v>18005000</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>18006001</v>
+        <v>18006000</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>18006002</v>
+        <v>18006001</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>18006003</v>
+        <v>18006002</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>18006004</v>
+        <v>18006003</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>18006005</v>
+        <v>18006004</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>18006006</v>
+        <v>18006005</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>18006007</v>
+        <v>18006006</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>18006008</v>
+        <v>18006007</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>18006009</v>
+        <v>18006008</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>18007000</v>
+        <v>18006009</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>18008000</v>
+        <v>18007000</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>18008001</v>
+        <v>18008000</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>18009000</v>
+        <v>18008001</v>
       </c>
       <c r="B286" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>18010000</v>
+        <v>18009000</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>18011000</v>
+        <v>18010000</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>18012000</v>
+        <v>18011000</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>18012001</v>
+        <v>18012000</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>18012002</v>
+        <v>18012001</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>18013000</v>
+        <v>18012002</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>18013001</v>
+        <v>18013000</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>18013002</v>
+        <v>18013001</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>18013003</v>
+        <v>18013002</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>18013004</v>
+        <v>18013003</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>18013005</v>
+        <v>18013004</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>18013006</v>
+        <v>18013005</v>
       </c>
       <c r="B298" t="s">
         <v>6</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>18013007</v>
+        <v>18013006</v>
       </c>
       <c r="B299" t="s">
         <v>6</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>18013008</v>
+        <v>18013007</v>
       </c>
       <c r="B300" t="s">
         <v>6</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>18013009</v>
+        <v>18013008</v>
       </c>
       <c r="B301" t="s">
         <v>6</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>18013010</v>
+        <v>18013009</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>18014000</v>
+        <v>18013010</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>18015000</v>
+        <v>18014000</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>18016000</v>
+        <v>18015000</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>18017000</v>
+        <v>18016000</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>18018000</v>
+        <v>18017000</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>18018001</v>
+        <v>18018000</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>18019000</v>
+        <v>18018001</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>18020000</v>
+        <v>18019000</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>18020001</v>
+        <v>18020000</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>18020002</v>
+        <v>18020001</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>18020003</v>
+        <v>18020002</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>18020004</v>
+        <v>18020003</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>18020005</v>
+        <v>18020004</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>18020006</v>
+        <v>18020005</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>18020007</v>
+        <v>18020006</v>
       </c>
       <c r="B317" t="s">
         <v>6</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>18020008</v>
+        <v>18020007</v>
       </c>
       <c r="B318" t="s">
         <v>6</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>18020009</v>
+        <v>18020008</v>
       </c>
       <c r="B319" t="s">
         <v>6</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>18020010</v>
+        <v>18020009</v>
       </c>
       <c r="B320" t="s">
         <v>6</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>18020011</v>
+        <v>18020010</v>
       </c>
       <c r="B321" t="s">
         <v>6</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>18020012</v>
+        <v>18020011</v>
       </c>
       <c r="B322" t="s">
         <v>6</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>18020013</v>
+        <v>18020012</v>
       </c>
       <c r="B323" t="s">
         <v>6</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>18020014</v>
+        <v>18020013</v>
       </c>
       <c r="B324" t="s">
         <v>6</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>18021000</v>
+        <v>18020014</v>
       </c>
       <c r="B325" t="s">
         <v>6</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>18021001</v>
+        <v>18021000</v>
       </c>
       <c r="B326" t="s">
         <v>6</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>18021002</v>
+        <v>18021001</v>
       </c>
       <c r="B327" t="s">
         <v>6</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>18022000</v>
+        <v>18021002</v>
       </c>
       <c r="B328" t="s">
         <v>6</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>18023000</v>
+        <v>18022000</v>
       </c>
       <c r="B329" t="s">
         <v>6</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>18024000</v>
+        <v>18023000</v>
       </c>
       <c r="B330" t="s">
         <v>6</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>18024001</v>
+        <v>18024000</v>
       </c>
       <c r="B331" t="s">
         <v>6</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>18024002</v>
+        <v>18024001</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>18024003</v>
+        <v>18024002</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>18024004</v>
+        <v>18024003</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>18024005</v>
+        <v>18024004</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>18024006</v>
+        <v>18024005</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>18024007</v>
+        <v>18024006</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>18024008</v>
+        <v>18024007</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>18024009</v>
+        <v>18024008</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>18024010</v>
+        <v>18024009</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>18024011</v>
+        <v>18024010</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>18024012</v>
+        <v>18024011</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>18024013</v>
+        <v>18024012</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>18024014</v>
+        <v>18024013</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>18024015</v>
+        <v>18024014</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>18024016</v>
+        <v>18024015</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>18024017</v>
+        <v>18024016</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>18024018</v>
+        <v>18024017</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>18024019</v>
+        <v>18024018</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>18024020</v>
+        <v>18024019</v>
       </c>
       <c r="B350" t="s">
         <v>6</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>18024021</v>
+        <v>18024020</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>18024022</v>
+        <v>18024021</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>18024023</v>
+        <v>18024022</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>18024024</v>
+        <v>18024023</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>18024025</v>
+        <v>18024024</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>18024026</v>
+        <v>18024025</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>18024027</v>
+        <v>18024026</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>18025000</v>
+        <v>18024027</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>18026000</v>
+        <v>18025000</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>18027000</v>
+        <v>18026000</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>18028000</v>
+        <v>18027000</v>
       </c>
       <c r="B361" t="s">
         <v>6</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>18029000</v>
+        <v>18028000</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>18030000</v>
+        <v>18029000</v>
       </c>
       <c r="B363" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>18031000</v>
+        <v>18030000</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>18032000</v>
+        <v>18031000</v>
       </c>
       <c r="B365" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>18033000</v>
+        <v>18032000</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>18034000</v>
+        <v>18033000</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>18035000</v>
+        <v>18034000</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>18036000</v>
+        <v>18035000</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>18037000</v>
+        <v>18036000</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>18037001</v>
+        <v>18037000</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>18037002</v>
+        <v>18037001</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>18037003</v>
+        <v>18037002</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>18037004</v>
+        <v>18037003</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>18037005</v>
+        <v>18037004</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>18037006</v>
+        <v>18037005</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>18037007</v>
+        <v>18037006</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>18037008</v>
+        <v>18037007</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>18037009</v>
+        <v>18037008</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>18037010</v>
+        <v>18037009</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>18037011</v>
+        <v>18037010</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>18037012</v>
+        <v>18037011</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>18037013</v>
+        <v>18037012</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>18037014</v>
+        <v>18037013</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>18037015</v>
+        <v>18037014</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>18037016</v>
+        <v>18037015</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>18037017</v>
+        <v>18037016</v>
       </c>
       <c r="B387" t="s">
         <v>6</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>18037018</v>
+        <v>18037017</v>
       </c>
       <c r="B388" t="s">
         <v>6</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>18037019</v>
+        <v>18037018</v>
       </c>
       <c r="B389" t="s">
         <v>6</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>18037020</v>
+        <v>18037019</v>
       </c>
       <c r="B390" t="s">
         <v>6</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>18038000</v>
+        <v>18037020</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>18039000</v>
+        <v>18038000</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>18040000</v>
+        <v>18039000</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>18040001</v>
+        <v>18040000</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>18040002</v>
+        <v>18040001</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>18040003</v>
+        <v>18040002</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>18041000</v>
+        <v>18040003</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>18042000</v>
+        <v>18041000</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>18043000</v>
+        <v>18042000</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>18044000</v>
+        <v>18043000</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>18045000</v>
+        <v>18044000</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>18045001</v>
+        <v>18045000</v>
       </c>
       <c r="B402" t="s">
         <v>6</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>18045002</v>
+        <v>18045001</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>18045003</v>
+        <v>18045002</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>18045004</v>
+        <v>18045003</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>18045005</v>
+        <v>18045004</v>
       </c>
       <c r="B406" t="s">
         <v>6</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>18045006</v>
+        <v>18045005</v>
       </c>
       <c r="B407" t="s">
         <v>6</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>18045007</v>
+        <v>18045006</v>
       </c>
       <c r="B408" t="s">
         <v>6</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>18045008</v>
+        <v>18045007</v>
       </c>
       <c r="B409" t="s">
         <v>6</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>18045009</v>
+        <v>18045008</v>
       </c>
       <c r="B410" t="s">
         <v>6</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>18045010</v>
+        <v>18045009</v>
       </c>
       <c r="B411" t="s">
         <v>6</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>18046000</v>
+        <v>18045010</v>
       </c>
       <c r="B412" t="s">
         <v>6</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>18047000</v>
+        <v>18046000</v>
       </c>
       <c r="B413" t="s">
         <v>6</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>18048000</v>
+        <v>18047000</v>
       </c>
       <c r="B414" t="s">
         <v>6</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>18049000</v>
+        <v>18048000</v>
       </c>
       <c r="B415" t="s">
         <v>6</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>18050000</v>
+        <v>18049000</v>
       </c>
       <c r="B416" t="s">
         <v>6</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>18050001</v>
+        <v>18050000</v>
       </c>
       <c r="B417" t="s">
         <v>6</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>18050002</v>
+        <v>18050001</v>
       </c>
       <c r="B418" t="s">
         <v>6</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>18050003</v>
+        <v>18050002</v>
       </c>
       <c r="B419" t="s">
         <v>6</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>18050004</v>
+        <v>18050003</v>
       </c>
       <c r="B420" t="s">
         <v>6</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>18050005</v>
+        <v>18050004</v>
       </c>
       <c r="B421" t="s">
         <v>6</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>18050006</v>
+        <v>18050005</v>
       </c>
       <c r="B422" t="s">
         <v>6</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>18050007</v>
+        <v>18050006</v>
       </c>
       <c r="B423" t="s">
         <v>6</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>18050008</v>
+        <v>18050007</v>
       </c>
       <c r="B424" t="s">
         <v>6</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>18050009</v>
+        <v>18050008</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>18050010</v>
+        <v>18050009</v>
       </c>
       <c r="B426" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>18051000</v>
+        <v>18050010</v>
       </c>
       <c r="B427" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>18052000</v>
+        <v>18051000</v>
       </c>
       <c r="B428" t="s">
         <v>6</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>18053000</v>
+        <v>18052000</v>
       </c>
       <c r="B429" t="s">
         <v>6</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>18054000</v>
+        <v>18053000</v>
       </c>
       <c r="B430" t="s">
         <v>6</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>18055000</v>
+        <v>18054000</v>
       </c>
       <c r="B431" t="s">
         <v>6</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>18056000</v>
+        <v>18055000</v>
       </c>
       <c r="B432" t="s">
         <v>6</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>18057000</v>
+        <v>18056000</v>
       </c>
       <c r="B433" t="s">
         <v>6</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>18058000</v>
+        <v>18057000</v>
       </c>
       <c r="B434" t="s">
         <v>6</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>18059000</v>
+        <v>18058000</v>
       </c>
       <c r="B435" t="s">
         <v>6</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>18060000</v>
+        <v>18059000</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>18061000</v>
+        <v>18060000</v>
       </c>
       <c r="B437" t="s">
         <v>6</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>18062000</v>
+        <v>18061000</v>
       </c>
       <c r="B438" t="s">
         <v>6</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>18063000</v>
+        <v>18062000</v>
       </c>
       <c r="B439" t="s">
         <v>6</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>18064000</v>
+        <v>18063000</v>
       </c>
       <c r="B440" t="s">
         <v>6</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>18065000</v>
+        <v>18064000</v>
       </c>
       <c r="B441" t="s">
         <v>6</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>18066000</v>
+        <v>18065000</v>
       </c>
       <c r="B442" t="s">
         <v>6</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>18067000</v>
+        <v>18066000</v>
       </c>
       <c r="B443" t="s">
         <v>6</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>18068000</v>
+        <v>18067000</v>
       </c>
       <c r="B444" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>18068001</v>
+        <v>18068000</v>
       </c>
       <c r="B445" t="s">
         <v>3</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>18068002</v>
+        <v>18068001</v>
       </c>
       <c r="B446" t="s">
         <v>3</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>18068003</v>
+        <v>18068002</v>
       </c>
       <c r="B447" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>18068004</v>
+        <v>18068003</v>
       </c>
       <c r="B448" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>18068005</v>
+        <v>18068004</v>
       </c>
       <c r="B449" t="s">
         <v>3</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>18069000</v>
+        <v>18068005</v>
       </c>
       <c r="B450" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>18070000</v>
+        <v>18069000</v>
       </c>
       <c r="B451" t="s">
         <v>6</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>18071000</v>
+        <v>18070000</v>
       </c>
       <c r="B452" t="s">
         <v>6</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>18072000</v>
+        <v>18071000</v>
       </c>
       <c r="B453" t="s">
         <v>6</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>18073000</v>
+        <v>18072000</v>
       </c>
       <c r="B454" t="s">
         <v>6</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>18073001</v>
+        <v>18073000</v>
       </c>
       <c r="B455" t="s">
         <v>6</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>18073002</v>
+        <v>18073001</v>
       </c>
       <c r="B456" t="s">
         <v>6</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>18073003</v>
+        <v>18073002</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>18073004</v>
+        <v>18073003</v>
       </c>
       <c r="B458" t="s">
         <v>6</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A459">
+        <v>18073004</v>
+      </c>
+      <c r="B459" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459" s="7" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A460">
         <v>18074000</v>
       </c>
-      <c r="B459" t="s">
-        <v>6</v>
-      </c>
-      <c r="C459" s="7" t="s">
+      <c r="B460" t="s">
+        <v>6</v>
+      </c>
+      <c r="C460" s="7" t="s">
         <v>2349</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461">
         <v>19000000</v>
       </c>
-      <c r="B460" t="s">
-        <v>6</v>
-      </c>
-      <c r="C460" s="1" t="s">
+      <c r="B461" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A461">
-        <v>19001000</v>
-      </c>
-      <c r="B461" t="s">
-        <v>6</v>
-      </c>
-      <c r="C461" s="7" t="s">
-        <v>2350</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>19002000</v>
+        <v>19001000</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>19003000</v>
+        <v>19002000</v>
       </c>
       <c r="B463" t="s">
         <v>6</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>19004000</v>
+        <v>19003000</v>
       </c>
       <c r="B464" t="s">
         <v>6</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>19005000</v>
+        <v>19004000</v>
       </c>
       <c r="B465" t="s">
         <v>6</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>19005001</v>
+        <v>19005000</v>
       </c>
       <c r="B466" t="s">
         <v>6</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>19005002</v>
+        <v>19005001</v>
       </c>
       <c r="B467" t="s">
         <v>6</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>19005003</v>
+        <v>19005002</v>
       </c>
       <c r="B468" t="s">
         <v>6</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>19005004</v>
+        <v>19005003</v>
       </c>
       <c r="B469" t="s">
         <v>6</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>19005005</v>
+        <v>19005004</v>
       </c>
       <c r="B470" t="s">
         <v>6</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>19005006</v>
+        <v>19005005</v>
       </c>
       <c r="B471" t="s">
         <v>6</v>
       </c>
       <c r="C471" s="7" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>19005007</v>
+        <v>19005006</v>
       </c>
       <c r="B472" t="s">
         <v>6</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>19006000</v>
+        <v>19005007</v>
       </c>
       <c r="B473" t="s">
         <v>6</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>19007000</v>
+        <v>19006000</v>
       </c>
       <c r="B474" t="s">
         <v>6</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>19008000</v>
+        <v>19007000</v>
       </c>
       <c r="B475" t="s">
         <v>6</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>19009000</v>
+        <v>19008000</v>
       </c>
       <c r="B476" t="s">
         <v>6</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>19010000</v>
+        <v>19009000</v>
       </c>
       <c r="B477" t="s">
         <v>6</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>19011000</v>
+        <v>19010000</v>
       </c>
       <c r="B478" t="s">
         <v>6</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>19012000</v>
+        <v>19011000</v>
       </c>
       <c r="B479" t="s">
         <v>6</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>19012001</v>
+        <v>19012000</v>
       </c>
       <c r="B480" t="s">
         <v>6</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>19012002</v>
+        <v>19012001</v>
       </c>
       <c r="B481" t="s">
         <v>6</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>19012003</v>
+        <v>19012002</v>
       </c>
       <c r="B482" t="s">
         <v>6</v>
       </c>
       <c r="C482" s="7" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>19012004</v>
+        <v>19012003</v>
       </c>
       <c r="B483" t="s">
         <v>6</v>
       </c>
       <c r="C483" s="7" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>19012005</v>
+        <v>19012004</v>
       </c>
       <c r="B484" t="s">
         <v>6</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="485" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>19012006</v>
+        <v>19012005</v>
       </c>
       <c r="B485" t="s">
         <v>6</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>19012007</v>
+        <v>19012006</v>
       </c>
       <c r="B486" t="s">
         <v>6</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A487">
-        <v>19012008</v>
+        <v>19012007</v>
       </c>
       <c r="B487" t="s">
         <v>6</v>
       </c>
       <c r="C487" s="7" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>19013000</v>
+        <v>19012008</v>
       </c>
       <c r="B488" t="s">
         <v>6</v>
       </c>
       <c r="C488" s="7" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>19013001</v>
+        <v>19013000</v>
       </c>
       <c r="B489" t="s">
         <v>6</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>19013002</v>
+        <v>19013001</v>
       </c>
       <c r="B490" t="s">
         <v>6</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>19013003</v>
+        <v>19013002</v>
       </c>
       <c r="B491" t="s">
         <v>6</v>
       </c>
       <c r="C491" s="7" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A492">
-        <v>19014000</v>
+        <v>19013003</v>
       </c>
       <c r="B492" t="s">
         <v>6</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A493">
-        <v>19015000</v>
+        <v>19014000</v>
       </c>
       <c r="B493" t="s">
         <v>6</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>19016000</v>
+        <v>19015000</v>
       </c>
       <c r="B494" t="s">
         <v>6</v>
       </c>
       <c r="C494" s="7" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>19017000</v>
+        <v>19016000</v>
       </c>
       <c r="B495" t="s">
         <v>6</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A496">
-        <v>19018000</v>
+        <v>19017000</v>
       </c>
       <c r="B496" t="s">
         <v>6</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>19019000</v>
+        <v>19018000</v>
       </c>
       <c r="B497" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C497" s="7" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>19020000</v>
+        <v>19019000</v>
       </c>
       <c r="B498" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C498" s="7" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A499">
-        <v>19021000</v>
+        <v>19020000</v>
       </c>
       <c r="B499" t="s">
         <v>6</v>
       </c>
       <c r="C499" s="7" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A500">
-        <v>19022000</v>
+        <v>19021000</v>
       </c>
       <c r="B500" t="s">
         <v>6</v>
       </c>
       <c r="C500" s="7" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A501">
-        <v>19023000</v>
+        <v>19022000</v>
       </c>
       <c r="B501" t="s">
         <v>6</v>
       </c>
       <c r="C501" s="7" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A502">
-        <v>19024000</v>
+        <v>19023000</v>
       </c>
       <c r="B502" t="s">
         <v>6</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A503">
-        <v>19025000</v>
+        <v>19024000</v>
       </c>
       <c r="B503" t="s">
         <v>6</v>
       </c>
       <c r="C503" s="7" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A504">
-        <v>19025001</v>
+        <v>19025000</v>
       </c>
       <c r="B504" t="s">
         <v>6</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A505">
-        <v>19025002</v>
+        <v>19025001</v>
       </c>
       <c r="B505" t="s">
         <v>6</v>
       </c>
       <c r="C505" s="7" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A506">
-        <v>19025003</v>
+        <v>19025002</v>
       </c>
       <c r="B506" t="s">
         <v>6</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A507">
-        <v>19025004</v>
+        <v>19025003</v>
       </c>
       <c r="B507" t="s">
         <v>6</v>
       </c>
       <c r="C507" s="7" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A508">
-        <v>19026000</v>
+        <v>19025004</v>
       </c>
       <c r="B508" t="s">
         <v>6</v>
       </c>
       <c r="C508" s="7" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A509">
-        <v>19027000</v>
+        <v>19026000</v>
       </c>
       <c r="B509" t="s">
         <v>6</v>
       </c>
       <c r="C509" s="7" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A510">
-        <v>19028000</v>
+        <v>19027000</v>
       </c>
       <c r="B510" t="s">
         <v>6</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A511">
-        <v>19029000</v>
+        <v>19028000</v>
       </c>
       <c r="B511" t="s">
         <v>6</v>
       </c>
       <c r="C511" s="7" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A512">
-        <v>19030000</v>
+        <v>19029000</v>
       </c>
       <c r="B512" t="s">
         <v>6</v>
       </c>
       <c r="C512" s="7" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A513">
-        <v>19031000</v>
+        <v>19030000</v>
       </c>
       <c r="B513" t="s">
         <v>6</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A514">
-        <v>19032000</v>
+        <v>19031000</v>
       </c>
       <c r="B514" t="s">
         <v>6</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A515">
-        <v>19033000</v>
+        <v>19032000</v>
       </c>
       <c r="B515" t="s">
         <v>6</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A516">
-        <v>19034000</v>
+        <v>19033000</v>
       </c>
       <c r="B516" t="s">
         <v>6</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A517">
-        <v>19035000</v>
+        <v>19034000</v>
       </c>
       <c r="B517" t="s">
         <v>6</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A518">
-        <v>19036000</v>
+        <v>19035000</v>
       </c>
       <c r="B518" t="s">
         <v>6</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A519">
-        <v>19037000</v>
+        <v>19036000</v>
       </c>
       <c r="B519" t="s">
         <v>6</v>
       </c>
       <c r="C519" s="7" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A520">
-        <v>19038000</v>
+        <v>19037000</v>
       </c>
       <c r="B520" t="s">
         <v>6</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A521">
-        <v>19039000</v>
+        <v>19038000</v>
       </c>
       <c r="B521" t="s">
         <v>6</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A522">
-        <v>19040000</v>
+        <v>19039000</v>
       </c>
       <c r="B522" t="s">
         <v>6</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A523">
-        <v>19040001</v>
+        <v>19040000</v>
       </c>
       <c r="B523" t="s">
         <v>6</v>
       </c>
       <c r="C523" s="7" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A524">
-        <v>19040002</v>
+        <v>19040001</v>
       </c>
       <c r="B524" t="s">
         <v>6</v>
       </c>
       <c r="C524" s="7" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A525">
-        <v>19040003</v>
+        <v>19040002</v>
       </c>
       <c r="B525" t="s">
         <v>6</v>
       </c>
       <c r="C525" s="7" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A526">
-        <v>19040004</v>
+        <v>19040003</v>
       </c>
       <c r="B526" t="s">
         <v>6</v>
       </c>
       <c r="C526" s="7" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A527">
-        <v>19040005</v>
+        <v>19040004</v>
       </c>
       <c r="B527" t="s">
         <v>6</v>
       </c>
       <c r="C527" s="7" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A528">
-        <v>19040006</v>
+        <v>19040005</v>
       </c>
       <c r="B528" t="s">
         <v>6</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A529">
-        <v>19040007</v>
+        <v>19040006</v>
       </c>
       <c r="B529" t="s">
         <v>6</v>
       </c>
       <c r="C529" s="7" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A530">
-        <v>19040008</v>
+        <v>19040007</v>
       </c>
       <c r="B530" t="s">
         <v>6</v>
       </c>
       <c r="C530" s="7" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A531">
-        <v>19041000</v>
+        <v>19040008</v>
       </c>
       <c r="B531" t="s">
         <v>6</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A532">
-        <v>19042000</v>
+        <v>19041000</v>
       </c>
       <c r="B532" t="s">
         <v>6</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A533">
-        <v>19043000</v>
+        <v>19042000</v>
       </c>
       <c r="B533" t="s">
         <v>6</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A534">
-        <v>19044000</v>
+        <v>19043000</v>
       </c>
       <c r="B534" t="s">
         <v>6</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A535">
-        <v>19045000</v>
+        <v>19044000</v>
       </c>
       <c r="B535" t="s">
         <v>6</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A536">
-        <v>19046000</v>
+        <v>19045000</v>
       </c>
       <c r="B536" t="s">
         <v>6</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A537">
-        <v>19047000</v>
+        <v>19046000</v>
       </c>
       <c r="B537" t="s">
         <v>6</v>
       </c>
       <c r="C537" s="7" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A538">
-        <v>19048000</v>
+        <v>19047000</v>
       </c>
       <c r="B538" t="s">
         <v>6</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A539">
-        <v>19049000</v>
+        <v>19048000</v>
       </c>
       <c r="B539" t="s">
         <v>6</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A540">
-        <v>19050000</v>
+        <v>19049000</v>
       </c>
       <c r="B540" t="s">
         <v>6</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A541">
-        <v>19051000</v>
+        <v>19050000</v>
       </c>
       <c r="B541" t="s">
         <v>6</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A542">
-        <v>19052000</v>
+        <v>19051000</v>
       </c>
       <c r="B542" t="s">
         <v>6</v>
       </c>
       <c r="C542" s="7" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A543">
-        <v>19053000</v>
+        <v>19052000</v>
       </c>
       <c r="B543" t="s">
         <v>6</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A544">
+        <v>19053000</v>
+      </c>
+      <c r="B544" t="s">
+        <v>6</v>
+      </c>
+      <c r="C544" s="7" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A545">
         <v>19054000</v>
       </c>
-      <c r="B544" t="s">
-        <v>6</v>
-      </c>
-      <c r="C544" s="7" t="s">
+      <c r="B545" t="s">
+        <v>6</v>
+      </c>
+      <c r="C545" s="7" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546">
         <v>20000000</v>
-      </c>
-      <c r="B545" t="s">
-        <v>3</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A546">
-        <v>20001000</v>
       </c>
       <c r="B546" t="s">
         <v>3</v>
       </c>
-      <c r="C546" s="7" t="s">
-        <v>2434</v>
+      <c r="C546" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A547">
-        <v>20002000</v>
+        <v>20001000</v>
       </c>
       <c r="B547" t="s">
         <v>3</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A548">
-        <v>21000000</v>
+        <v>20002000</v>
       </c>
       <c r="B548" t="s">
         <v>3</v>
       </c>
-      <c r="C548" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="C548" s="7" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549">
-        <v>21001000</v>
+        <v>21000000</v>
       </c>
       <c r="B549" t="s">
         <v>3</v>
       </c>
-      <c r="C549" s="7" t="s">
-        <v>2436</v>
+      <c r="C549" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A550">
-        <v>21002000</v>
+        <v>21001000</v>
       </c>
       <c r="B550" t="s">
         <v>3</v>
       </c>
       <c r="C550" s="7" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A551">
-        <v>21003000</v>
+        <v>21002000</v>
       </c>
       <c r="B551" t="s">
         <v>3</v>
       </c>
       <c r="C551" s="7" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A552">
-        <v>21004000</v>
+        <v>21003000</v>
       </c>
       <c r="B552" t="s">
         <v>3</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A553">
-        <v>21005000</v>
+        <v>21004000</v>
       </c>
       <c r="B553" t="s">
         <v>3</v>
       </c>
       <c r="C553" s="7" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A554">
-        <v>21006000</v>
+        <v>21005000</v>
       </c>
       <c r="B554" t="s">
         <v>3</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A555">
-        <v>21007000</v>
+        <v>21006000</v>
       </c>
       <c r="B555" t="s">
         <v>3</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A556">
-        <v>21007001</v>
+        <v>21007000</v>
       </c>
       <c r="B556" t="s">
         <v>3</v>
       </c>
       <c r="C556" s="7" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="557" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A557">
-        <v>21007002</v>
+        <v>21007001</v>
       </c>
       <c r="B557" t="s">
         <v>3</v>
       </c>
       <c r="C557" s="7" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A558">
-        <v>21008000</v>
+        <v>21007002</v>
       </c>
       <c r="B558" t="s">
         <v>3</v>
       </c>
       <c r="C558" s="7" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A559">
-        <v>21009000</v>
+        <v>21008000</v>
       </c>
       <c r="B559" t="s">
         <v>3</v>
       </c>
       <c r="C559" s="7" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A560">
-        <v>21009001</v>
+        <v>21009000</v>
       </c>
       <c r="B560" t="s">
         <v>3</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A561">
-        <v>21010000</v>
+        <v>21009001</v>
       </c>
       <c r="B561" t="s">
         <v>3</v>
       </c>
       <c r="C561" s="7" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A562">
-        <v>21010001</v>
+        <v>21010000</v>
       </c>
       <c r="B562" t="s">
         <v>3</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A563">
-        <v>21010002</v>
+        <v>21010001</v>
       </c>
       <c r="B563" t="s">
         <v>3</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A564">
-        <v>21010003</v>
+        <v>21010002</v>
       </c>
       <c r="B564" t="s">
         <v>3</v>
       </c>
       <c r="C564" s="7" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A565">
-        <v>21010004</v>
+        <v>21010003</v>
       </c>
       <c r="B565" t="s">
         <v>3</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A566">
-        <v>21010005</v>
+        <v>21010004</v>
       </c>
       <c r="B566" t="s">
         <v>3</v>
       </c>
       <c r="C566" s="7" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A567">
-        <v>21010006</v>
+        <v>21010005</v>
       </c>
       <c r="B567" t="s">
         <v>3</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A568">
-        <v>21010007</v>
+        <v>21010006</v>
       </c>
       <c r="B568" t="s">
         <v>3</v>
       </c>
       <c r="C568" s="7" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="569" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A569">
-        <v>21010008</v>
+        <v>21010007</v>
       </c>
       <c r="B569" t="s">
         <v>3</v>
       </c>
       <c r="C569" s="7" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A570">
-        <v>21010009</v>
+        <v>21010008</v>
       </c>
       <c r="B570" t="s">
         <v>3</v>
       </c>
       <c r="C570" s="7" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A571">
-        <v>21010010</v>
+        <v>21010009</v>
       </c>
       <c r="B571" t="s">
         <v>3</v>
       </c>
       <c r="C571" s="7" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A572">
-        <v>21010011</v>
+        <v>21010010</v>
       </c>
       <c r="B572" t="s">
         <v>3</v>
       </c>
       <c r="C572" s="7" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A573">
-        <v>21011000</v>
+        <v>21010011</v>
       </c>
       <c r="B573" t="s">
         <v>3</v>
       </c>
       <c r="C573" s="7" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A574">
-        <v>21012000</v>
+        <v>21011000</v>
       </c>
       <c r="B574" t="s">
         <v>3</v>
       </c>
       <c r="C574" s="7" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A575">
-        <v>21012001</v>
+        <v>21012000</v>
       </c>
       <c r="B575" t="s">
         <v>3</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A576">
-        <v>21012002</v>
+        <v>21012001</v>
       </c>
       <c r="B576" t="s">
         <v>3</v>
       </c>
       <c r="C576" s="7" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A577">
-        <v>21013000</v>
+        <v>21012002</v>
       </c>
       <c r="B577" t="s">
         <v>3</v>
       </c>
       <c r="C577" s="7" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>21013000</v>
+      </c>
+      <c r="B578" t="s">
+        <v>3</v>
+      </c>
+      <c r="C578" s="7" t="s">
         <v>2464</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A579">
         <v>22000000</v>
       </c>
-      <c r="B578" t="s">
-        <v>6</v>
-      </c>
-      <c r="C578" s="1" t="s">
+      <c r="B579" t="s">
+        <v>6</v>
+      </c>
+      <c r="C579" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A579">
-        <v>22001000</v>
-      </c>
-      <c r="B579" t="s">
-        <v>3</v>
-      </c>
-      <c r="C579" s="7" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A580">
-        <v>22002000</v>
+        <v>22001000</v>
       </c>
       <c r="B580" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C580" s="7" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="581" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A581">
-        <v>22003000</v>
+        <v>22002000</v>
       </c>
       <c r="B581" t="s">
         <v>6</v>
       </c>
       <c r="C581" s="7" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A582">
-        <v>22004000</v>
+        <v>22003000</v>
       </c>
       <c r="B582" t="s">
         <v>6</v>
       </c>
       <c r="C582" s="7" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A583">
-        <v>22005000</v>
+        <v>22004000</v>
       </c>
       <c r="B583" t="s">
         <v>6</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A584">
-        <v>22006000</v>
+        <v>22005000</v>
       </c>
       <c r="B584" t="s">
         <v>6</v>
       </c>
       <c r="C584" s="7" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A585">
-        <v>22006001</v>
+        <v>22006000</v>
       </c>
       <c r="B585" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C585" s="7" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A586">
-        <v>22007000</v>
+        <v>22006001</v>
       </c>
       <c r="B586" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C586" s="7" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A587">
-        <v>22008000</v>
+        <v>22007000</v>
       </c>
       <c r="B587" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C587" s="7" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A588">
-        <v>22009000</v>
+        <v>22008000</v>
       </c>
       <c r="B588" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C588" s="7" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A589">
-        <v>22010000</v>
+        <v>22009000</v>
       </c>
       <c r="B589" t="s">
         <v>6</v>
       </c>
       <c r="C589" s="7" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A590">
-        <v>22011000</v>
+        <v>22010000</v>
       </c>
       <c r="B590" t="s">
         <v>6</v>
       </c>
       <c r="C590" s="7" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A591">
-        <v>22012000</v>
+        <v>22011000</v>
       </c>
       <c r="B591" t="s">
         <v>6</v>
       </c>
       <c r="C591" s="7" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A592">
-        <v>22012001</v>
+        <v>22012000</v>
       </c>
       <c r="B592" t="s">
         <v>6</v>
       </c>
       <c r="C592" s="7" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A593">
-        <v>22012002</v>
+        <v>22012001</v>
       </c>
       <c r="B593" t="s">
         <v>6</v>
       </c>
       <c r="C593" s="7" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A594">
-        <v>22012003</v>
+        <v>22012002</v>
       </c>
       <c r="B594" t="s">
         <v>6</v>
       </c>
       <c r="C594" s="7" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A595">
-        <v>22012004</v>
+        <v>22012003</v>
       </c>
       <c r="B595" t="s">
         <v>6</v>
       </c>
       <c r="C595" s="7" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A596">
-        <v>22012005</v>
+        <v>22012004</v>
       </c>
       <c r="B596" t="s">
         <v>6</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A597">
-        <v>22012006</v>
+        <v>22012005</v>
       </c>
       <c r="B597" t="s">
         <v>6</v>
       </c>
       <c r="C597" s="7" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A598">
-        <v>22013000</v>
+        <v>22012006</v>
       </c>
       <c r="B598" t="s">
         <v>6</v>
       </c>
       <c r="C598" s="7" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A599">
-        <v>22014000</v>
+        <v>22013000</v>
       </c>
       <c r="B599" t="s">
         <v>6</v>
       </c>
       <c r="C599" s="7" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A600">
-        <v>22015000</v>
+        <v>22014000</v>
       </c>
       <c r="B600" t="s">
         <v>6</v>
       </c>
       <c r="C600" s="7" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A601">
-        <v>22016000</v>
+        <v>22015000</v>
       </c>
       <c r="B601" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C601" s="7" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A602">
-        <v>22017000</v>
+        <v>22016000</v>
       </c>
       <c r="B602" t="s">
         <v>3</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A603">
+        <v>22017000</v>
+      </c>
+      <c r="B603" t="s">
+        <v>3</v>
+      </c>
+      <c r="C603" s="7" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A604">
         <v>22018000</v>
       </c>
-      <c r="B603" t="s">
-        <v>6</v>
-      </c>
-      <c r="C603" s="7" t="s">
+      <c r="B604" t="s">
+        <v>6</v>
+      </c>
+      <c r="C604" s="7" t="s">
         <v>2489</v>
       </c>
     </row>

--- a/inspired_mcc_codes.xlsx
+++ b/inspired_mcc_codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpicornell/devel/inspired/mcc-codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F525B465-EB93-284F-8893-B84CCE9C44DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D31C19C-0E8A-B24A-98F0-C24540C9B7CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="540" windowWidth="27640" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Linked_fi_categories" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="prod_platform" localSheetId="0">MCC!$A$1:$C$987</definedName>
+    <definedName name="prod_platform" localSheetId="0">MCC!$A$1:$C$988</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4168" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4283" uniqueCount="2561">
   <si>
     <t>category_id</t>
   </si>
@@ -7559,6 +7559,171 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>3816</t>
+  </si>
+  <si>
+    <t>Home2 Suites by Hilton</t>
+  </si>
+  <si>
+    <t>Staybridge Suites</t>
+  </si>
+  <si>
+    <t>Claridge Casino Hotel</t>
+  </si>
+  <si>
+    <t>The Flamingo Hotels</t>
+  </si>
+  <si>
+    <t>Grand Casino Hotels</t>
+  </si>
+  <si>
+    <t>Paris Las Vegas Hotel</t>
+  </si>
+  <si>
+    <t>Peppermill Hotel Casino</t>
+  </si>
+  <si>
+    <t>Atlantic City Hilton</t>
+  </si>
+  <si>
+    <t>Embassy Vacation Resort</t>
+  </si>
+  <si>
+    <t>Hale Koa Hotel</t>
+  </si>
+  <si>
+    <t>Homestead</t>
+  </si>
+  <si>
+    <t>Wilderness Hotel and Golf Resort</t>
+  </si>
+  <si>
+    <t>The Palace Hotel</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>LXR </t>
+  </si>
+  <si>
+    <t>La Costa Resort</t>
+  </si>
+  <si>
+    <t>Premier Travel Inn</t>
+  </si>
+  <si>
+    <t>Holiday Inn Nickelodeon</t>
+  </si>
+  <si>
+    <t>Affinia</t>
+  </si>
+  <si>
+    <t>Mainstay Suites</t>
+  </si>
+  <si>
+    <t>Oxford Suites</t>
+  </si>
+  <si>
+    <t>Jumeirah Essex House</t>
+  </si>
+  <si>
+    <t>Caribe Royale</t>
+  </si>
+  <si>
+    <t>Crossland</t>
+  </si>
+  <si>
+    <t>Grand Sierra Resort</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>Vdara</t>
+  </si>
+  <si>
+    <t>Galt House</t>
+  </si>
+  <si>
+    <t>Cosmopolitan of Las Vegas</t>
+  </si>
+  <si>
+    <t>Country Inn by Carlson</t>
+  </si>
+  <si>
+    <t>Park Plaza Hotel</t>
+  </si>
+  <si>
+    <t>Waldorf</t>
+  </si>
+  <si>
+    <t>Telemarketing of Travel Related Services and Vitamins</t>
+  </si>
+  <si>
+    <t>Special Telecom Merchant</t>
+  </si>
+  <si>
+    <t>Remote Stored Value Load - Member Financial Institution</t>
+  </si>
+  <si>
+    <t>Remote Stored Value Load - Merchant</t>
+  </si>
+  <si>
+    <t>Payment Service Provider</t>
+  </si>
+  <si>
+    <t>Payment Transaction - Member</t>
+  </si>
+  <si>
+    <t>Payment Transaction - Merchant</t>
+  </si>
+  <si>
+    <t>Money Transfer - Member Financial Institution</t>
+  </si>
+  <si>
+    <t>Value Purchase - Member Financial Institution</t>
+  </si>
+  <si>
+    <t>Express Payment Service Mechants - Parking Lots and Garages</t>
+  </si>
+  <si>
+    <t>Citishare Cash Advance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government-Licensed Casinos (Online Gambling)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government-Licensed Horse/Dog Racing  </t>
+  </si>
+  <si>
+    <t>i-Purchasing</t>
+  </si>
+  <si>
+    <t>Automated Referral Service</t>
+  </si>
+  <si>
+    <t>Visa Credential Server</t>
+  </si>
+  <si>
+    <t>GCAS Emergency Services</t>
+  </si>
+  <si>
+    <t>U.K. Supermarkets, Electronic Hot File</t>
+  </si>
+  <si>
+    <t>U.K. Petrol Stations, Electronic Hot File</t>
+  </si>
+  <si>
+    <t>Consumer Electronics/Furniture Store</t>
+  </si>
+  <si>
+    <t>Quasi Cash - Gambling-Horse Racing, Dog Racing, State Lotteries</t>
+  </si>
+  <si>
+    <t>Intra-Company Purchases</t>
   </si>
 </sst>
 </file>
@@ -8424,13 +8589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E987"/>
+  <dimension ref="A1:E1044"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1019" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="D1037" sqref="D1037"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20988,11 +21153,11 @@
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A698" s="1" t="s">
-        <v>1891</v>
+      <c r="A698">
+        <v>3791</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>2499</v>
+        <v>2508</v>
       </c>
       <c r="C698" s="4" t="s">
         <v>674</v>
@@ -21006,11 +21171,11 @@
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A699" s="1" t="s">
-        <v>1889</v>
+      <c r="A699">
+        <v>3792</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>2497</v>
+        <v>2509</v>
       </c>
       <c r="C699" s="4" t="s">
         <v>674</v>
@@ -21024,11 +21189,11 @@
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A700" s="1" t="s">
-        <v>1890</v>
+      <c r="A700">
+        <v>3793</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>2498</v>
+        <v>2510</v>
       </c>
       <c r="C700" s="4" t="s">
         <v>674</v>
@@ -21042,14 +21207,14 @@
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A701" s="1" t="s">
-        <v>1896</v>
+      <c r="A701">
+        <v>3794</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>2500</v>
+        <v>2511</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>2500</v>
+        <v>674</v>
       </c>
       <c r="D701">
         <v>22012003</v>
@@ -21060,11 +21225,11 @@
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A702" s="1" t="s">
-        <v>1161</v>
+      <c r="A702">
+        <v>3795</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>2494</v>
+        <v>2512</v>
       </c>
       <c r="C702" s="4" t="s">
         <v>674</v>
@@ -21078,3044 +21243,3050 @@
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A703" s="1" t="s">
-        <v>1162</v>
+      <c r="A703">
+        <v>3796</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>1163</v>
+        <v>2513</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>1163</v>
+        <v>674</v>
       </c>
       <c r="D703">
-        <v>22015000</v>
+        <v>22012003</v>
       </c>
       <c r="E703" s="3" t="str">
         <f>VLOOKUP(D703,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Rail</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A704" s="1" t="s">
-        <v>1164</v>
+      <c r="A704">
+        <v>3797</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>1165</v>
+        <v>2514</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>1166</v>
+        <v>674</v>
       </c>
       <c r="D704">
-        <v>22014000</v>
+        <v>22012003</v>
       </c>
       <c r="E704" s="3" t="str">
         <f>VLOOKUP(D704,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Public Transportation Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A705" s="1" t="s">
-        <v>1167</v>
+      <c r="A705">
+        <v>3798</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>1168</v>
+        <v>2515</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>1168</v>
+        <v>674</v>
       </c>
       <c r="D705">
-        <v>22015000</v>
+        <v>22012003</v>
       </c>
       <c r="E705" s="3" t="str">
         <f>VLOOKUP(D705,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Rail</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A706" s="1" t="s">
-        <v>1169</v>
+      <c r="A706">
+        <v>3799</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>1170</v>
+        <v>2516</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>1170</v>
+        <v>674</v>
       </c>
       <c r="D706">
-        <v>14001011</v>
+        <v>22012003</v>
       </c>
       <c r="E706" s="3" t="str">
         <f>VLOOKUP(D706,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Emergency Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A707" s="1" t="s">
-        <v>1171</v>
+      <c r="A707">
+        <v>3800</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>1172</v>
+        <v>2517</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>1173</v>
+        <v>674</v>
       </c>
       <c r="D707">
-        <v>22016000</v>
+        <v>22012003</v>
       </c>
       <c r="E707" s="3" t="str">
         <f>VLOOKUP(D707,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Taxi</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A708" s="1" t="s">
-        <v>1174</v>
+      <c r="A708">
+        <v>3801</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>1175</v>
+        <v>2518</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>1176</v>
+        <v>674</v>
       </c>
       <c r="D708">
-        <v>22004000</v>
+        <v>22012003</v>
       </c>
       <c r="E708" s="3" t="str">
         <f>VLOOKUP(D708,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Bus Stations</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A709" s="1" t="s">
-        <v>1177</v>
+      <c r="A709">
+        <v>3802</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>1178</v>
+        <v>2519</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>1179</v>
+        <v>674</v>
       </c>
       <c r="D709">
-        <v>18066000</v>
+        <v>22012003</v>
       </c>
       <c r="E709" s="3" t="str">
         <f>VLOOKUP(D709,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Transportation</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A710" s="1" t="s">
-        <v>1180</v>
+      <c r="A710">
+        <v>3807</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>1181</v>
+        <v>2520</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>1182</v>
+        <v>674</v>
       </c>
       <c r="D710">
-        <v>18058000</v>
+        <v>22012003</v>
       </c>
       <c r="E710" s="3" t="str">
         <f>VLOOKUP(D710,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Shipping and Freight</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A711" s="1" t="s">
-        <v>1183</v>
+      <c r="A711">
+        <v>3808</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>1184</v>
+        <v>2521</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>1185</v>
+        <v>674</v>
       </c>
       <c r="D711">
-        <v>18060000</v>
+        <v>22012003</v>
       </c>
       <c r="E711" s="3" t="str">
         <f>VLOOKUP(D711,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Storage</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A712" s="1" t="s">
-        <v>1186</v>
+      <c r="A712">
+        <v>3810</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>1187</v>
+        <v>2522</v>
       </c>
       <c r="C712" s="4" t="s">
-        <v>1188</v>
+        <v>674</v>
       </c>
       <c r="D712">
-        <v>22008000</v>
+        <v>22012003</v>
       </c>
       <c r="E712" s="3" t="str">
         <f>VLOOKUP(D712,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Cruises</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A713" s="1" t="s">
-        <v>1189</v>
+      <c r="A713">
+        <v>3811</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>1190</v>
+        <v>2523</v>
       </c>
       <c r="C713" s="4" t="s">
-        <v>1190</v>
+        <v>674</v>
       </c>
       <c r="D713">
-        <v>17006000</v>
+        <v>22012003</v>
       </c>
       <c r="E713" s="3" t="str">
         <f>VLOOKUP(D713,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Boating</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>1191</v>
+        <v>1891</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>1192</v>
+        <v>2499</v>
       </c>
       <c r="C714" s="4" t="s">
-        <v>1193</v>
+        <v>674</v>
       </c>
       <c r="D714">
-        <v>17006000</v>
+        <v>22012003</v>
       </c>
       <c r="E714" s="3" t="str">
         <f>VLOOKUP(D714,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Boating</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>1194</v>
+        <v>1889</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>1195</v>
+        <v>2497</v>
       </c>
       <c r="C715" s="4" t="s">
-        <v>1196</v>
+        <v>674</v>
       </c>
       <c r="D715">
-        <v>22001000</v>
+        <v>22012003</v>
       </c>
       <c r="E715" s="3" t="str">
         <f>VLOOKUP(D715,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Airlines and Aviation Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>1197</v>
+        <v>1890</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>1198</v>
+        <v>2498</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>1199</v>
+        <v>674</v>
       </c>
       <c r="D716">
-        <v>22002000</v>
+        <v>22012003</v>
       </c>
       <c r="E716" s="3" t="str">
         <f>VLOOKUP(D716,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Airports</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A717" s="1" t="s">
-        <v>1200</v>
+      <c r="A717">
+        <v>3815</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>1201</v>
+        <v>2524</v>
       </c>
       <c r="C717" s="4" t="s">
-        <v>1202</v>
+        <v>674</v>
       </c>
       <c r="D717">
-        <v>18067000</v>
+        <v>22012003</v>
       </c>
       <c r="E717" s="3" t="str">
         <f>VLOOKUP(D717,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Travel Agents and Tour Operators</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>1203</v>
+        <v>2506</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>1204</v>
+        <v>2507</v>
       </c>
       <c r="C718" s="4" t="s">
-        <v>1205</v>
+        <v>674</v>
       </c>
       <c r="D718">
-        <v>18067000</v>
+        <v>22012003</v>
       </c>
       <c r="E718" s="3" t="str">
         <f>VLOOKUP(D718,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Travel Agents and Tour Operators</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A719" s="1" t="s">
-        <v>1206</v>
+      <c r="A719">
+        <v>3817</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>1207</v>
+        <v>2525</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>1208</v>
+        <v>674</v>
       </c>
       <c r="D719">
-        <v>22017000</v>
+        <v>22012003</v>
       </c>
       <c r="E719" s="3" t="str">
         <f>VLOOKUP(D719,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Tolls and Fees</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A720" s="1" t="s">
-        <v>1209</v>
+      <c r="A720">
+        <v>3818</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>1210</v>
+        <v>2526</v>
       </c>
       <c r="C720" s="4" t="s">
-        <v>1211</v>
+        <v>674</v>
       </c>
       <c r="D720">
-        <v>22014000</v>
+        <v>22012003</v>
       </c>
       <c r="E720" s="3" t="str">
         <f>VLOOKUP(D720,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Public Transportation Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A721" s="1" t="s">
-        <v>1212</v>
+      <c r="A721">
+        <v>3819</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>1213</v>
+        <v>2527</v>
       </c>
       <c r="C721" s="4" t="s">
-        <v>1214</v>
+        <v>674</v>
       </c>
       <c r="D721">
-        <v>18063000</v>
+        <v>22012003</v>
       </c>
       <c r="E721" s="3" t="str">
         <f>VLOOKUP(D721,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Telecommunication Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A722" s="1" t="s">
-        <v>1215</v>
+      <c r="A722">
+        <v>3820</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>1216</v>
+        <v>2528</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>1217</v>
+        <v>674</v>
       </c>
       <c r="D722">
-        <v>18063000</v>
+        <v>22012003</v>
       </c>
       <c r="E722" s="3" t="str">
         <f>VLOOKUP(D722,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Telecommunication Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A723" s="1" t="s">
-        <v>1218</v>
+      <c r="A723">
+        <v>3821</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>1219</v>
+        <v>2529</v>
+      </c>
+      <c r="C723" s="4" t="s">
+        <v>674</v>
       </c>
       <c r="D723">
-        <v>18063000</v>
+        <v>22012003</v>
       </c>
       <c r="E723" s="3" t="str">
         <f>VLOOKUP(D723,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Telecommunication Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A724" s="1" t="s">
-        <v>1220</v>
+      <c r="A724">
+        <v>3822</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>1221</v>
+        <v>2530</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>1221</v>
+        <v>674</v>
       </c>
       <c r="D724">
-        <v>18012000</v>
+        <v>22012003</v>
       </c>
       <c r="E724" s="3" t="str">
         <f>VLOOKUP(D724,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Computers</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A725" s="1" t="s">
-        <v>1222</v>
+      <c r="A725">
+        <v>3823</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>1223</v>
+        <v>2531</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>1224</v>
+        <v>674</v>
       </c>
       <c r="D725">
-        <v>18063000</v>
+        <v>22012003</v>
       </c>
       <c r="E725" s="3" t="str">
         <f>VLOOKUP(D725,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Telecommunication Services</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A726" s="1" t="s">
-        <v>1225</v>
+      <c r="A726">
+        <v>3824</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>1226</v>
+        <v>2532</v>
       </c>
       <c r="C726" s="4" t="s">
-        <v>1227</v>
+        <v>674</v>
       </c>
       <c r="D726">
-        <v>21011000</v>
+        <v>22012003</v>
       </c>
       <c r="E726" s="3" t="str">
         <f>VLOOKUP(D726,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Transfer: Wire</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A727" s="1" t="s">
-        <v>1228</v>
+      <c r="A727">
+        <v>3825</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>1229</v>
+        <v>2533</v>
       </c>
       <c r="C727" s="4" t="s">
-        <v>1230</v>
+        <v>674</v>
       </c>
       <c r="D727">
-        <v>18009000</v>
+        <v>22012003</v>
       </c>
       <c r="E727" s="3" t="str">
         <f>VLOOKUP(D727,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Cable</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>1231</v>
+        <v>1896</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>1232</v>
+        <v>2500</v>
       </c>
       <c r="C728" s="4" t="s">
-        <v>1233</v>
+        <v>2500</v>
       </c>
       <c r="D728">
-        <v>18068000</v>
+        <v>22012003</v>
       </c>
       <c r="E728" s="3" t="str">
         <f>VLOOKUP(D728,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Utilities</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A729" s="1" t="s">
-        <v>1234</v>
+      <c r="A729">
+        <v>3827</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>1235</v>
+        <v>2534</v>
       </c>
       <c r="C729" s="4" t="s">
-        <v>1236</v>
+        <v>674</v>
       </c>
       <c r="D729">
-        <v>19005006</v>
+        <v>22012003</v>
       </c>
       <c r="E729" s="3" t="str">
         <f>VLOOKUP(D729,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Car Parts and Accessories</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A730" s="1" t="s">
-        <v>1237</v>
+      <c r="A730">
+        <v>3828</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>1238</v>
+        <v>2535</v>
       </c>
       <c r="C730" s="4" t="s">
-        <v>1238</v>
+        <v>674</v>
       </c>
       <c r="D730">
-        <v>19027000</v>
+        <v>22012003</v>
       </c>
       <c r="E730" s="3" t="str">
         <f>VLOOKUP(D730,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Furniture and Home Decor</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A731" s="1" t="s">
-        <v>1239</v>
+      <c r="A731">
+        <v>3829</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>1240</v>
+        <v>2536</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>1241</v>
+        <v>674</v>
       </c>
       <c r="D731">
-        <v>19014000</v>
+        <v>22012003</v>
       </c>
       <c r="E731" s="3" t="str">
         <f>VLOOKUP(D731,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Construction Supplies</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A732" s="1" t="s">
-        <v>1242</v>
+      <c r="A732">
+        <v>3830</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>1243</v>
+        <v>2537</v>
       </c>
       <c r="C732" s="4" t="s">
-        <v>1244</v>
+        <v>674</v>
       </c>
       <c r="D732">
-        <v>18037003</v>
+        <v>22012003</v>
       </c>
       <c r="E732" s="3" t="str">
         <f>VLOOKUP(D732,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Computers and Office Machines</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A733" s="1" t="s">
-        <v>1245</v>
+      <c r="A733">
+        <v>3831</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>1246</v>
+        <v>2538</v>
       </c>
       <c r="C733" s="4" t="s">
-        <v>1247</v>
+        <v>674</v>
       </c>
       <c r="D733">
-        <v>18037003</v>
+        <v>22012003</v>
       </c>
       <c r="E733" s="3" t="str">
         <f>VLOOKUP(D733,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Computers and Office Machines</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>1248</v>
+        <v>1161</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>1249</v>
+        <v>2494</v>
       </c>
       <c r="C734" s="4" t="s">
-        <v>1250</v>
+        <v>674</v>
       </c>
       <c r="D734">
-        <v>18037003</v>
+        <v>22012003</v>
       </c>
       <c r="E734" s="3" t="str">
         <f>VLOOKUP(D734,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Computers and Office Machines</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>1251</v>
+        <v>1162</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>1252</v>
+        <v>1163</v>
       </c>
       <c r="C735" s="4" t="s">
-        <v>1253</v>
+        <v>1163</v>
       </c>
       <c r="D735">
-        <v>14001009</v>
+        <v>22015000</v>
       </c>
       <c r="E735" s="3" t="str">
         <f>VLOOKUP(D735,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Medical Supplies and Labs</v>
+        <v>Travel: Rail</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>1254</v>
+        <v>1164</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>1255</v>
+        <v>1165</v>
       </c>
       <c r="C736" s="4" t="s">
-        <v>1256</v>
+        <v>1166</v>
       </c>
       <c r="D736">
-        <v>18037010</v>
+        <v>22014000</v>
       </c>
       <c r="E736" s="3" t="str">
         <f>VLOOKUP(D736,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Metal Products</v>
+        <v>Travel: Public Transportation Services</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>1257</v>
+        <v>1167</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>1258</v>
+        <v>1168</v>
       </c>
       <c r="C737" s="4" t="s">
-        <v>1258</v>
+        <v>1168</v>
       </c>
       <c r="D737">
-        <v>18037004</v>
+        <v>22015000</v>
       </c>
       <c r="E737" s="3" t="str">
         <f>VLOOKUP(D737,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Electrical Equipment and Components</v>
+        <v>Travel: Rail</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>1259</v>
+        <v>1169</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="C738" s="4" t="s">
-        <v>1261</v>
+        <v>1170</v>
       </c>
       <c r="D738">
-        <v>18024020</v>
+        <v>14001011</v>
       </c>
       <c r="E738" s="3" t="str">
         <f>VLOOKUP(D738,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Hardware and Services</v>
+        <v>Healthcare: Healthcare Services: Emergency Services</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>1262</v>
+        <v>1171</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>1263</v>
+        <v>1172</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>1264</v>
+        <v>1173</v>
       </c>
       <c r="D739">
-        <v>18024007</v>
+        <v>22016000</v>
       </c>
       <c r="E739" s="3" t="str">
         <f>VLOOKUP(D739,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Plumbing</v>
+        <v>Travel: Taxi</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>1265</v>
+        <v>1174</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>1266</v>
+        <v>1175</v>
       </c>
       <c r="C740" s="4" t="s">
-        <v>1267</v>
+        <v>1176</v>
       </c>
       <c r="D740">
-        <v>19032000</v>
+        <v>22004000</v>
       </c>
       <c r="E740" s="3" t="str">
         <f>VLOOKUP(D740,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Industrial Supplies</v>
+        <v>Travel: Bus Stations</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>1268</v>
+        <v>1177</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>1269</v>
+        <v>1178</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>1269</v>
+        <v>1179</v>
       </c>
       <c r="D741">
-        <v>19033000</v>
+        <v>18066000</v>
       </c>
       <c r="E741" s="3" t="str">
         <f>VLOOKUP(D741,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Jewelry and Watches</v>
+        <v>Service: Transportation</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>1270</v>
+        <v>1180</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>1271</v>
+        <v>1181</v>
       </c>
       <c r="C742" s="4" t="s">
-        <v>1272</v>
+        <v>1182</v>
       </c>
       <c r="D742">
-        <v>18037000</v>
+        <v>18058000</v>
       </c>
       <c r="E742" s="3" t="str">
         <f>VLOOKUP(D742,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing</v>
+        <v>Service: Shipping and Freight</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>1273</v>
+        <v>1183</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>1274</v>
+        <v>1184</v>
       </c>
       <c r="C743" s="4" t="s">
-        <v>1275</v>
+        <v>1185</v>
       </c>
       <c r="D743">
-        <v>19010000</v>
+        <v>18060000</v>
       </c>
       <c r="E743" s="3" t="str">
         <f>VLOOKUP(D743,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Cards and Stationery</v>
+        <v>Service: Storage</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>1276</v>
+        <v>1186</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>1277</v>
+        <v>1187</v>
       </c>
       <c r="C744" s="4" t="s">
-        <v>1278</v>
+        <v>1188</v>
       </c>
       <c r="D744">
-        <v>19043000</v>
+        <v>22008000</v>
       </c>
       <c r="E744" s="3" t="str">
         <f>VLOOKUP(D744,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Pharmacies</v>
+        <v>Travel: Cruises</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>1279</v>
+        <v>1189</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>1280</v>
+        <v>1190</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>1280</v>
+        <v>1190</v>
       </c>
       <c r="D745">
-        <v>18037000</v>
+        <v>17006000</v>
       </c>
       <c r="E745" s="3" t="str">
         <f>VLOOKUP(D745,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing</v>
+        <v>Recreation: Boating</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>1281</v>
+        <v>1191</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>1282</v>
+        <v>1192</v>
       </c>
       <c r="C746" s="4" t="s">
-        <v>1283</v>
+        <v>1193</v>
       </c>
       <c r="D746">
-        <v>19012000</v>
+        <v>17006000</v>
       </c>
       <c r="E746" s="3" t="str">
         <f>VLOOKUP(D746,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories</v>
+        <v>Recreation: Boating</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>1284</v>
+        <v>1194</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>1285</v>
+        <v>1195</v>
       </c>
       <c r="C747" s="4" t="s">
-        <v>1285</v>
+        <v>1196</v>
       </c>
       <c r="D747">
-        <v>19012003</v>
+        <v>22001000</v>
       </c>
       <c r="E747" s="3" t="str">
         <f>VLOOKUP(D747,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories: Shoe Store</v>
+        <v>Travel: Airlines and Aviation Services</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>1286</v>
+        <v>1197</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>1287</v>
+        <v>1198</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>1288</v>
+        <v>1199</v>
       </c>
       <c r="D748">
-        <v>18037002</v>
+        <v>22002000</v>
       </c>
       <c r="E748" s="3" t="str">
         <f>VLOOKUP(D748,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Chemicals and Gasses</v>
+        <v>Travel: Airports</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>1289</v>
+        <v>1200</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>1290</v>
+        <v>1201</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>1290</v>
+        <v>1202</v>
       </c>
       <c r="D749">
-        <v>18037013</v>
+        <v>18067000</v>
       </c>
       <c r="E749" s="3" t="str">
         <f>VLOOKUP(D749,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Petroleum</v>
+        <v>Service: Travel Agents and Tour Operators</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>1291</v>
+        <v>1203</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>1292</v>
+        <v>1204</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>1292</v>
+        <v>1205</v>
       </c>
       <c r="D750">
-        <v>19038000</v>
+        <v>18067000</v>
       </c>
       <c r="E750" s="3" t="str">
         <f>VLOOKUP(D750,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Newsstands</v>
+        <v>Service: Travel Agents and Tour Operators</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A751" s="1" t="s">
-        <v>1293</v>
+      <c r="A751">
+        <v>4761</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>1294</v>
+        <v>2539</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>1295</v>
+        <v>2539</v>
       </c>
       <c r="D751">
-        <v>19024000</v>
+        <v>18067000</v>
       </c>
       <c r="E751" s="3" t="str">
         <f>VLOOKUP(D751,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Florists</v>
+        <v>Service: Travel Agents and Tour Operators</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>1296</v>
+        <v>1206</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>1297</v>
+        <v>1207</v>
       </c>
       <c r="C752" s="4" t="s">
-        <v>1297</v>
+        <v>1208</v>
       </c>
       <c r="D752">
-        <v>18013003</v>
+        <v>22017000</v>
       </c>
       <c r="E752" s="3" t="str">
         <f>VLOOKUP(D752,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Construction: Painting</v>
+        <v>Travel: Tolls and Fees</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>1298</v>
+        <v>1209</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>1299</v>
+        <v>1210</v>
       </c>
       <c r="C753" s="4" t="s">
-        <v>1300</v>
+        <v>1211</v>
       </c>
       <c r="D753">
-        <v>18037000</v>
+        <v>22014000</v>
       </c>
       <c r="E753" s="3" t="str">
         <f>VLOOKUP(D753,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing</v>
+        <v>Travel: Public Transportation Services</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
-        <v>1301</v>
+        <v>1212</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>1302</v>
+        <v>1213</v>
       </c>
       <c r="C754" s="4" t="s">
-        <v>1302</v>
+        <v>1214</v>
       </c>
       <c r="D754">
-        <v>19030000</v>
+        <v>18063000</v>
       </c>
       <c r="E754" s="3" t="str">
         <f>VLOOKUP(D754,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Hardware Store</v>
+        <v>Service: Telecommunication Services</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A755" s="1" t="s">
-        <v>1303</v>
+      <c r="A755">
+        <v>4813</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>1304</v>
+        <v>2540</v>
       </c>
       <c r="C755" s="4" t="s">
-        <v>1305</v>
+        <v>2540</v>
       </c>
       <c r="D755">
-        <v>18024020</v>
+        <v>18063000</v>
       </c>
       <c r="E755" s="3" t="str">
         <f>VLOOKUP(D755,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Hardware and Services</v>
+        <v>Service: Telecommunication Services</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
-        <v>1306</v>
+        <v>1215</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>1307</v>
+        <v>1216</v>
       </c>
       <c r="C756" s="4" t="s">
-        <v>1307</v>
+        <v>1217</v>
       </c>
       <c r="D756">
-        <v>18024009</v>
+        <v>18063000</v>
       </c>
       <c r="E756" s="3" t="str">
         <f>VLOOKUP(D756,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Painting</v>
+        <v>Service: Telecommunication Services</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
-        <v>1308</v>
+        <v>1218</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C757" s="4" t="s">
-        <v>1309</v>
+        <v>1219</v>
       </c>
       <c r="D757">
-        <v>19030000</v>
+        <v>18063000</v>
       </c>
       <c r="E757" s="3" t="str">
         <f>VLOOKUP(D757,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Hardware Store</v>
+        <v>Service: Telecommunication Services</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>1311</v>
+        <v>1221</v>
       </c>
       <c r="C758" s="4" t="s">
-        <v>1312</v>
+        <v>1221</v>
       </c>
       <c r="D758">
-        <v>18024013</v>
+        <v>18012000</v>
       </c>
       <c r="E758" s="3" t="str">
         <f>VLOOKUP(D758,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Landscaping and Gardeners</v>
+        <v>Service: Computers</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
-        <v>1313</v>
+        <v>1222</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>1314</v>
+        <v>1223</v>
       </c>
       <c r="C759" s="4" t="s">
-        <v>1314</v>
+        <v>1224</v>
       </c>
       <c r="D759">
-        <v>18024011</v>
+        <v>18063000</v>
       </c>
       <c r="E759" s="3" t="str">
         <f>VLOOKUP(D759,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Mobile Homes</v>
+        <v>Service: Telecommunication Services</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
-        <v>1315</v>
+        <v>1225</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>1316</v>
+        <v>1226</v>
       </c>
       <c r="C760" s="4" t="s">
-        <v>1316</v>
+        <v>1227</v>
       </c>
       <c r="D760">
-        <v>19051000</v>
+        <v>21011000</v>
       </c>
       <c r="E760" s="3" t="str">
         <f>VLOOKUP(D760,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Warehouses and Wholesale Stores</v>
+        <v>Transfer: Wire</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
-        <v>1317</v>
+        <v>1228</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>1318</v>
+        <v>1229</v>
       </c>
       <c r="C761" s="4" t="s">
-        <v>1319</v>
+        <v>1230</v>
       </c>
       <c r="D761">
-        <v>19020000</v>
+        <v>18009000</v>
       </c>
       <c r="E761" s="3" t="str">
         <f>VLOOKUP(D761,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Discount Stores</v>
+        <v>Service: Cable</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
-        <v>1320</v>
+        <v>1231</v>
       </c>
       <c r="B762" s="4" t="s">
-        <v>1321</v>
+        <v>1232</v>
       </c>
       <c r="C762" s="4" t="s">
-        <v>1321</v>
+        <v>1233</v>
       </c>
       <c r="D762">
-        <v>19020000</v>
+        <v>18068000</v>
       </c>
       <c r="E762" s="3" t="str">
         <f>VLOOKUP(D762,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Discount Stores</v>
+        <v>Service: Utilities</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>1322</v>
+        <v>1234</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>1323</v>
+        <v>1235</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>1323</v>
+        <v>1236</v>
       </c>
       <c r="D763">
-        <v>19018000</v>
+        <v>19005006</v>
       </c>
       <c r="E763" s="3" t="str">
         <f>VLOOKUP(D763,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Department Stores</v>
+        <v>Shops: Automotive: Car Parts and Accessories</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
-        <v>1324</v>
+        <v>1237</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>1325</v>
+        <v>1238</v>
       </c>
       <c r="C764" s="4" t="s">
-        <v>1325</v>
+        <v>1238</v>
       </c>
       <c r="D764">
-        <v>19015000</v>
+        <v>19027000</v>
       </c>
       <c r="E764" s="3" t="str">
         <f>VLOOKUP(D764,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Convenience Stores</v>
+        <v>Shops: Furniture and Home Decor</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
-        <v>1326</v>
+        <v>1239</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>1327</v>
+        <v>1240</v>
       </c>
       <c r="C765" s="4" t="s">
-        <v>1328</v>
+        <v>1241</v>
       </c>
       <c r="D765">
-        <v>19015000</v>
+        <v>19014000</v>
       </c>
       <c r="E765" s="3" t="str">
         <f>VLOOKUP(D765,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Convenience Stores</v>
+        <v>Shops: Construction Supplies</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1329</v>
+        <v>1242</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>1330</v>
+        <v>1243</v>
       </c>
       <c r="C766" s="4" t="s">
-        <v>1330</v>
+        <v>1244</v>
       </c>
       <c r="D766">
-        <v>19047000</v>
+        <v>18037003</v>
       </c>
       <c r="E766" s="3" t="str">
         <f>VLOOKUP(D766,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Supermarkets and Groceries</v>
+        <v>Service: Manufacturing: Computers and Office Machines</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
-        <v>1331</v>
+        <v>1245</v>
       </c>
       <c r="B767" s="4" t="s">
-        <v>1332</v>
+        <v>1246</v>
       </c>
       <c r="C767" s="4" t="s">
-        <v>1333</v>
+        <v>1247</v>
       </c>
       <c r="D767">
-        <v>19025001</v>
+        <v>18037003</v>
       </c>
       <c r="E767" s="3" t="str">
         <f>VLOOKUP(D767,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Food and Beverage Store: Specialty</v>
+        <v>Service: Manufacturing: Computers and Office Machines</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>1334</v>
+        <v>1248</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>1335</v>
+        <v>1249</v>
       </c>
       <c r="C768" s="4" t="s">
-        <v>1335</v>
+        <v>1250</v>
       </c>
       <c r="D768">
-        <v>19025001</v>
+        <v>18037003</v>
       </c>
       <c r="E768" s="3" t="str">
         <f>VLOOKUP(D768,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Food and Beverage Store: Specialty</v>
+        <v>Service: Manufacturing: Computers and Office Machines</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>1336</v>
+        <v>1251</v>
       </c>
       <c r="B769" s="4" t="s">
-        <v>1337</v>
+        <v>1252</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>1337</v>
+        <v>1253</v>
       </c>
       <c r="D769">
-        <v>19025001</v>
+        <v>14001009</v>
       </c>
       <c r="E769" s="3" t="str">
         <f>VLOOKUP(D769,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Food and Beverage Store: Specialty</v>
+        <v>Healthcare: Healthcare Services: Medical Supplies and Labs</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
-        <v>1338</v>
+        <v>1254</v>
       </c>
       <c r="B770" s="4" t="s">
-        <v>1339</v>
+        <v>1255</v>
       </c>
       <c r="C770" s="4" t="s">
-        <v>1339</v>
+        <v>1256</v>
       </c>
       <c r="D770">
-        <v>19025001</v>
+        <v>18037010</v>
       </c>
       <c r="E770" s="3" t="str">
         <f>VLOOKUP(D770,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Food and Beverage Store: Specialty</v>
+        <v>Service: Manufacturing: Metal Products</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
-        <v>1340</v>
+        <v>1257</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>1341</v>
+        <v>1258</v>
       </c>
       <c r="C771" s="4" t="s">
-        <v>1342</v>
+        <v>1258</v>
       </c>
       <c r="D771">
-        <v>19015000</v>
+        <v>18037004</v>
       </c>
       <c r="E771" s="3" t="str">
         <f>VLOOKUP(D771,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Convenience Stores</v>
+        <v>Service: Manufacturing: Electrical Equipment and Components</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
-        <v>1343</v>
+        <v>1259</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>1344</v>
+        <v>1260</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>1345</v>
+        <v>1261</v>
       </c>
       <c r="D772">
-        <v>19005007</v>
+        <v>18024020</v>
       </c>
       <c r="E772" s="3" t="str">
         <f>VLOOKUP(D772,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Car Dealers and Leasing</v>
+        <v>Service: Home Improvement: Hardware and Services</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
-        <v>1346</v>
+        <v>1262</v>
       </c>
       <c r="B773" s="4" t="s">
-        <v>1347</v>
+        <v>1263</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>1348</v>
+        <v>1264</v>
       </c>
       <c r="D773">
-        <v>19005001</v>
+        <v>18024007</v>
       </c>
       <c r="E773" s="3" t="str">
         <f>VLOOKUP(D773,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Used Car Dealers</v>
+        <v>Service: Home Improvement: Plumbing</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
-        <v>1349</v>
+        <v>1265</v>
       </c>
       <c r="B774" s="4" t="s">
-        <v>1350</v>
+        <v>1266</v>
       </c>
       <c r="C774" s="4" t="s">
-        <v>1351</v>
+        <v>1267</v>
       </c>
       <c r="D774">
-        <v>19005006</v>
+        <v>19032000</v>
       </c>
       <c r="E774" s="3" t="str">
         <f>VLOOKUP(D774,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Car Parts and Accessories</v>
+        <v>Shops: Industrial Supplies</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>1352</v>
+        <v>1268</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>1353</v>
+        <v>1269</v>
       </c>
       <c r="C775" s="4" t="s">
-        <v>1353</v>
+        <v>1269</v>
       </c>
       <c r="D775">
-        <v>18006007</v>
+        <v>19033000</v>
       </c>
       <c r="E775" s="3" t="str">
         <f>VLOOKUP(D775,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Auto Tires</v>
+        <v>Shops: Jewelry and Watches</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>1354</v>
+        <v>1270</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>1355</v>
+        <v>1271</v>
       </c>
       <c r="C776" s="4" t="s">
-        <v>1356</v>
+        <v>1272</v>
       </c>
       <c r="D776">
-        <v>19005006</v>
+        <v>18037000</v>
       </c>
       <c r="E776" s="3" t="str">
         <f>VLOOKUP(D776,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Car Parts and Accessories</v>
+        <v>Service: Manufacturing</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
-        <v>1357</v>
+        <v>1273</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>1358</v>
+        <v>1274</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>1359</v>
+        <v>1275</v>
       </c>
       <c r="D777">
-        <v>22009000</v>
+        <v>19010000</v>
       </c>
       <c r="E777" s="3" t="str">
         <f>VLOOKUP(D777,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Gas Stations</v>
+        <v>Shops: Cards and Stationery</v>
       </c>
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>1360</v>
+        <v>1276</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>1361</v>
+        <v>1277</v>
       </c>
       <c r="C778" s="4" t="s">
-        <v>1361</v>
+        <v>1278</v>
       </c>
       <c r="D778">
-        <v>22009000</v>
+        <v>19043000</v>
       </c>
       <c r="E778" s="3" t="str">
         <f>VLOOKUP(D778,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Gas Stations</v>
+        <v>Shops: Pharmacies</v>
       </c>
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>1362</v>
+        <v>1279</v>
       </c>
       <c r="B779" s="4" t="s">
-        <v>1363</v>
+        <v>1280</v>
       </c>
       <c r="C779" s="4" t="s">
-        <v>1363</v>
+        <v>1280</v>
       </c>
       <c r="D779">
-        <v>19008000</v>
+        <v>18037000</v>
       </c>
       <c r="E779" s="3" t="str">
         <f>VLOOKUP(D779,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Boat Dealers</v>
+        <v>Service: Manufacturing</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
-        <v>1364</v>
+        <v>1281</v>
       </c>
       <c r="B780" s="4" t="s">
-        <v>1365</v>
+        <v>1282</v>
       </c>
       <c r="C780" s="4" t="s">
-        <v>1366</v>
+        <v>1283</v>
       </c>
       <c r="D780">
-        <v>19005004</v>
+        <v>19012000</v>
       </c>
       <c r="E780" s="3" t="str">
         <f>VLOOKUP(D780,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Motorcycles, Mopeds and Scooters</v>
+        <v>Shops: Clothing and Accessories</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
-        <v>1367</v>
+        <v>1284</v>
       </c>
       <c r="B781" s="4" t="s">
-        <v>1368</v>
+        <v>1285</v>
       </c>
       <c r="C781" s="4" t="s">
-        <v>1369</v>
+        <v>1285</v>
       </c>
       <c r="D781">
-        <v>19005004</v>
+        <v>19012003</v>
       </c>
       <c r="E781" s="3" t="str">
         <f>VLOOKUP(D781,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Motorcycles, Mopeds and Scooters</v>
+        <v>Shops: Clothing and Accessories: Shoe Store</v>
       </c>
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
-        <v>1370</v>
+        <v>1286</v>
       </c>
       <c r="B782" s="4" t="s">
-        <v>1371</v>
+        <v>1287</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>1372</v>
+        <v>1288</v>
       </c>
       <c r="D782">
-        <v>19005003</v>
+        <v>18037002</v>
       </c>
       <c r="E782" s="3" t="str">
         <f>VLOOKUP(D782,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: RVs and Motor Homes</v>
+        <v>Service: Manufacturing: Chemicals and Gasses</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
-        <v>1373</v>
+        <v>1289</v>
       </c>
       <c r="B783" s="4" t="s">
-        <v>1374</v>
+        <v>1290</v>
       </c>
       <c r="C783" s="4" t="s">
-        <v>1374</v>
+        <v>1290</v>
       </c>
       <c r="D783">
-        <v>17039000</v>
+        <v>18037013</v>
       </c>
       <c r="E783" s="3" t="str">
         <f>VLOOKUP(D783,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Snow Sports</v>
+        <v>Service: Manufacturing: Petroleum</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
-        <v>1375</v>
+        <v>1291</v>
       </c>
       <c r="B784" s="4" t="s">
-        <v>1376</v>
+        <v>1292</v>
       </c>
       <c r="C784" s="4" t="s">
-        <v>1376</v>
+        <v>1292</v>
       </c>
       <c r="D784">
-        <v>19005007</v>
+        <v>19038000</v>
       </c>
       <c r="E784" s="3" t="str">
         <f>VLOOKUP(D784,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Car Dealers and Leasing</v>
+        <v>Shops: Newsstands</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
-        <v>1377</v>
+        <v>1293</v>
       </c>
       <c r="B785" s="4" t="s">
-        <v>1378</v>
+        <v>1294</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>1378</v>
+        <v>1295</v>
       </c>
       <c r="D785">
-        <v>19012004</v>
+        <v>19024000</v>
       </c>
       <c r="E785" s="3" t="str">
         <f>VLOOKUP(D785,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories: Men's Store</v>
+        <v>Shops: Florists</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
-        <v>1379</v>
+        <v>1296</v>
       </c>
       <c r="B786" s="4" t="s">
-        <v>1380</v>
+        <v>1297</v>
       </c>
       <c r="C786" s="4" t="s">
-        <v>1381</v>
+        <v>1297</v>
       </c>
       <c r="D786">
-        <v>19012001</v>
+        <v>18013003</v>
       </c>
       <c r="E786" s="3" t="str">
         <f>VLOOKUP(D786,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories: Women's Store</v>
+        <v>Service: Construction: Painting</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
-        <v>1382</v>
+        <v>1298</v>
       </c>
       <c r="B787" s="4" t="s">
-        <v>1383</v>
+        <v>1299</v>
       </c>
       <c r="C787" s="4" t="s">
-        <v>1383</v>
+        <v>1300</v>
       </c>
       <c r="D787">
-        <v>19012008</v>
+        <v>18037000</v>
       </c>
       <c r="E787" s="3" t="str">
         <f>VLOOKUP(D787,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories: Accessories Store</v>
+        <v>Service: Manufacturing</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A788" s="1" t="s">
-        <v>1384</v>
+        <v>1301</v>
       </c>
       <c r="B788" s="4" t="s">
-        <v>1385</v>
+        <v>1302</v>
       </c>
       <c r="C788" s="4" t="s">
-        <v>1385</v>
+        <v>1302</v>
       </c>
       <c r="D788">
-        <v>19012006</v>
+        <v>19030000</v>
       </c>
       <c r="E788" s="3" t="str">
         <f>VLOOKUP(D788,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories: Kids' Store</v>
+        <v>Shops: Hardware Store</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
-        <v>1386</v>
+        <v>1303</v>
       </c>
       <c r="B789" s="4" t="s">
-        <v>1387</v>
+        <v>1304</v>
       </c>
       <c r="C789" s="4" t="s">
-        <v>1387</v>
+        <v>1305</v>
       </c>
       <c r="D789">
-        <v>19012000</v>
+        <v>18024020</v>
       </c>
       <c r="E789" s="3" t="str">
         <f>VLOOKUP(D789,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories</v>
+        <v>Service: Home Improvement: Hardware and Services</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
-        <v>1388</v>
+        <v>1306</v>
       </c>
       <c r="B790" s="4" t="s">
-        <v>1389</v>
+        <v>1307</v>
       </c>
       <c r="C790" s="4" t="s">
-        <v>1390</v>
+        <v>1307</v>
       </c>
       <c r="D790">
-        <v>19046000</v>
+        <v>18024009</v>
       </c>
       <c r="E790" s="3" t="str">
         <f>VLOOKUP(D790,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Sporting Goods</v>
+        <v>Service: Home Improvement: Painting</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
-        <v>1391</v>
+        <v>1308</v>
       </c>
       <c r="B791" s="4" t="s">
-        <v>1392</v>
+        <v>1309</v>
       </c>
       <c r="C791" s="4" t="s">
-        <v>1392</v>
+        <v>1309</v>
       </c>
       <c r="D791">
-        <v>19012003</v>
+        <v>19030000</v>
       </c>
       <c r="E791" s="3" t="str">
         <f>VLOOKUP(D791,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories: Shoe Store</v>
+        <v>Shops: Hardware Store</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
-        <v>1393</v>
+        <v>1310</v>
       </c>
       <c r="B792" s="4" t="s">
-        <v>1394</v>
+        <v>1311</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>1394</v>
+        <v>1312</v>
       </c>
       <c r="D792">
-        <v>19012007</v>
+        <v>18024013</v>
       </c>
       <c r="E792" s="3" t="str">
         <f>VLOOKUP(D792,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories: Boutique</v>
+        <v>Service: Home Improvement: Landscaping and Gardeners</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
-        <v>1395</v>
+        <v>1313</v>
       </c>
       <c r="B793" s="4" t="s">
-        <v>1396</v>
+        <v>1314</v>
       </c>
       <c r="C793" s="4" t="s">
-        <v>1397</v>
+        <v>1314</v>
       </c>
       <c r="D793">
-        <v>19012000</v>
+        <v>18024011</v>
       </c>
       <c r="E793" s="3" t="str">
         <f>VLOOKUP(D793,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories</v>
+        <v>Service: Home Improvement: Mobile Homes</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
-        <v>1398</v>
+        <v>1315</v>
       </c>
       <c r="B794" s="4" t="s">
-        <v>1399</v>
+        <v>1316</v>
       </c>
       <c r="C794" s="4" t="s">
-        <v>1400</v>
+        <v>1316</v>
       </c>
       <c r="D794">
-        <v>18062000</v>
+        <v>19051000</v>
       </c>
       <c r="E794" s="3" t="str">
         <f>VLOOKUP(D794,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Tailors</v>
+        <v>Shops: Warehouses and Wholesale Stores</v>
       </c>
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
-        <v>1401</v>
+        <v>1317</v>
       </c>
       <c r="B795" s="4" t="s">
-        <v>1402</v>
+        <v>1318</v>
       </c>
       <c r="C795" s="4" t="s">
-        <v>1402</v>
+        <v>1319</v>
       </c>
       <c r="D795">
-        <v>19006000</v>
+        <v>19020000</v>
       </c>
       <c r="E795" s="3" t="str">
         <f>VLOOKUP(D795,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Beauty Products</v>
+        <v>Shops: Discount Stores</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
-        <v>1403</v>
+        <v>1320</v>
       </c>
       <c r="B796" s="4" t="s">
-        <v>1404</v>
+        <v>1321</v>
       </c>
       <c r="C796" s="4" t="s">
-        <v>1404</v>
+        <v>1321</v>
       </c>
       <c r="D796">
-        <v>19012008</v>
+        <v>19020000</v>
       </c>
       <c r="E796" s="3" t="str">
         <f>VLOOKUP(D796,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Clothing and Accessories: Accessories Store</v>
+        <v>Shops: Discount Stores</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
-        <v>1405</v>
+        <v>1322</v>
       </c>
       <c r="B797" s="4" t="s">
-        <v>1406</v>
+        <v>1323</v>
       </c>
       <c r="C797" s="4" t="s">
-        <v>1407</v>
+        <v>1323</v>
       </c>
       <c r="D797">
-        <v>19027000</v>
+        <v>19018000</v>
       </c>
       <c r="E797" s="3" t="str">
         <f>VLOOKUP(D797,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Furniture and Home Decor</v>
+        <v>Shops: Department Stores</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
-        <v>1408</v>
+        <v>1324</v>
       </c>
       <c r="B798" s="4" t="s">
-        <v>1409</v>
+        <v>1325</v>
       </c>
       <c r="C798" s="4" t="s">
-        <v>1409</v>
+        <v>1325</v>
       </c>
       <c r="D798">
-        <v>18024025</v>
+        <v>19015000</v>
       </c>
       <c r="E798" s="3" t="str">
         <f>VLOOKUP(D798,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Carpet and Flooring</v>
+        <v>Shops: Convenience Stores</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
-        <v>1410</v>
+        <v>1326</v>
       </c>
       <c r="B799" s="4" t="s">
-        <v>1411</v>
+        <v>1327</v>
       </c>
       <c r="C799" s="4" t="s">
-        <v>1412</v>
+        <v>1328</v>
       </c>
       <c r="D799">
-        <v>18024015</v>
+        <v>19015000</v>
       </c>
       <c r="E799" s="3" t="str">
         <f>VLOOKUP(D799,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Interior Design</v>
+        <v>Shops: Convenience Stores</v>
       </c>
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
-        <v>1413</v>
+        <v>1329</v>
       </c>
       <c r="B800" s="4" t="s">
-        <v>1414</v>
+        <v>1330</v>
       </c>
       <c r="C800" s="4" t="s">
-        <v>1414</v>
+        <v>1330</v>
       </c>
       <c r="D800">
-        <v>18024021</v>
+        <v>19047000</v>
       </c>
       <c r="E800" s="3" t="str">
         <f>VLOOKUP(D800,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Fences, Fireplaces and Garage Doors</v>
+        <v>Shops: Supermarkets and Groceries</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
-        <v>1415</v>
+        <v>1331</v>
       </c>
       <c r="B801" s="4" t="s">
-        <v>1416</v>
+        <v>1332</v>
       </c>
       <c r="C801" s="4" t="s">
-        <v>1416</v>
+        <v>1333</v>
       </c>
       <c r="D801">
-        <v>18024016</v>
+        <v>19025001</v>
       </c>
       <c r="E801" s="3" t="str">
         <f>VLOOKUP(D801,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Housewares</v>
+        <v>Shops: Food and Beverage Store: Specialty</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
-        <v>1417</v>
+        <v>1334</v>
       </c>
       <c r="B802" s="4" t="s">
-        <v>1418</v>
+        <v>1335</v>
       </c>
       <c r="C802" s="4" t="s">
-        <v>1418</v>
+        <v>1335</v>
       </c>
       <c r="D802">
-        <v>18024018</v>
+        <v>19025001</v>
       </c>
       <c r="E802" s="3" t="str">
         <f>VLOOKUP(D802,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Home Appliances</v>
+        <v>Shops: Food and Beverage Store: Specialty</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
-        <v>1419</v>
+        <v>1336</v>
       </c>
       <c r="B803" s="4" t="s">
-        <v>1420</v>
+        <v>1337</v>
       </c>
       <c r="C803" s="4" t="s">
-        <v>1421</v>
+        <v>1337</v>
       </c>
       <c r="D803">
-        <v>19013000</v>
+        <v>19025001</v>
       </c>
       <c r="E803" s="3" t="str">
         <f>VLOOKUP(D803,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics</v>
+        <v>Shops: Food and Beverage Store: Specialty</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
-        <v>1422</v>
+        <v>1338</v>
       </c>
       <c r="B804" s="4" t="s">
-        <v>1423</v>
+        <v>1339</v>
       </c>
       <c r="C804" s="4" t="s">
-        <v>1424</v>
+        <v>1339</v>
       </c>
       <c r="D804">
-        <v>19017000</v>
+        <v>19025001</v>
       </c>
       <c r="E804" s="3" t="str">
         <f>VLOOKUP(D804,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Dance and Music</v>
+        <v>Shops: Food and Beverage Store: Specialty</v>
       </c>
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
-        <v>1425</v>
+        <v>1340</v>
       </c>
       <c r="B805" s="4" t="s">
-        <v>1426</v>
+        <v>1341</v>
       </c>
       <c r="C805" s="4" t="s">
-        <v>1426</v>
+        <v>1342</v>
       </c>
       <c r="D805">
-        <v>19013000</v>
+        <v>19015000</v>
       </c>
       <c r="E805" s="3" t="str">
         <f>VLOOKUP(D805,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics</v>
+        <v>Shops: Convenience Stores</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
-        <v>1427</v>
+        <v>1343</v>
       </c>
       <c r="B806" s="4" t="s">
-        <v>1428</v>
+        <v>1344</v>
       </c>
       <c r="C806" s="4" t="s">
-        <v>1429</v>
+        <v>1345</v>
       </c>
       <c r="D806">
-        <v>19017000</v>
+        <v>19005007</v>
       </c>
       <c r="E806" s="3" t="str">
         <f>VLOOKUP(D806,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Dance and Music</v>
+        <v>Shops: Automotive: Car Dealers and Leasing</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
-        <v>1430</v>
+        <v>1346</v>
       </c>
       <c r="B807" s="4" t="s">
-        <v>1431</v>
+        <v>1347</v>
       </c>
       <c r="C807" s="4" t="s">
-        <v>1431</v>
+        <v>1348</v>
       </c>
       <c r="D807">
-        <v>18021002</v>
+        <v>19005001</v>
       </c>
       <c r="E807" s="3" t="str">
         <f>VLOOKUP(D807,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Food and Beverage: Catering</v>
+        <v>Shops: Automotive: Used Car Dealers</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
-        <v>1432</v>
+        <v>1349</v>
       </c>
       <c r="B808" s="4" t="s">
-        <v>1433</v>
+        <v>1350</v>
       </c>
       <c r="C808" s="4" t="s">
-        <v>1434</v>
+        <v>1351</v>
       </c>
       <c r="D808">
-        <v>13005000</v>
+        <v>19005006</v>
       </c>
       <c r="E808" s="3" t="str">
         <f>VLOOKUP(D808,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Food and Drink: Restaurants</v>
+        <v>Shops: Automotive: Car Parts and Accessories</v>
       </c>
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
-        <v>1435</v>
+        <v>1352</v>
       </c>
       <c r="B809" s="4" t="s">
-        <v>1436</v>
+        <v>1353</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>1437</v>
+        <v>1353</v>
       </c>
       <c r="D809">
-        <v>13001000</v>
+        <v>18006007</v>
       </c>
       <c r="E809" s="3" t="str">
         <f>VLOOKUP(D809,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Food and Drink: Bar</v>
+        <v>Service: Automotive: Auto Tires</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A810" s="1" t="s">
-        <v>1438</v>
+      <c r="A810">
+        <v>5532</v>
       </c>
       <c r="B810" s="4" t="s">
-        <v>1439</v>
+        <v>1351</v>
       </c>
       <c r="C810" s="4" t="s">
-        <v>1439</v>
+        <v>1351</v>
       </c>
       <c r="D810">
-        <v>13005032</v>
+        <v>19005006</v>
       </c>
       <c r="E810" s="3" t="str">
         <f>VLOOKUP(D810,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Food and Drink: Restaurants: Fast Food</v>
+        <v>Shops: Automotive: Car Parts and Accessories</v>
       </c>
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
-        <v>1884</v>
+        <v>1354</v>
       </c>
       <c r="B811" s="4" t="s">
-        <v>1885</v>
+        <v>1355</v>
       </c>
       <c r="C811" s="4" t="s">
-        <v>1885</v>
+        <v>1356</v>
       </c>
       <c r="D811">
-        <v>19019000</v>
+        <v>19005006</v>
       </c>
       <c r="E811" s="3" t="str">
         <f>VLOOKUP(D811,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Shops: Automotive: Car Parts and Accessories</v>
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
-        <v>1884</v>
+        <v>1357</v>
       </c>
       <c r="B812" s="4" t="s">
-        <v>1885</v>
+        <v>1358</v>
       </c>
       <c r="C812" s="4" t="s">
-        <v>1885</v>
+        <v>1359</v>
       </c>
       <c r="D812">
-        <v>19019000</v>
+        <v>22009000</v>
       </c>
       <c r="E812" s="3" t="str">
         <f>VLOOKUP(D812,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Travel: Gas Stations</v>
       </c>
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
-        <v>1882</v>
+        <v>1360</v>
       </c>
       <c r="B813" s="4" t="s">
-        <v>1883</v>
+        <v>1361</v>
       </c>
       <c r="C813" s="4" t="s">
-        <v>1883</v>
+        <v>1361</v>
       </c>
       <c r="D813">
-        <v>19019000</v>
+        <v>22009000</v>
       </c>
       <c r="E813" s="3" t="str">
         <f>VLOOKUP(D813,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Travel: Gas Stations</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
-        <v>1882</v>
+        <v>1362</v>
       </c>
       <c r="B814" s="4" t="s">
-        <v>1883</v>
+        <v>1363</v>
       </c>
       <c r="C814" s="4" t="s">
-        <v>1883</v>
+        <v>1363</v>
       </c>
       <c r="D814">
-        <v>19019000</v>
+        <v>19008000</v>
       </c>
       <c r="E814" s="3" t="str">
         <f>VLOOKUP(D814,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Shops: Boat Dealers</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
-        <v>2490</v>
+        <v>1364</v>
       </c>
       <c r="B815" s="4" t="s">
-        <v>2491</v>
+        <v>1365</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>2491</v>
+        <v>1366</v>
       </c>
       <c r="D815">
-        <v>19019000</v>
+        <v>19005004</v>
       </c>
       <c r="E815" s="3" t="str">
         <f>VLOOKUP(D815,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Shops: Automotive: Motorcycles, Mopeds and Scooters</v>
       </c>
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
-        <v>1880</v>
+        <v>1367</v>
       </c>
       <c r="B816" s="4" t="s">
-        <v>1881</v>
+        <v>1368</v>
       </c>
       <c r="C816" s="4" t="s">
-        <v>1881</v>
+        <v>1369</v>
       </c>
       <c r="D816">
-        <v>19019000</v>
+        <v>19005004</v>
       </c>
       <c r="E816" s="3" t="str">
         <f>VLOOKUP(D816,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Shops: Automotive: Motorcycles, Mopeds and Scooters</v>
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
-        <v>1880</v>
+        <v>1370</v>
       </c>
       <c r="B817" s="4" t="s">
-        <v>1881</v>
+        <v>1371</v>
       </c>
       <c r="C817" s="4" t="s">
-        <v>1881</v>
+        <v>1372</v>
       </c>
       <c r="D817">
-        <v>19019000</v>
+        <v>19005003</v>
       </c>
       <c r="E817" s="3" t="str">
         <f>VLOOKUP(D817,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Digital Purchase</v>
+        <v>Shops: Automotive: RVs and Motor Homes</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>1440</v>
+        <v>1373</v>
       </c>
       <c r="B818" s="4" t="s">
-        <v>1441</v>
+        <v>1374</v>
+      </c>
+      <c r="C818" s="4" t="s">
+        <v>1374</v>
       </c>
       <c r="D818">
-        <v>19002000</v>
+        <v>17039000</v>
       </c>
       <c r="E818" s="3" t="str">
         <f>VLOOKUP(D818,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Antiques</v>
+        <v>Recreation: Snow Sports</v>
       </c>
     </row>
     <row r="819" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
-        <v>1442</v>
+        <v>1375</v>
       </c>
       <c r="B819" s="4" t="s">
-        <v>1443</v>
+        <v>1376</v>
       </c>
       <c r="C819" s="4" t="s">
-        <v>1443</v>
+        <v>1376</v>
       </c>
       <c r="D819">
-        <v>19043000</v>
+        <v>19005007</v>
       </c>
       <c r="E819" s="3" t="str">
         <f>VLOOKUP(D819,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Pharmacies</v>
+        <v>Shops: Automotive: Car Dealers and Leasing</v>
       </c>
     </row>
     <row r="820" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
-        <v>1444</v>
+        <v>1377</v>
       </c>
       <c r="B820" s="4" t="s">
-        <v>1445</v>
+        <v>1378</v>
       </c>
       <c r="C820" s="4" t="s">
-        <v>1446</v>
+        <v>1378</v>
       </c>
       <c r="D820">
-        <v>19025004</v>
+        <v>19012004</v>
       </c>
       <c r="E820" s="3" t="str">
         <f>VLOOKUP(D820,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Food and Beverage Store: Beer, Wine and Spirits</v>
+        <v>Shops: Clothing and Accessories: Men's Store</v>
       </c>
     </row>
     <row r="821" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
-        <v>1447</v>
+        <v>1379</v>
       </c>
       <c r="B821" s="4" t="s">
-        <v>1448</v>
+        <v>1380</v>
       </c>
       <c r="C821" s="4" t="s">
-        <v>1448</v>
+        <v>1381</v>
       </c>
       <c r="D821">
-        <v>19050000</v>
+        <v>19012001</v>
       </c>
       <c r="E821" s="3" t="str">
         <f>VLOOKUP(D821,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Vintage and Thrift</v>
+        <v>Shops: Clothing and Accessories: Women's Store</v>
       </c>
     </row>
     <row r="822" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
-        <v>1449</v>
+        <v>1382</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>1450</v>
+        <v>1383</v>
       </c>
       <c r="C822" s="4" t="s">
-        <v>1450</v>
+        <v>1383</v>
       </c>
       <c r="D822">
-        <v>19002000</v>
+        <v>19012008</v>
       </c>
       <c r="E822" s="3" t="str">
         <f>VLOOKUP(D822,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Antiques</v>
+        <v>Shops: Clothing and Accessories: Accessories Store</v>
       </c>
     </row>
     <row r="823" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
-        <v>1451</v>
+        <v>1384</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>1452</v>
+        <v>1385</v>
       </c>
       <c r="C823" s="4" t="s">
-        <v>1453</v>
+        <v>1385</v>
       </c>
       <c r="D823">
-        <v>19041000</v>
+        <v>19012006</v>
       </c>
       <c r="E823" s="3" t="str">
         <f>VLOOKUP(D823,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Pawn Shops</v>
+        <v>Shops: Clothing and Accessories: Kids' Store</v>
       </c>
     </row>
     <row r="824" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
-        <v>1454</v>
+        <v>1386</v>
       </c>
       <c r="B824" s="4" t="s">
-        <v>1455</v>
+        <v>1387</v>
       </c>
       <c r="C824" s="4" t="s">
-        <v>1455</v>
+        <v>1387</v>
       </c>
       <c r="D824">
-        <v>19005002</v>
+        <v>19012000</v>
       </c>
       <c r="E824" s="3" t="str">
         <f>VLOOKUP(D824,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: Salvage Yards</v>
+        <v>Shops: Clothing and Accessories</v>
       </c>
     </row>
     <row r="825" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
-        <v>1456</v>
+        <v>1388</v>
       </c>
       <c r="B825" s="4" t="s">
-        <v>1457</v>
+        <v>1389</v>
       </c>
       <c r="C825" s="4" t="s">
-        <v>1457</v>
+        <v>1390</v>
       </c>
       <c r="D825">
-        <v>19002000</v>
+        <v>19046000</v>
       </c>
       <c r="E825" s="3" t="str">
         <f>VLOOKUP(D825,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Antiques</v>
+        <v>Shops: Sporting Goods</v>
       </c>
     </row>
     <row r="826" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
-        <v>1458</v>
+        <v>1391</v>
       </c>
       <c r="B826" s="4" t="s">
-        <v>1459</v>
+        <v>1392</v>
       </c>
       <c r="C826" s="4" t="s">
-        <v>1460</v>
+        <v>1392</v>
       </c>
       <c r="D826">
-        <v>19007000</v>
+        <v>19012003</v>
       </c>
       <c r="E826" s="3" t="str">
         <f>VLOOKUP(D826,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Bicycles</v>
+        <v>Shops: Clothing and Accessories: Shoe Store</v>
       </c>
     </row>
     <row r="827" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
-        <v>1461</v>
+        <v>1393</v>
       </c>
       <c r="B827" s="4" t="s">
-        <v>1462</v>
+        <v>1394</v>
       </c>
       <c r="C827" s="4" t="s">
-        <v>1462</v>
+        <v>1394</v>
       </c>
       <c r="D827">
-        <v>19046000</v>
+        <v>19012007</v>
       </c>
       <c r="E827" s="3" t="str">
         <f>VLOOKUP(D827,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Sporting Goods</v>
+        <v>Shops: Clothing and Accessories: Boutique</v>
       </c>
     </row>
     <row r="828" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
-        <v>1463</v>
+        <v>1395</v>
       </c>
       <c r="B828" s="4" t="s">
-        <v>1464</v>
+        <v>1396</v>
       </c>
       <c r="C828" s="4" t="s">
-        <v>1464</v>
+        <v>1397</v>
       </c>
       <c r="D828">
-        <v>19009000</v>
+        <v>19012000</v>
       </c>
       <c r="E828" s="3" t="str">
         <f>VLOOKUP(D828,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Bookstores</v>
+        <v>Shops: Clothing and Accessories</v>
       </c>
     </row>
     <row r="829" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
-        <v>1465</v>
+        <v>1398</v>
       </c>
       <c r="B829" s="4" t="s">
-        <v>1466</v>
+        <v>1399</v>
       </c>
       <c r="C829" s="4" t="s">
-        <v>1467</v>
+        <v>1400</v>
       </c>
       <c r="D829">
-        <v>19039000</v>
+        <v>18062000</v>
       </c>
       <c r="E829" s="3" t="str">
         <f>VLOOKUP(D829,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Office Supplies</v>
+        <v>Service: Tailors</v>
       </c>
     </row>
     <row r="830" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
-        <v>1468</v>
+        <v>1401</v>
       </c>
       <c r="B830" s="4" t="s">
-        <v>1469</v>
+        <v>1402</v>
       </c>
       <c r="C830" s="4" t="s">
-        <v>1470</v>
+        <v>1402</v>
       </c>
       <c r="D830">
-        <v>19033000</v>
+        <v>19006000</v>
       </c>
       <c r="E830" s="3" t="str">
         <f>VLOOKUP(D830,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Jewelry and Watches</v>
+        <v>Shops: Beauty Products</v>
       </c>
     </row>
     <row r="831" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
-        <v>1471</v>
+        <v>1403</v>
       </c>
       <c r="B831" s="4" t="s">
-        <v>1472</v>
+        <v>1404</v>
       </c>
       <c r="C831" s="4" t="s">
-        <v>1472</v>
+        <v>1404</v>
       </c>
       <c r="D831">
-        <v>19031000</v>
+        <v>19012008</v>
       </c>
       <c r="E831" s="3" t="str">
         <f>VLOOKUP(D831,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Hobby and Collectibles</v>
+        <v>Shops: Clothing and Accessories: Accessories Store</v>
       </c>
     </row>
     <row r="832" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>1473</v>
+        <v>1405</v>
       </c>
       <c r="B832" s="4" t="s">
-        <v>1474</v>
+        <v>1406</v>
       </c>
       <c r="C832" s="4" t="s">
-        <v>1474</v>
+        <v>1407</v>
       </c>
       <c r="D832">
-        <v>19013003</v>
+        <v>19027000</v>
       </c>
       <c r="E832" s="3" t="str">
         <f>VLOOKUP(D832,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics: Cameras</v>
+        <v>Shops: Furniture and Home Decor</v>
       </c>
     </row>
     <row r="833" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>1475</v>
+        <v>1408</v>
       </c>
       <c r="B833" s="4" t="s">
-        <v>1476</v>
+        <v>1409</v>
       </c>
       <c r="C833" s="4" t="s">
-        <v>1477</v>
+        <v>1409</v>
       </c>
       <c r="D833">
-        <v>19028000</v>
+        <v>18024025</v>
       </c>
       <c r="E833" s="3" t="str">
         <f>VLOOKUP(D833,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Gift and Novelty</v>
+        <v>Service: Home Improvement: Carpet and Flooring</v>
       </c>
     </row>
     <row r="834" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>1478</v>
+        <v>1410</v>
       </c>
       <c r="B834" s="4" t="s">
-        <v>1479</v>
+        <v>1411</v>
       </c>
       <c r="C834" s="4" t="s">
-        <v>1480</v>
+        <v>1412</v>
       </c>
       <c r="D834">
-        <v>19034000</v>
+        <v>18024015</v>
       </c>
       <c r="E834" s="3" t="str">
         <f>VLOOKUP(D834,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Luggage</v>
+        <v>Service: Home Improvement: Interior Design</v>
       </c>
     </row>
     <row r="835" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
-        <v>1481</v>
+        <v>1413</v>
       </c>
       <c r="B835" s="4" t="s">
-        <v>1482</v>
+        <v>1414</v>
       </c>
       <c r="C835" s="4" t="s">
-        <v>1483</v>
+        <v>1414</v>
       </c>
       <c r="D835">
-        <v>18037001</v>
+        <v>18024021</v>
       </c>
       <c r="E835" s="3" t="str">
         <f>VLOOKUP(D835,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Manufacturing: Apparel and Fabric Products</v>
+        <v>Service: Home Improvement: Fences, Fireplaces and Garage Doors</v>
       </c>
     </row>
     <row r="836" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
-        <v>1484</v>
+        <v>1415</v>
       </c>
       <c r="B836" s="4" t="s">
-        <v>1485</v>
+        <v>1416</v>
       </c>
       <c r="C836" s="4" t="s">
-        <v>1486</v>
+        <v>1416</v>
       </c>
       <c r="D836">
-        <v>19028000</v>
+        <v>18024016</v>
       </c>
       <c r="E836" s="3" t="str">
         <f>VLOOKUP(D836,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Gift and Novelty</v>
+        <v>Service: Home Improvement: Housewares</v>
       </c>
     </row>
     <row r="837" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
-        <v>1487</v>
+        <v>1417</v>
       </c>
       <c r="B837" s="4" t="s">
-        <v>1488</v>
+        <v>1418</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>1489</v>
+        <v>1418</v>
       </c>
       <c r="D837">
-        <v>18030000</v>
+        <v>18024018</v>
       </c>
       <c r="E837" s="3" t="str">
         <f>VLOOKUP(D837,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Insurance</v>
+        <v>Service: Home Improvement: Home Appliances</v>
       </c>
     </row>
     <row r="838" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
-        <v>1490</v>
+        <v>1419</v>
       </c>
       <c r="B838" s="4" t="s">
-        <v>1491</v>
+        <v>1420</v>
+      </c>
+      <c r="C838" s="4" t="s">
+        <v>1421</v>
       </c>
       <c r="D838">
-        <v>18001008</v>
+        <v>19013000</v>
       </c>
       <c r="E838" s="3" t="str">
         <f>VLOOKUP(D838,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
+        <v>Shops: Computers and Electronics</v>
       </c>
     </row>
     <row r="839" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
-        <v>1492</v>
+        <v>1422</v>
       </c>
       <c r="B839" s="4" t="s">
-        <v>1493</v>
+        <v>1423</v>
       </c>
       <c r="C839" s="4" t="s">
-        <v>1494</v>
+        <v>1424</v>
       </c>
       <c r="D839">
-        <v>18067000</v>
+        <v>19017000</v>
       </c>
       <c r="E839" s="3" t="str">
         <f>VLOOKUP(D839,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Travel Agents and Tour Operators</v>
+        <v>Shops: Dance and Music</v>
       </c>
     </row>
     <row r="840" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
-        <v>1495</v>
+        <v>1425</v>
       </c>
       <c r="B840" s="4" t="s">
-        <v>1496</v>
+        <v>1426</v>
       </c>
       <c r="C840" s="4" t="s">
-        <v>1497</v>
+        <v>1426</v>
       </c>
       <c r="D840">
-        <v>19038000</v>
+        <v>19013000</v>
       </c>
       <c r="E840" s="3" t="str">
         <f>VLOOKUP(D840,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Newsstands</v>
+        <v>Shops: Computers and Electronics</v>
       </c>
     </row>
     <row r="841" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
-        <v>1498</v>
+        <v>1427</v>
       </c>
       <c r="B841" s="4" t="s">
-        <v>1499</v>
+        <v>1428</v>
       </c>
       <c r="C841" s="4" t="s">
-        <v>1499</v>
+        <v>1429</v>
       </c>
       <c r="D841">
-        <v>18001008</v>
+        <v>19017000</v>
       </c>
       <c r="E841" s="3" t="str">
         <f>VLOOKUP(D841,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
+        <v>Shops: Dance and Music</v>
       </c>
     </row>
     <row r="842" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
-        <v>1500</v>
+        <v>1430</v>
       </c>
       <c r="B842" s="4" t="s">
-        <v>1501</v>
+        <v>1431</v>
       </c>
       <c r="C842" s="4" t="s">
-        <v>1502</v>
+        <v>1431</v>
       </c>
       <c r="D842">
-        <v>18001008</v>
+        <v>18021002</v>
       </c>
       <c r="E842" s="3" t="str">
         <f>VLOOKUP(D842,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
+        <v>Service: Food and Beverage: Catering</v>
       </c>
     </row>
     <row r="843" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
-        <v>1503</v>
+        <v>1432</v>
       </c>
       <c r="B843" s="4" t="s">
-        <v>1504</v>
+        <v>1433</v>
       </c>
       <c r="C843" s="4" t="s">
-        <v>1505</v>
+        <v>1434</v>
       </c>
       <c r="D843">
-        <v>18001000</v>
+        <v>13005000</v>
       </c>
       <c r="E843" s="3" t="str">
         <f>VLOOKUP(D843,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing</v>
+        <v>Food and Drink: Restaurants</v>
       </c>
     </row>
     <row r="844" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
-        <v>1506</v>
+        <v>1435</v>
       </c>
       <c r="B844" s="4" t="s">
-        <v>1507</v>
+        <v>1436</v>
       </c>
       <c r="C844" s="4" t="s">
-        <v>1508</v>
+        <v>1437</v>
       </c>
       <c r="D844">
-        <v>18001000</v>
+        <v>13001000</v>
       </c>
       <c r="E844" s="3" t="str">
         <f>VLOOKUP(D844,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing</v>
+        <v>Food and Drink: Bar</v>
       </c>
     </row>
     <row r="845" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A845" s="1" t="s">
-        <v>1509</v>
+        <v>1438</v>
       </c>
       <c r="B845" s="4" t="s">
-        <v>1510</v>
+        <v>1439</v>
       </c>
       <c r="C845" s="4" t="s">
-        <v>1511</v>
+        <v>1439</v>
       </c>
       <c r="D845">
-        <v>18001000</v>
+        <v>13005032</v>
       </c>
       <c r="E845" s="3" t="str">
         <f>VLOOKUP(D845,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing</v>
+        <v>Food and Drink: Restaurants: Fast Food</v>
       </c>
     </row>
     <row r="846" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
-        <v>1512</v>
+        <v>1884</v>
       </c>
       <c r="B846" s="4" t="s">
-        <v>1513</v>
+        <v>1885</v>
       </c>
       <c r="C846" s="4" t="s">
-        <v>1514</v>
+        <v>1885</v>
       </c>
       <c r="D846">
-        <v>18001000</v>
+        <v>19019000</v>
       </c>
       <c r="E846" s="3" t="str">
         <f>VLOOKUP(D846,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="847" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
-        <v>1515</v>
+        <v>1884</v>
       </c>
       <c r="B847" s="4" t="s">
-        <v>1516</v>
+        <v>1885</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>1516</v>
+        <v>1885</v>
       </c>
       <c r="D847">
-        <v>19003000</v>
+        <v>19019000</v>
       </c>
       <c r="E847" s="3" t="str">
         <f>VLOOKUP(D847,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Arts and Crafts</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="848" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
-        <v>1517</v>
+        <v>1882</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>1518</v>
+        <v>1883</v>
       </c>
       <c r="C848" s="4" t="s">
-        <v>1518</v>
+        <v>1883</v>
       </c>
       <c r="D848">
-        <v>17001017</v>
+        <v>19019000</v>
       </c>
       <c r="E848" s="3" t="str">
         <f>VLOOKUP(D848,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Art Dealers and Galleries</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="849" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
-        <v>1519</v>
+        <v>1882</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>1520</v>
+        <v>1883</v>
       </c>
       <c r="C849" s="4" t="s">
-        <v>1521</v>
+        <v>1883</v>
       </c>
       <c r="D849">
-        <v>19031000</v>
+        <v>19019000</v>
       </c>
       <c r="E849" s="3" t="str">
         <f>VLOOKUP(D849,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Hobby and Collectibles</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="850" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
-        <v>1522</v>
+        <v>2490</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>1523</v>
+        <v>2491</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>1523</v>
+        <v>2491</v>
       </c>
       <c r="D850">
-        <v>19000000</v>
+        <v>19019000</v>
       </c>
       <c r="E850" s="3" t="str">
         <f>VLOOKUP(D850,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="851" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
-        <v>1524</v>
+        <v>1880</v>
       </c>
       <c r="B851" s="4" t="s">
-        <v>1525</v>
+        <v>1881</v>
       </c>
       <c r="C851" s="4" t="s">
-        <v>1526</v>
+        <v>1881</v>
       </c>
       <c r="D851">
-        <v>19000000</v>
+        <v>19019000</v>
       </c>
       <c r="E851" s="3" t="str">
         <f>VLOOKUP(D851,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="852" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
-        <v>1527</v>
+        <v>1880</v>
       </c>
       <c r="B852" s="4" t="s">
-        <v>1528</v>
+        <v>1881</v>
       </c>
       <c r="C852" s="4" t="s">
-        <v>1529</v>
+        <v>1881</v>
       </c>
       <c r="D852">
-        <v>19000000</v>
+        <v>19019000</v>
       </c>
       <c r="E852" s="3" t="str">
         <f>VLOOKUP(D852,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Shops: Digital Purchase</v>
       </c>
     </row>
     <row r="853" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
-        <v>1530</v>
+        <v>1440</v>
       </c>
       <c r="B853" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C853" s="4" t="s">
-        <v>1531</v>
+        <v>1441</v>
       </c>
       <c r="D853">
-        <v>19006000</v>
+        <v>19002000</v>
       </c>
       <c r="E853" s="3" t="str">
         <f>VLOOKUP(D853,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Beauty Products</v>
+        <v>Shops: Antiques</v>
       </c>
     </row>
     <row r="854" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
-        <v>1532</v>
+        <v>1442</v>
       </c>
       <c r="B854" s="4" t="s">
-        <v>1533</v>
+        <v>1443</v>
       </c>
       <c r="C854" s="4" t="s">
-        <v>1534</v>
+        <v>1443</v>
       </c>
       <c r="D854">
-        <v>19039000</v>
+        <v>19043000</v>
       </c>
       <c r="E854" s="3" t="str">
         <f>VLOOKUP(D854,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Office Supplies</v>
+        <v>Shops: Pharmacies</v>
       </c>
     </row>
     <row r="855" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
-        <v>1535</v>
+        <v>1444</v>
       </c>
       <c r="B855" s="4" t="s">
-        <v>1536</v>
+        <v>1445</v>
       </c>
       <c r="C855" s="4" t="s">
-        <v>1537</v>
+        <v>1446</v>
       </c>
       <c r="D855">
-        <v>19026000</v>
+        <v>19025004</v>
       </c>
       <c r="E855" s="3" t="str">
         <f>VLOOKUP(D855,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Fuel Dealer</v>
+        <v>Shops: Food and Beverage Store: Beer, Wine and Spirits</v>
       </c>
     </row>
     <row r="856" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
-        <v>1538</v>
+        <v>1447</v>
       </c>
       <c r="B856" s="4" t="s">
-        <v>1539</v>
+        <v>1448</v>
       </c>
       <c r="C856" s="4" t="s">
-        <v>1539</v>
+        <v>1448</v>
       </c>
       <c r="D856">
-        <v>19024000</v>
+        <v>19050000</v>
       </c>
       <c r="E856" s="3" t="str">
         <f>VLOOKUP(D856,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Florists</v>
+        <v>Shops: Vintage and Thrift</v>
       </c>
     </row>
     <row r="857" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
-        <v>1540</v>
+        <v>1449</v>
       </c>
       <c r="B857" s="4" t="s">
-        <v>1541</v>
+        <v>1450</v>
       </c>
       <c r="C857" s="4" t="s">
-        <v>1541</v>
+        <v>1450</v>
       </c>
       <c r="D857">
-        <v>19000000</v>
+        <v>19002000</v>
       </c>
       <c r="E857" s="3" t="str">
         <f>VLOOKUP(D857,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Shops: Antiques</v>
       </c>
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
-        <v>1542</v>
+        <v>1451</v>
       </c>
       <c r="B858" s="4" t="s">
-        <v>1543</v>
+        <v>1452</v>
       </c>
       <c r="C858" s="4" t="s">
-        <v>1543</v>
+        <v>1453</v>
       </c>
       <c r="D858">
-        <v>19038000</v>
+        <v>19041000</v>
       </c>
       <c r="E858" s="3" t="str">
         <f>VLOOKUP(D858,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Newsstands</v>
+        <v>Shops: Pawn Shops</v>
       </c>
     </row>
     <row r="859" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
-        <v>1544</v>
+        <v>1454</v>
       </c>
       <c r="B859" s="4" t="s">
-        <v>1545</v>
+        <v>1455</v>
       </c>
       <c r="C859" s="4" t="s">
-        <v>1546</v>
+        <v>1455</v>
       </c>
       <c r="D859">
-        <v>19042000</v>
+        <v>19005002</v>
       </c>
       <c r="E859" s="3" t="str">
         <f>VLOOKUP(D859,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Pets</v>
+        <v>Shops: Automotive: Salvage Yards</v>
       </c>
     </row>
     <row r="860" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
-        <v>1547</v>
+        <v>1456</v>
       </c>
       <c r="B860" s="4" t="s">
-        <v>1548</v>
+        <v>1457</v>
       </c>
       <c r="C860" s="4" t="s">
-        <v>1549</v>
+        <v>1457</v>
       </c>
       <c r="D860">
-        <v>18024006</v>
+        <v>19002000</v>
       </c>
       <c r="E860" s="3" t="str">
         <f>VLOOKUP(D860,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Pools and Spas</v>
+        <v>Shops: Antiques</v>
       </c>
     </row>
     <row r="861" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
-        <v>1550</v>
+        <v>1458</v>
       </c>
       <c r="B861" s="4" t="s">
-        <v>1551</v>
+        <v>1459</v>
       </c>
       <c r="C861" s="4" t="s">
-        <v>1552</v>
+        <v>1460</v>
       </c>
       <c r="D861">
-        <v>18045000</v>
+        <v>19007000</v>
       </c>
       <c r="E861" s="3" t="str">
         <f>VLOOKUP(D861,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care</v>
+        <v>Shops: Bicycles</v>
       </c>
     </row>
     <row r="862" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
-        <v>1553</v>
+        <v>1461</v>
       </c>
       <c r="B862" s="4" t="s">
-        <v>1554</v>
+        <v>1462</v>
       </c>
       <c r="C862" s="4" t="s">
-        <v>1554</v>
+        <v>1462</v>
       </c>
       <c r="D862">
-        <v>17025000</v>
+        <v>19046000</v>
       </c>
       <c r="E862" s="3" t="str">
         <f>VLOOKUP(D862,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Outdoors</v>
+        <v>Shops: Sporting Goods</v>
       </c>
     </row>
     <row r="863" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
-        <v>1555</v>
+        <v>1463</v>
       </c>
       <c r="B863" s="4" t="s">
-        <v>1556</v>
+        <v>1464</v>
       </c>
       <c r="C863" s="4" t="s">
-        <v>1557</v>
+        <v>1464</v>
       </c>
       <c r="D863">
-        <v>19000000</v>
+        <v>19009000</v>
       </c>
       <c r="E863" s="3" t="str">
         <f>VLOOKUP(D863,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops</v>
+        <v>Shops: Bookstores</v>
       </c>
     </row>
     <row r="864" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
-        <v>1558</v>
+        <v>1465</v>
       </c>
       <c r="B864" s="4" t="s">
-        <v>1559</v>
+        <v>1466</v>
       </c>
       <c r="C864" s="4" t="s">
-        <v>1560</v>
+        <v>1467</v>
       </c>
       <c r="D864">
-        <v>11000000</v>
+        <v>19039000</v>
       </c>
       <c r="E864" s="3" t="str">
         <f>VLOOKUP(D864,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Cash Advance</v>
+        <v>Shops: Office Supplies</v>
       </c>
     </row>
     <row r="865" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
-        <v>1561</v>
+        <v>1468</v>
       </c>
       <c r="B865" s="4" t="s">
-        <v>1559</v>
+        <v>1469</v>
       </c>
       <c r="C865" s="4" t="s">
-        <v>1562</v>
+        <v>1470</v>
       </c>
       <c r="D865">
-        <v>11000000</v>
+        <v>19033000</v>
       </c>
       <c r="E865" s="3" t="str">
         <f>VLOOKUP(D865,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Cash Advance</v>
+        <v>Shops: Jewelry and Watches</v>
       </c>
     </row>
     <row r="866" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
-        <v>1563</v>
+        <v>1471</v>
       </c>
       <c r="B866" s="4" t="s">
-        <v>1564</v>
+        <v>1472</v>
       </c>
       <c r="C866" s="4" t="s">
-        <v>1565</v>
+        <v>1472</v>
       </c>
       <c r="D866">
-        <v>18020012</v>
+        <v>19031000</v>
       </c>
       <c r="E866" s="3" t="str">
         <f>VLOOKUP(D866,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Banking and Finance</v>
+        <v>Shops: Hobby and Collectibles</v>
       </c>
     </row>
     <row r="867" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
-        <v>2501</v>
+        <v>1473</v>
       </c>
       <c r="B867" s="4" t="s">
-        <v>2502</v>
-      </c>
-      <c r="C867" t="s">
-        <v>2502</v>
+        <v>1474</v>
+      </c>
+      <c r="C867" s="4" t="s">
+        <v>1474</v>
       </c>
       <c r="D867">
-        <v>18020012</v>
+        <v>19013003</v>
       </c>
       <c r="E867" s="3" t="str">
         <f>VLOOKUP(D867,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Banking and Finance</v>
+        <v>Shops: Computers and Electronics: Cameras</v>
       </c>
     </row>
     <row r="868" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
-        <v>1566</v>
+        <v>1475</v>
       </c>
       <c r="B868" s="4" t="s">
-        <v>1567</v>
+        <v>1476</v>
       </c>
       <c r="C868" s="4" t="s">
-        <v>1568</v>
+        <v>1477</v>
       </c>
       <c r="D868">
-        <v>18020010</v>
+        <v>19028000</v>
       </c>
       <c r="E868" s="3" t="str">
         <f>VLOOKUP(D868,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Check Cashing</v>
+        <v>Shops: Gift and Novelty</v>
       </c>
     </row>
     <row r="869" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
-        <v>1569</v>
+        <v>1478</v>
       </c>
       <c r="B869" s="4" t="s">
-        <v>1570</v>
+        <v>1479</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>1570</v>
+        <v>1480</v>
       </c>
       <c r="D869">
-        <v>18020003</v>
+        <v>19034000</v>
       </c>
       <c r="E869" s="3" t="str">
         <f>VLOOKUP(D869,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Stock Brokers</v>
+        <v>Shops: Luggage</v>
       </c>
     </row>
     <row r="870" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
-        <v>1571</v>
+        <v>1481</v>
       </c>
       <c r="B870" s="4" t="s">
-        <v>1572</v>
+        <v>1482</v>
       </c>
       <c r="C870" s="4" t="s">
-        <v>1573</v>
+        <v>1483</v>
       </c>
       <c r="D870">
-        <v>18030000</v>
+        <v>18037001</v>
       </c>
       <c r="E870" s="3" t="str">
         <f>VLOOKUP(D870,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Insurance</v>
+        <v>Service: Manufacturing: Apparel and Fabric Products</v>
       </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
-        <v>1574</v>
+        <v>1484</v>
       </c>
       <c r="B871" s="4" t="s">
-        <v>1575</v>
+        <v>1485</v>
+      </c>
+      <c r="C871" s="4" t="s">
+        <v>1486</v>
       </c>
       <c r="D871">
-        <v>18030000</v>
+        <v>19028000</v>
       </c>
       <c r="E871" s="3" t="str">
         <f>VLOOKUP(D871,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Insurance</v>
+        <v>Shops: Gift and Novelty</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
-        <v>1576</v>
+        <v>1487</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>1577</v>
+        <v>1488</v>
       </c>
       <c r="C872" s="4" t="s">
-        <v>1578</v>
+        <v>1489</v>
       </c>
       <c r="D872">
         <v>18030000</v>
@@ -24127,427 +24298,424 @@
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
-        <v>1579</v>
+        <v>1490</v>
       </c>
       <c r="B873" s="4" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C873" s="4" t="s">
-        <v>1580</v>
+        <v>1491</v>
       </c>
       <c r="D873">
-        <v>18050003</v>
+        <v>18001008</v>
       </c>
       <c r="E873" s="3" t="str">
         <f>VLOOKUP(D873,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Real Estate: Real Estate Agents</v>
+        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
-        <v>2492</v>
+        <v>1492</v>
       </c>
       <c r="B874" s="4" t="s">
-        <v>2493</v>
+        <v>1493</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>2493</v>
+        <v>1494</v>
       </c>
       <c r="D874">
-        <v>21010000</v>
+        <v>18067000</v>
       </c>
       <c r="E874" s="3" t="str">
         <f>VLOOKUP(D874,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Transfer: Third Party</v>
+        <v>Service: Travel Agents and Tour Operators</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
-        <v>1886</v>
+        <v>1495</v>
       </c>
       <c r="B875" s="4" t="s">
-        <v>1887</v>
+        <v>1496</v>
       </c>
       <c r="C875" s="4" t="s">
-        <v>1888</v>
+        <v>1497</v>
       </c>
       <c r="D875">
-        <v>18020010</v>
+        <v>19038000</v>
       </c>
       <c r="E875" s="3" t="str">
         <f>VLOOKUP(D875,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Check Cashing</v>
+        <v>Shops: Newsstands</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
-        <v>1892</v>
+        <v>1498</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>1893</v>
+        <v>1499</v>
       </c>
       <c r="C876" s="4" t="s">
-        <v>1893</v>
+        <v>1499</v>
       </c>
       <c r="D876">
-        <v>10000000</v>
+        <v>18001008</v>
       </c>
       <c r="E876" s="3" t="str">
         <f>VLOOKUP(D876,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Bank Fees</v>
+        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
-        <v>1581</v>
+        <v>1500</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>1582</v>
+        <v>1501</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>1583</v>
+        <v>1502</v>
       </c>
       <c r="D877">
-        <v>22012003</v>
+        <v>18001008</v>
       </c>
       <c r="E877" s="3" t="str">
         <f>VLOOKUP(D877,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Hotels and Motels</v>
+        <v>Service: Advertising and Marketing: Direct Mail and Email Marketing Services</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
-        <v>1584</v>
+        <v>1503</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>1585</v>
+        <v>1504</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>1585</v>
+        <v>1505</v>
       </c>
       <c r="D878">
-        <v>22012002</v>
+        <v>18001000</v>
       </c>
       <c r="E878" s="3" t="str">
         <f>VLOOKUP(D878,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Lodging: Lodges and Vacation Rentals</v>
+        <v>Service: Advertising and Marketing</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
-        <v>1586</v>
+        <v>1506</v>
       </c>
       <c r="B879" s="4" t="s">
-        <v>1587</v>
+        <v>1507</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>1588</v>
+        <v>1508</v>
       </c>
       <c r="D879">
-        <v>17041000</v>
+        <v>18001000</v>
       </c>
       <c r="E879" s="3" t="str">
         <f>VLOOKUP(D879,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports and Recreation Camps</v>
+        <v>Service: Advertising and Marketing</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
-        <v>1589</v>
+        <v>1509</v>
       </c>
       <c r="B880" s="4" t="s">
-        <v>1590</v>
+        <v>1510</v>
       </c>
       <c r="C880" s="4" t="s">
-        <v>1591</v>
+        <v>1511</v>
       </c>
       <c r="D880">
-        <v>17007000</v>
+        <v>18001000</v>
       </c>
       <c r="E880" s="3" t="str">
         <f>VLOOKUP(D880,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Campgrounds and RV Parks</v>
+        <v>Service: Advertising and Marketing</v>
       </c>
     </row>
     <row r="881" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
-        <v>1592</v>
+        <v>1512</v>
       </c>
       <c r="B881" s="4" t="s">
-        <v>1593</v>
+        <v>1513</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>1594</v>
+        <v>1514</v>
       </c>
       <c r="D881">
-        <v>18045008</v>
+        <v>18001000</v>
       </c>
       <c r="E881" s="3" t="str">
         <f>VLOOKUP(D881,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Laundry and Garment Services</v>
+        <v>Service: Advertising and Marketing</v>
       </c>
     </row>
     <row r="882" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A882" s="1" t="s">
-        <v>1595</v>
+        <v>1515</v>
       </c>
       <c r="B882" s="4" t="s">
-        <v>1596</v>
+        <v>1516</v>
       </c>
       <c r="C882" s="4" t="s">
-        <v>1597</v>
+        <v>1516</v>
       </c>
       <c r="D882">
-        <v>18045008</v>
+        <v>19003000</v>
       </c>
       <c r="E882" s="3" t="str">
         <f>VLOOKUP(D882,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Laundry and Garment Services</v>
+        <v>Shops: Arts and Crafts</v>
       </c>
     </row>
     <row r="883" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A883" s="1" t="s">
-        <v>1598</v>
+        <v>1517</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>1599</v>
+        <v>1518</v>
       </c>
       <c r="C883" s="4" t="s">
-        <v>1599</v>
+        <v>1518</v>
       </c>
       <c r="D883">
-        <v>18045008</v>
+        <v>17001017</v>
       </c>
       <c r="E883" s="3" t="str">
         <f>VLOOKUP(D883,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Laundry and Garment Services</v>
+        <v>Recreation: Arts and Entertainment: Art Dealers and Galleries</v>
       </c>
     </row>
     <row r="884" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A884" s="1" t="s">
-        <v>1600</v>
+        <v>1519</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>1601</v>
+        <v>1520</v>
       </c>
       <c r="C884" s="4" t="s">
-        <v>1602</v>
+        <v>1521</v>
       </c>
       <c r="D884">
-        <v>18024025</v>
+        <v>19031000</v>
       </c>
       <c r="E884" s="3" t="str">
         <f>VLOOKUP(D884,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Carpet and Flooring</v>
+        <v>Shops: Hobby and Collectibles</v>
       </c>
     </row>
     <row r="885" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A885" s="1" t="s">
-        <v>1603</v>
+        <v>1522</v>
       </c>
       <c r="B885" s="4" t="s">
-        <v>1604</v>
+        <v>1523</v>
       </c>
       <c r="C885" s="4" t="s">
-        <v>1604</v>
+        <v>1523</v>
       </c>
       <c r="D885">
-        <v>18047000</v>
+        <v>19000000</v>
       </c>
       <c r="E885" s="3" t="str">
         <f>VLOOKUP(D885,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Photography</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="886" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A886" s="1" t="s">
-        <v>1605</v>
+        <v>1524</v>
       </c>
       <c r="B886" s="4" t="s">
-        <v>1606</v>
+        <v>1525</v>
       </c>
       <c r="C886" s="4" t="s">
-        <v>1606</v>
+        <v>1526</v>
       </c>
       <c r="D886">
-        <v>18045009</v>
+        <v>19000000</v>
       </c>
       <c r="E886" s="3" t="str">
         <f>VLOOKUP(D886,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Hair Salons and Barbers</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="887" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A887" s="1" t="s">
-        <v>1607</v>
+        <v>1527</v>
       </c>
       <c r="B887" s="4" t="s">
-        <v>1608</v>
+        <v>1528</v>
       </c>
       <c r="C887" s="4" t="s">
-        <v>1609</v>
+        <v>1529</v>
       </c>
       <c r="D887">
-        <v>18011000</v>
+        <v>19000000</v>
       </c>
       <c r="E887" s="3" t="str">
         <f>VLOOKUP(D887,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Cleaning</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="888" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A888" s="1" t="s">
-        <v>1610</v>
+        <v>1530</v>
       </c>
       <c r="B888" s="4" t="s">
-        <v>1611</v>
+        <v>1531</v>
       </c>
       <c r="C888" s="4" t="s">
-        <v>1612</v>
+        <v>1531</v>
       </c>
       <c r="D888">
-        <v>18022000</v>
+        <v>19006000</v>
       </c>
       <c r="E888" s="3" t="str">
         <f>VLOOKUP(D888,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Funeral Services</v>
+        <v>Shops: Beauty Products</v>
       </c>
     </row>
     <row r="889" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A889" s="1" t="s">
-        <v>1613</v>
+        <v>1532</v>
       </c>
       <c r="B889" s="4" t="s">
-        <v>1614</v>
+        <v>1533</v>
       </c>
       <c r="C889" s="4" t="s">
-        <v>1615</v>
+        <v>1534</v>
       </c>
       <c r="D889">
-        <v>18015000</v>
+        <v>19039000</v>
       </c>
       <c r="E889" s="3" t="str">
         <f>VLOOKUP(D889,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Dating and Escort</v>
+        <v>Shops: Office Supplies</v>
       </c>
     </row>
     <row r="890" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A890" s="1" t="s">
-        <v>1616</v>
+        <v>1535</v>
       </c>
       <c r="B890" s="4" t="s">
-        <v>1617</v>
+        <v>1536</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>1618</v>
+        <v>1537</v>
       </c>
       <c r="D890">
-        <v>18020001</v>
+        <v>19026000</v>
       </c>
       <c r="E890" s="3" t="str">
         <f>VLOOKUP(D890,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Taxes</v>
+        <v>Shops: Fuel Dealer</v>
       </c>
     </row>
     <row r="891" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A891" s="1" t="s">
-        <v>1619</v>
+        <v>1538</v>
       </c>
       <c r="B891" s="4" t="s">
-        <v>1620</v>
+        <v>1539</v>
       </c>
       <c r="C891" s="4" t="s">
-        <v>1621</v>
+        <v>1539</v>
       </c>
       <c r="D891">
-        <v>18014000</v>
+        <v>19024000</v>
       </c>
       <c r="E891" s="3" t="str">
         <f>VLOOKUP(D891,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Credit Counseling and Bankruptcy Services</v>
+        <v>Shops: Florists</v>
       </c>
     </row>
     <row r="892" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A892" s="1" t="s">
-        <v>1622</v>
+        <v>1540</v>
       </c>
       <c r="B892" s="4" t="s">
-        <v>1623</v>
+        <v>1541</v>
       </c>
       <c r="C892" s="4" t="s">
-        <v>1624</v>
+        <v>1541</v>
       </c>
       <c r="D892">
-        <v>19053000</v>
+        <v>19000000</v>
       </c>
       <c r="E892" s="3" t="str">
         <f>VLOOKUP(D892,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Wholesale</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="893" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A893" s="1" t="s">
-        <v>1625</v>
+        <v>1542</v>
       </c>
       <c r="B893" s="4" t="s">
-        <v>1626</v>
+        <v>1543</v>
       </c>
       <c r="C893" s="4" t="s">
-        <v>1627</v>
+        <v>1543</v>
       </c>
       <c r="D893">
-        <v>19016000</v>
+        <v>19038000</v>
       </c>
       <c r="E893" s="3" t="str">
         <f>VLOOKUP(D893,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Costumes</v>
+        <v>Shops: Newsstands</v>
       </c>
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A894" s="1" t="s">
-        <v>1628</v>
+        <v>1544</v>
       </c>
       <c r="B894" s="4" t="s">
-        <v>1629</v>
+        <v>1545</v>
       </c>
       <c r="C894" s="4" t="s">
-        <v>1629</v>
+        <v>1546</v>
       </c>
       <c r="D894">
-        <v>18045006</v>
+        <v>19042000</v>
       </c>
       <c r="E894" s="3" t="str">
         <f>VLOOKUP(D894,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Massage Clinics and Therapists</v>
+        <v>Shops: Pets</v>
       </c>
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A895" s="1" t="s">
-        <v>1630</v>
+        <v>1547</v>
       </c>
       <c r="B895" s="4" t="s">
-        <v>1631</v>
+        <v>1548</v>
       </c>
       <c r="C895" s="4" t="s">
-        <v>1632</v>
+        <v>1549</v>
       </c>
       <c r="D895">
-        <v>18045003</v>
+        <v>18024006</v>
       </c>
       <c r="E895" s="3" t="str">
         <f>VLOOKUP(D895,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Personal Care: Spas</v>
+        <v>Service: Home Improvement: Pools and Spas</v>
       </c>
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A896" s="1" t="s">
-        <v>1633</v>
+        <v>1550</v>
       </c>
       <c r="B896" s="4" t="s">
-        <v>2495</v>
+        <v>1551</v>
       </c>
       <c r="C896" s="4" t="s">
-        <v>1634</v>
+        <v>1552</v>
       </c>
       <c r="D896">
         <v>18045000</v>
@@ -24559,1639 +24727,2662 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A897" s="1" t="s">
-        <v>1635</v>
+        <v>1553</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>1636</v>
+        <v>1554</v>
       </c>
       <c r="C897" s="4" t="s">
-        <v>1636</v>
+        <v>1554</v>
       </c>
       <c r="D897">
-        <v>18001010</v>
+        <v>17025000</v>
       </c>
       <c r="E897" s="3" t="str">
         <f>VLOOKUP(D897,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Advertising Agencies and Media Buyers</v>
+        <v>Recreation: Outdoors</v>
       </c>
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A898" s="1" t="s">
-        <v>1637</v>
+        <v>1555</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>1638</v>
+        <v>1556</v>
       </c>
       <c r="C898" s="4" t="s">
-        <v>1639</v>
+        <v>1557</v>
       </c>
       <c r="D898">
-        <v>18020008</v>
+        <v>19000000</v>
       </c>
       <c r="E898" s="3" t="str">
         <f>VLOOKUP(D898,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Credit Reporting</v>
+        <v>Shops</v>
       </c>
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A899" s="1" t="s">
-        <v>1640</v>
+        <v>1558</v>
       </c>
       <c r="B899" s="4" t="s">
-        <v>1641</v>
+        <v>1559</v>
+      </c>
+      <c r="C899" s="4" t="s">
+        <v>1560</v>
       </c>
       <c r="D899">
-        <v>18008001</v>
+        <v>11000000</v>
       </c>
       <c r="E899" s="3" t="str">
         <f>VLOOKUP(D899,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services: Printing and Publishing</v>
+        <v>Cash Advance</v>
       </c>
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A900" s="1" t="s">
-        <v>1642</v>
+        <v>1561</v>
       </c>
       <c r="B900" s="4" t="s">
-        <v>1643</v>
+        <v>1559</v>
       </c>
       <c r="C900" s="4" t="s">
-        <v>1643</v>
+        <v>1562</v>
       </c>
       <c r="D900">
-        <v>18074000</v>
+        <v>11000000</v>
       </c>
       <c r="E900" s="3" t="str">
         <f>VLOOKUP(D900,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Art and Graphic Design</v>
+        <v>Cash Advance</v>
       </c>
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A901" s="1" t="s">
-        <v>1644</v>
+        <v>1563</v>
       </c>
       <c r="B901" s="4" t="s">
-        <v>1645</v>
+        <v>1564</v>
       </c>
       <c r="C901" s="4" t="s">
-        <v>1646</v>
+        <v>1565</v>
       </c>
       <c r="D901">
-        <v>18008001</v>
+        <v>18020012</v>
       </c>
       <c r="E901" s="3" t="str">
         <f>VLOOKUP(D901,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services: Printing and Publishing</v>
+        <v>Service: Financial: Banking and Finance</v>
       </c>
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A902" s="1" t="s">
-        <v>1647</v>
+        <v>2501</v>
       </c>
       <c r="B902" s="4" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C902" s="4" t="s">
-        <v>1649</v>
+        <v>2502</v>
+      </c>
+      <c r="C902" t="s">
+        <v>2502</v>
       </c>
       <c r="D902">
-        <v>18008000</v>
+        <v>18020012</v>
       </c>
       <c r="E902" s="3" t="str">
         <f>VLOOKUP(D902,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services</v>
+        <v>Service: Financial: Banking and Finance</v>
       </c>
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A903" s="1" t="s">
-        <v>1650</v>
+        <v>1566</v>
       </c>
       <c r="B903" s="4" t="s">
-        <v>1651</v>
+        <v>1567</v>
       </c>
       <c r="C903" s="4" t="s">
-        <v>1652</v>
+        <v>1568</v>
       </c>
       <c r="D903">
-        <v>18024008</v>
+        <v>18020010</v>
       </c>
       <c r="E903" s="3" t="str">
         <f>VLOOKUP(D903,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Home Improvement: Pest Control</v>
+        <v>Service: Financial: Check Cashing</v>
       </c>
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A904" s="1" t="s">
-        <v>1653</v>
+        <v>1569</v>
       </c>
       <c r="B904" s="4" t="s">
-        <v>1654</v>
+        <v>1570</v>
       </c>
       <c r="C904" s="4" t="s">
-        <v>1655</v>
+        <v>1570</v>
       </c>
       <c r="D904">
-        <v>18011000</v>
+        <v>18020003</v>
       </c>
       <c r="E904" s="3" t="str">
         <f>VLOOKUP(D904,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Cleaning</v>
+        <v>Service: Financial: Stock Brokers</v>
       </c>
     </row>
     <row r="905" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A905" s="1" t="s">
-        <v>1656</v>
+        <v>1571</v>
       </c>
       <c r="B905" s="4" t="s">
-        <v>1657</v>
+        <v>1572</v>
       </c>
       <c r="C905" s="4" t="s">
-        <v>1658</v>
+        <v>1573</v>
       </c>
       <c r="D905">
-        <v>18016000</v>
+        <v>18030000</v>
       </c>
       <c r="E905" s="3" t="str">
         <f>VLOOKUP(D905,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Employment Agencies</v>
+        <v>Service: Insurance</v>
       </c>
     </row>
     <row r="906" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A906" s="1" t="s">
-        <v>1659</v>
+        <v>1574</v>
       </c>
       <c r="B906" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C906" s="4" t="s">
-        <v>1661</v>
+        <v>1575</v>
       </c>
       <c r="D906">
-        <v>18059000</v>
+        <v>18030000</v>
       </c>
       <c r="E906" s="3" t="str">
         <f>VLOOKUP(D906,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Software Development</v>
+        <v>Service: Insurance</v>
       </c>
     </row>
     <row r="907" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A907" s="1" t="s">
-        <v>1662</v>
+        <v>1576</v>
       </c>
       <c r="B907" s="4" t="s">
-        <v>1663</v>
+        <v>1577</v>
       </c>
       <c r="C907" s="4" t="s">
-        <v>1663</v>
+        <v>1578</v>
       </c>
       <c r="D907">
-        <v>18012000</v>
+        <v>18030000</v>
       </c>
       <c r="E907" s="3" t="str">
         <f>VLOOKUP(D907,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Computers</v>
+        <v>Service: Insurance</v>
       </c>
     </row>
     <row r="908" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A908" s="1" t="s">
-        <v>1664</v>
+        <v>1579</v>
       </c>
       <c r="B908" s="4" t="s">
-        <v>1665</v>
+        <v>1580</v>
       </c>
       <c r="C908" s="4" t="s">
-        <v>1666</v>
+        <v>1580</v>
       </c>
       <c r="D908">
-        <v>18012001</v>
+        <v>18050003</v>
       </c>
       <c r="E908" s="3" t="str">
         <f>VLOOKUP(D908,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Computers: Maintenance and Repair</v>
+        <v>Service: Real Estate: Real Estate Agents</v>
       </c>
     </row>
     <row r="909" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A909" s="1" t="s">
-        <v>1667</v>
+      <c r="A909">
+        <v>6529</v>
       </c>
       <c r="B909" s="4" t="s">
-        <v>1668</v>
+        <v>2541</v>
       </c>
       <c r="C909" s="4" t="s">
-        <v>1669</v>
+        <v>2541</v>
       </c>
       <c r="D909">
-        <v>18001003</v>
+        <v>21010000</v>
       </c>
       <c r="E909" s="3" t="str">
         <f>VLOOKUP(D909,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Advertising and Marketing: Public Relations</v>
+        <v>Transfer: Third Party</v>
       </c>
     </row>
     <row r="910" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A910" s="1" t="s">
-        <v>1670</v>
+      <c r="A910">
+        <v>6530</v>
       </c>
       <c r="B910" s="4" t="s">
-        <v>1671</v>
+        <v>2542</v>
       </c>
       <c r="C910" s="4" t="s">
-        <v>1672</v>
+        <v>2542</v>
       </c>
       <c r="D910">
-        <v>18057000</v>
+        <v>21010000</v>
       </c>
       <c r="E910" s="3" t="str">
         <f>VLOOKUP(D910,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Security and Safety</v>
+        <v>Transfer: Third Party</v>
       </c>
     </row>
     <row r="911" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A911" s="1" t="s">
-        <v>1673</v>
+      <c r="A911">
+        <v>6531</v>
       </c>
       <c r="B911" s="4" t="s">
-        <v>1674</v>
+        <v>2543</v>
       </c>
       <c r="C911" s="4" t="s">
-        <v>1675</v>
+        <v>2543</v>
       </c>
       <c r="D911">
-        <v>19022000</v>
+        <v>16000000</v>
       </c>
       <c r="E911" s="3" t="str">
         <f>VLOOKUP(D911,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Equipment Rental</v>
+        <v>Payment</v>
       </c>
     </row>
     <row r="912" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A912" s="1" t="s">
-        <v>1676</v>
+      <c r="A912">
+        <v>6532</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>1677</v>
+        <v>2544</v>
       </c>
       <c r="C912" s="4" t="s">
-        <v>1678</v>
+        <v>2544</v>
       </c>
       <c r="D912">
-        <v>18047000</v>
+        <v>16000000</v>
       </c>
       <c r="E912" s="3" t="str">
         <f>VLOOKUP(D912,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Photography</v>
+        <v>Payment</v>
       </c>
     </row>
     <row r="913" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A913" s="1" t="s">
-        <v>1679</v>
+      <c r="A913">
+        <v>6533</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>1680</v>
+        <v>2545</v>
       </c>
       <c r="C913" s="4" t="s">
-        <v>1681</v>
+        <v>2545</v>
       </c>
       <c r="D913">
-        <v>18008000</v>
+        <v>16000000</v>
       </c>
       <c r="E913" s="3" t="str">
         <f>VLOOKUP(D913,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Business Services</v>
+        <v>Payment</v>
       </c>
     </row>
     <row r="914" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A914" s="1" t="s">
-        <v>1682</v>
+      <c r="A914">
+        <v>6534</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>1683</v>
+        <v>2546</v>
       </c>
       <c r="C914" s="4" t="s">
-        <v>1683</v>
+        <v>2546</v>
       </c>
       <c r="D914">
-        <v>22009000</v>
+        <v>21010000</v>
       </c>
       <c r="E914" s="3" t="str">
         <f>VLOOKUP(D914,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Gas Stations</v>
+        <v>Transfer: Third Party</v>
       </c>
     </row>
     <row r="915" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A915" s="1" t="s">
-        <v>1684</v>
+      <c r="A915">
+        <v>6535</v>
       </c>
       <c r="B915" s="4" t="s">
-        <v>1685</v>
+        <v>2547</v>
       </c>
       <c r="C915" s="4" t="s">
-        <v>1686</v>
+        <v>2547</v>
       </c>
       <c r="D915">
-        <v>22005000</v>
+        <v>21010000</v>
       </c>
       <c r="E915" s="3" t="str">
         <f>VLOOKUP(D915,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Car and Truck Rentals</v>
+        <v>Transfer: Third Party</v>
       </c>
     </row>
     <row r="916" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A916" s="1" t="s">
-        <v>1687</v>
+        <v>2492</v>
       </c>
       <c r="B916" s="4" t="s">
-        <v>1688</v>
+        <v>2493</v>
       </c>
       <c r="C916" s="4" t="s">
-        <v>1689</v>
+        <v>2493</v>
       </c>
       <c r="D916">
-        <v>22005000</v>
+        <v>21010000</v>
       </c>
       <c r="E916" s="3" t="str">
         <f>VLOOKUP(D916,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Car and Truck Rentals</v>
+        <v>Transfer: Third Party</v>
       </c>
     </row>
     <row r="917" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A917" s="1" t="s">
-        <v>1690</v>
+      <c r="A917">
+        <v>6537</v>
       </c>
       <c r="B917" s="4" t="s">
-        <v>1691</v>
+        <v>2547</v>
       </c>
       <c r="C917" s="4" t="s">
-        <v>1692</v>
+        <v>2547</v>
       </c>
       <c r="D917">
-        <v>19005003</v>
+        <v>21010000</v>
       </c>
       <c r="E917" s="3" t="str">
         <f>VLOOKUP(D917,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Automotive: RVs and Motor Homes</v>
+        <v>Transfer: Third Party</v>
       </c>
     </row>
     <row r="918" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A918" s="1" t="s">
-        <v>1693</v>
+      <c r="A918">
+        <v>6538</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>1694</v>
+        <v>2547</v>
       </c>
       <c r="C918" s="4" t="s">
-        <v>1695</v>
+        <v>2547</v>
       </c>
       <c r="D918">
-        <v>22013000</v>
+        <v>21010000</v>
       </c>
       <c r="E918" s="3" t="str">
         <f>VLOOKUP(D918,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Travel: Parking</v>
+        <v>Transfer: Third Party</v>
       </c>
     </row>
     <row r="919" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A919" s="1" t="s">
-        <v>1696</v>
+        <v>1886</v>
       </c>
       <c r="B919" s="4" t="s">
-        <v>1697</v>
+        <v>1887</v>
       </c>
       <c r="C919" s="4" t="s">
-        <v>1698</v>
+        <v>1888</v>
       </c>
       <c r="D919">
-        <v>18006003</v>
+        <v>18020010</v>
       </c>
       <c r="E919" s="3" t="str">
         <f>VLOOKUP(D919,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Service: Financial: Check Cashing</v>
       </c>
     </row>
     <row r="920" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A920" s="1" t="s">
-        <v>1699</v>
+        <v>1892</v>
       </c>
       <c r="B920" s="4" t="s">
-        <v>1700</v>
+        <v>1893</v>
       </c>
       <c r="C920" s="4" t="s">
-        <v>1701</v>
+        <v>1893</v>
       </c>
       <c r="D920">
-        <v>18006003</v>
+        <v>10000000</v>
       </c>
       <c r="E920" s="3" t="str">
         <f>VLOOKUP(D920,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Bank Fees</v>
       </c>
     </row>
     <row r="921" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A921" s="1" t="s">
-        <v>1702</v>
+        <v>1581</v>
       </c>
       <c r="B921" s="4" t="s">
-        <v>1703</v>
+        <v>1582</v>
       </c>
       <c r="C921" s="4" t="s">
-        <v>1704</v>
+        <v>1583</v>
       </c>
       <c r="D921">
-        <v>18006003</v>
+        <v>22012003</v>
       </c>
       <c r="E921" s="3" t="str">
         <f>VLOOKUP(D921,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Travel: Lodging: Hotels and Motels</v>
       </c>
     </row>
     <row r="922" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A922" s="1" t="s">
-        <v>1705</v>
+        <v>1584</v>
       </c>
       <c r="B922" s="4" t="s">
-        <v>1706</v>
+        <v>1585</v>
       </c>
       <c r="C922" s="4" t="s">
-        <v>1707</v>
+        <v>1585</v>
       </c>
       <c r="D922">
-        <v>18006003</v>
+        <v>22012002</v>
       </c>
       <c r="E922" s="3" t="str">
         <f>VLOOKUP(D922,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Maintenance and Repair</v>
+        <v>Travel: Lodging: Lodges and Vacation Rentals</v>
       </c>
     </row>
     <row r="923" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A923" s="1" t="s">
-        <v>1708</v>
+        <v>1586</v>
       </c>
       <c r="B923" s="4" t="s">
-        <v>1709</v>
+        <v>1587</v>
       </c>
       <c r="C923" s="4" t="s">
-        <v>1709</v>
+        <v>1588</v>
       </c>
       <c r="D923">
-        <v>18006004</v>
+        <v>17041000</v>
       </c>
       <c r="E923" s="3" t="str">
         <f>VLOOKUP(D923,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Car Wash and Detail</v>
+        <v>Recreation: Sports and Recreation Camps</v>
       </c>
     </row>
     <row r="924" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A924" s="1" t="s">
-        <v>1710</v>
+        <v>1589</v>
       </c>
       <c r="B924" s="4" t="s">
-        <v>1711</v>
+        <v>1590</v>
       </c>
       <c r="C924" s="4" t="s">
-        <v>1711</v>
+        <v>1591</v>
       </c>
       <c r="D924">
-        <v>18006001</v>
+        <v>17007000</v>
       </c>
       <c r="E924" s="3" t="str">
         <f>VLOOKUP(D924,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Automotive: Towing</v>
+        <v>Recreation: Campgrounds and RV Parks</v>
       </c>
     </row>
     <row r="925" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A925" s="1" t="s">
-        <v>1712</v>
+        <v>1592</v>
       </c>
       <c r="B925" s="4" t="s">
-        <v>1713</v>
+        <v>1593</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>1714</v>
+        <v>1594</v>
       </c>
       <c r="D925">
-        <v>19013000</v>
+        <v>18045008</v>
       </c>
       <c r="E925" s="3" t="str">
         <f>VLOOKUP(D925,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics</v>
+        <v>Service: Personal Care: Laundry and Garment Services</v>
       </c>
     </row>
     <row r="926" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A926" s="1" t="s">
-        <v>1715</v>
+        <v>1595</v>
       </c>
       <c r="B926" s="4" t="s">
-        <v>1716</v>
+        <v>1596</v>
       </c>
       <c r="C926" s="4" t="s">
-        <v>1717</v>
+        <v>1597</v>
       </c>
       <c r="D926">
-        <v>18053000</v>
+        <v>18045008</v>
       </c>
       <c r="E926" s="3" t="str">
         <f>VLOOKUP(D926,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Service: Personal Care: Laundry and Garment Services</v>
       </c>
     </row>
     <row r="927" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A927" s="1" t="s">
-        <v>1718</v>
+        <v>1598</v>
       </c>
       <c r="B927" s="4" t="s">
-        <v>1719</v>
+        <v>1599</v>
       </c>
       <c r="C927" s="4" t="s">
-        <v>1720</v>
+        <v>1599</v>
       </c>
       <c r="D927">
-        <v>18053000</v>
+        <v>18045008</v>
       </c>
       <c r="E927" s="3" t="str">
         <f>VLOOKUP(D927,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Service: Personal Care: Laundry and Garment Services</v>
       </c>
     </row>
     <row r="928" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A928" s="1" t="s">
-        <v>1721</v>
+        <v>1600</v>
       </c>
       <c r="B928" s="4" t="s">
-        <v>1722</v>
+        <v>1601</v>
       </c>
       <c r="C928" s="4" t="s">
-        <v>1723</v>
+        <v>1602</v>
       </c>
       <c r="D928">
-        <v>19033000</v>
+        <v>18024025</v>
       </c>
       <c r="E928" s="3" t="str">
         <f>VLOOKUP(D928,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Jewelry and Watches</v>
+        <v>Service: Home Improvement: Carpet and Flooring</v>
       </c>
     </row>
     <row r="929" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A929" s="1" t="s">
-        <v>1724</v>
+        <v>1603</v>
       </c>
       <c r="B929" s="4" t="s">
-        <v>1725</v>
+        <v>1604</v>
       </c>
       <c r="C929" s="4" t="s">
-        <v>1726</v>
+        <v>1604</v>
       </c>
       <c r="D929">
-        <v>18053000</v>
+        <v>18047000</v>
       </c>
       <c r="E929" s="3" t="str">
         <f>VLOOKUP(D929,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Service: Photography</v>
       </c>
     </row>
     <row r="930" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A930" s="1" t="s">
-        <v>1727</v>
+        <v>1605</v>
       </c>
       <c r="B930" s="4" t="s">
-        <v>1728</v>
+        <v>1606</v>
       </c>
       <c r="C930" s="4" t="s">
-        <v>1728</v>
+        <v>1606</v>
       </c>
       <c r="D930">
-        <v>18053000</v>
+        <v>18045009</v>
       </c>
       <c r="E930" s="3" t="str">
         <f>VLOOKUP(D930,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Service: Personal Care: Hair Salons and Barbers</v>
       </c>
     </row>
     <row r="931" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A931" s="1" t="s">
-        <v>1729</v>
+        <v>1607</v>
       </c>
       <c r="B931" s="4" t="s">
-        <v>1730</v>
+        <v>1608</v>
       </c>
       <c r="C931" s="4" t="s">
-        <v>1731</v>
+        <v>1609</v>
       </c>
       <c r="D931">
-        <v>18053000</v>
+        <v>18011000</v>
       </c>
       <c r="E931" s="3" t="str">
         <f>VLOOKUP(D931,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Repair Services</v>
+        <v>Service: Cleaning</v>
       </c>
     </row>
     <row r="932" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A932" s="1" t="s">
-        <v>1894</v>
+        <v>1610</v>
       </c>
       <c r="B932" s="4" t="s">
-        <v>1895</v>
+        <v>1611</v>
       </c>
       <c r="C932" s="4" t="s">
-        <v>1895</v>
+        <v>1612</v>
       </c>
       <c r="D932">
-        <v>17001014</v>
+        <v>18022000</v>
       </c>
       <c r="E932" s="3" t="str">
         <f>VLOOKUP(D932,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+        <v>Service: Funeral Services</v>
       </c>
     </row>
     <row r="933" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A933" s="1" t="s">
-        <v>1732</v>
+        <v>1613</v>
       </c>
       <c r="B933" s="4" t="s">
-        <v>1733</v>
+        <v>1614</v>
       </c>
       <c r="C933" s="4" t="s">
-        <v>1734</v>
+        <v>1615</v>
       </c>
       <c r="D933">
-        <v>18018001</v>
+        <v>18015000</v>
       </c>
       <c r="E933" s="3" t="str">
         <f>VLOOKUP(D933,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Entertainment: Media</v>
+        <v>Service: Dating and Escort</v>
       </c>
     </row>
     <row r="934" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A934" s="1" t="s">
-        <v>1735</v>
+        <v>1616</v>
       </c>
       <c r="B934" s="4" t="s">
-        <v>1736</v>
+        <v>1617</v>
       </c>
       <c r="C934" s="4" t="s">
-        <v>1736</v>
+        <v>1618</v>
       </c>
       <c r="D934">
-        <v>17001009</v>
+        <v>18020001</v>
       </c>
       <c r="E934" s="3" t="str">
         <f>VLOOKUP(D934,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Movie Theatres</v>
+        <v>Service: Financial: Taxes</v>
       </c>
     </row>
     <row r="935" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A935" s="1" t="s">
-        <v>1737</v>
+        <v>1619</v>
       </c>
       <c r="B935" s="4" t="s">
-        <v>1738</v>
+        <v>1620</v>
       </c>
       <c r="C935" s="4" t="s">
-        <v>1738</v>
+        <v>1621</v>
       </c>
       <c r="D935">
-        <v>19036000</v>
+        <v>18014000</v>
       </c>
       <c r="E935" s="3" t="str">
         <f>VLOOKUP(D935,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Music, Video and DVD</v>
+        <v>Service: Credit Counseling and Bankruptcy Services</v>
       </c>
     </row>
     <row r="936" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A936" s="1" t="s">
-        <v>1739</v>
+        <v>1622</v>
       </c>
       <c r="B936" s="4" t="s">
-        <v>1740</v>
+        <v>1623</v>
       </c>
       <c r="C936" s="4" t="s">
-        <v>1741</v>
+        <v>1624</v>
       </c>
       <c r="D936">
-        <v>17001012</v>
+        <v>19053000</v>
       </c>
       <c r="E936" s="3" t="str">
         <f>VLOOKUP(D936,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Dance Halls and Saloons</v>
+        <v>Shops: Wholesale</v>
       </c>
     </row>
     <row r="937" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A937" s="1" t="s">
-        <v>1742</v>
+        <v>1625</v>
       </c>
       <c r="B937" s="4" t="s">
-        <v>1743</v>
+        <v>1626</v>
       </c>
       <c r="C937" s="4" t="s">
-        <v>1744</v>
+        <v>1627</v>
       </c>
       <c r="D937">
-        <v>17001000</v>
+        <v>19016000</v>
       </c>
       <c r="E937" s="3" t="str">
         <f>VLOOKUP(D937,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment</v>
+        <v>Shops: Costumes</v>
       </c>
     </row>
     <row r="938" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A938" s="1" t="s">
-        <v>1745</v>
+        <v>1628</v>
       </c>
       <c r="B938" s="4" t="s">
-        <v>1746</v>
+        <v>1629</v>
       </c>
       <c r="C938" s="4" t="s">
-        <v>1747</v>
+        <v>1629</v>
       </c>
       <c r="D938">
-        <v>17001002</v>
+        <v>18045006</v>
       </c>
       <c r="E938" s="3" t="str">
         <f>VLOOKUP(D938,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Symphony and Opera</v>
+        <v>Service: Personal Care: Massage Clinics and Therapists</v>
       </c>
     </row>
     <row r="939" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A939" s="1" t="s">
-        <v>1748</v>
+        <v>1630</v>
       </c>
       <c r="B939" s="4" t="s">
-        <v>1749</v>
+        <v>1631</v>
       </c>
       <c r="C939" s="4" t="s">
-        <v>1750</v>
+        <v>1632</v>
       </c>
       <c r="D939">
-        <v>17001016</v>
+        <v>18045003</v>
       </c>
       <c r="E939" s="3" t="str">
         <f>VLOOKUP(D939,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Billiards and Pool</v>
+        <v>Service: Personal Care: Spas</v>
       </c>
     </row>
     <row r="940" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A940" s="1" t="s">
-        <v>1751</v>
+        <v>1633</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>1752</v>
+        <v>2495</v>
       </c>
       <c r="C940" s="4" t="s">
-        <v>1752</v>
+        <v>1634</v>
       </c>
       <c r="D940">
-        <v>17001015</v>
+        <v>18045000</v>
       </c>
       <c r="E940" s="3" t="str">
         <f>VLOOKUP(D940,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Bowling</v>
+        <v>Service: Personal Care</v>
       </c>
     </row>
     <row r="941" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A941" s="1" t="s">
-        <v>1753</v>
+        <v>1635</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>1754</v>
+        <v>1636</v>
       </c>
       <c r="C941" s="4" t="s">
-        <v>1755</v>
+        <v>1636</v>
       </c>
       <c r="D941">
-        <v>17042000</v>
+        <v>18001010</v>
       </c>
       <c r="E941" s="3" t="str">
         <f>VLOOKUP(D941,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Service: Advertising and Marketing: Advertising Agencies and Media Buyers</v>
       </c>
     </row>
     <row r="942" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A942" s="1" t="s">
-        <v>1756</v>
+        <v>1637</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>1757</v>
+        <v>1638</v>
       </c>
       <c r="C942" s="4" t="s">
-        <v>1757</v>
+        <v>1639</v>
       </c>
       <c r="D942">
-        <v>17023001</v>
+        <v>18020008</v>
       </c>
       <c r="E942" s="3" t="str">
         <f>VLOOKUP(D942,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Landmarks: Monuments and Memorials</v>
+        <v>Service: Financial: Credit Reporting</v>
       </c>
     </row>
     <row r="943" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A943" s="1" t="s">
-        <v>1758</v>
+        <v>1640</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C943" s="4" t="s">
-        <v>1759</v>
+        <v>1641</v>
       </c>
       <c r="D943">
-        <v>17015000</v>
+        <v>18008001</v>
       </c>
       <c r="E943" s="3" t="str">
         <f>VLOOKUP(D943,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Golf</v>
+        <v>Service: Business Services: Printing and Publishing</v>
       </c>
     </row>
     <row r="944" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A944" s="1" t="s">
-        <v>1760</v>
+        <v>1642</v>
       </c>
       <c r="B944" s="4" t="s">
-        <v>1761</v>
+        <v>1643</v>
       </c>
       <c r="C944" s="4" t="s">
-        <v>1761</v>
+        <v>1643</v>
       </c>
       <c r="D944">
-        <v>19013001</v>
+        <v>18074000</v>
       </c>
       <c r="E944" s="3" t="str">
         <f>VLOOKUP(D944,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Computers and Electronics: Video Games</v>
+        <v>Service: Art and Graphic Design</v>
       </c>
     </row>
     <row r="945" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A945" s="1" t="s">
-        <v>1762</v>
+        <v>1644</v>
       </c>
       <c r="B945" s="4" t="s">
-        <v>1763</v>
+        <v>1645</v>
       </c>
       <c r="C945" s="4" t="s">
-        <v>1764</v>
+        <v>1646</v>
       </c>
       <c r="D945">
-        <v>17001018</v>
+        <v>18008001</v>
       </c>
       <c r="E945" s="3" t="str">
         <f>VLOOKUP(D945,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
+        <v>Service: Business Services: Printing and Publishing</v>
       </c>
     </row>
     <row r="946" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A946" s="1" t="s">
-        <v>1765</v>
+        <v>1647</v>
       </c>
       <c r="B946" s="4" t="s">
-        <v>1766</v>
+        <v>1648</v>
       </c>
       <c r="C946" s="4" t="s">
-        <v>1767</v>
+        <v>1649</v>
       </c>
       <c r="D946">
-        <v>17001014</v>
+        <v>18008000</v>
       </c>
       <c r="E946" s="3" t="str">
         <f>VLOOKUP(D946,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+        <v>Service: Business Services</v>
       </c>
     </row>
     <row r="947" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A947" s="1" t="s">
-        <v>1768</v>
+        <v>1650</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>1769</v>
+        <v>1651</v>
       </c>
       <c r="C947" s="4" t="s">
-        <v>1770</v>
+        <v>1652</v>
       </c>
       <c r="D947">
-        <v>17001018</v>
+        <v>18024008</v>
       </c>
       <c r="E947" s="3" t="str">
         <f>VLOOKUP(D947,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
+        <v>Service: Home Improvement: Pest Control</v>
       </c>
     </row>
     <row r="948" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A948" s="1" t="s">
-        <v>1771</v>
+        <v>1653</v>
       </c>
       <c r="B948" s="4" t="s">
-        <v>1772</v>
+        <v>1654</v>
       </c>
       <c r="C948" s="4" t="s">
-        <v>1773</v>
+        <v>1655</v>
       </c>
       <c r="D948">
-        <v>17042000</v>
+        <v>18011000</v>
       </c>
       <c r="E948" s="3" t="str">
         <f>VLOOKUP(D948,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Service: Cleaning</v>
       </c>
     </row>
     <row r="949" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A949" s="1" t="s">
-        <v>1774</v>
+        <v>1656</v>
       </c>
       <c r="B949" s="4" t="s">
-        <v>1775</v>
+        <v>1657</v>
       </c>
       <c r="C949" s="4" t="s">
-        <v>1776</v>
+        <v>1658</v>
       </c>
       <c r="D949">
-        <v>17001019</v>
+        <v>18016000</v>
       </c>
       <c r="E949" s="3" t="str">
         <f>VLOOKUP(D949,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Arts and Entertainment: Aquarium</v>
+        <v>Service: Employment Agencies</v>
       </c>
     </row>
     <row r="950" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A950" s="1" t="s">
-        <v>1777</v>
+        <v>1659</v>
       </c>
       <c r="B950" s="4" t="s">
-        <v>1778</v>
+        <v>1660</v>
       </c>
       <c r="C950" s="4" t="s">
-        <v>1779</v>
+        <v>1661</v>
       </c>
       <c r="D950">
-        <v>17042000</v>
+        <v>18059000</v>
       </c>
       <c r="E950" s="3" t="str">
         <f>VLOOKUP(D950,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Recreation: Sports Clubs</v>
+        <v>Service: Software Development</v>
       </c>
     </row>
     <row r="951" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A951" s="1" t="s">
-        <v>1780</v>
+        <v>1662</v>
       </c>
       <c r="B951" s="4" t="s">
-        <v>1781</v>
+        <v>1663</v>
       </c>
       <c r="C951" s="4" t="s">
-        <v>1782</v>
+        <v>1663</v>
       </c>
       <c r="D951">
-        <v>14002000</v>
+        <v>18012000</v>
       </c>
       <c r="E951" s="3" t="str">
         <f>VLOOKUP(D951,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Physicians</v>
+        <v>Service: Computers</v>
       </c>
     </row>
     <row r="952" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A952" s="1" t="s">
-        <v>1783</v>
+        <v>1664</v>
       </c>
       <c r="B952" s="4" t="s">
-        <v>1784</v>
+        <v>1665</v>
       </c>
       <c r="C952" s="4" t="s">
-        <v>1785</v>
+        <v>1666</v>
       </c>
       <c r="D952">
-        <v>14001012</v>
+        <v>18012001</v>
       </c>
       <c r="E952" s="3" t="str">
         <f>VLOOKUP(D952,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Dentists</v>
+        <v>Service: Computers: Maintenance and Repair</v>
       </c>
     </row>
     <row r="953" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A953" s="1" t="s">
-        <v>1786</v>
+        <v>1667</v>
       </c>
       <c r="B953" s="4" t="s">
-        <v>1787</v>
+        <v>1668</v>
       </c>
       <c r="C953" s="4" t="s">
-        <v>1787</v>
+        <v>1669</v>
       </c>
       <c r="D953">
-        <v>14001016</v>
+        <v>18001003</v>
       </c>
       <c r="E953" s="3" t="str">
         <f>VLOOKUP(D953,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Alternative Medicine</v>
+        <v>Service: Advertising and Marketing: Public Relations</v>
       </c>
     </row>
     <row r="954" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A954" s="1" t="s">
-        <v>1788</v>
+        <v>1670</v>
       </c>
       <c r="B954" s="4" t="s">
-        <v>1789</v>
+        <v>1671</v>
       </c>
       <c r="C954" s="4" t="s">
-        <v>1789</v>
+        <v>1672</v>
       </c>
       <c r="D954">
-        <v>14001014</v>
+        <v>18057000</v>
       </c>
       <c r="E954" s="3" t="str">
         <f>VLOOKUP(D954,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Chiropractors</v>
+        <v>Service: Security and Safety</v>
       </c>
     </row>
     <row r="955" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A955" s="1" t="s">
-        <v>1790</v>
+        <v>1673</v>
       </c>
       <c r="B955" s="4" t="s">
-        <v>1791</v>
+        <v>1674</v>
       </c>
       <c r="C955" s="4" t="s">
-        <v>1792</v>
+        <v>1675</v>
       </c>
       <c r="D955">
-        <v>14001005</v>
+        <v>19022000</v>
       </c>
       <c r="E955" s="3" t="str">
         <f>VLOOKUP(D955,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Optometrists</v>
+        <v>Shops: Equipment Rental</v>
       </c>
     </row>
     <row r="956" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A956" s="1" t="s">
-        <v>1793</v>
+        <v>1676</v>
       </c>
       <c r="B956" s="4" t="s">
-        <v>1794</v>
+        <v>1677</v>
       </c>
       <c r="C956" s="4" t="s">
-        <v>1795</v>
+        <v>1678</v>
       </c>
       <c r="D956">
-        <v>19029000</v>
+        <v>18047000</v>
       </c>
       <c r="E956" s="3" t="str">
         <f>VLOOKUP(D956,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Glasses and Optometrist</v>
+        <v>Service: Photography</v>
       </c>
     </row>
     <row r="957" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A957" s="1" t="s">
-        <v>1796</v>
+        <v>1679</v>
       </c>
       <c r="B957" s="4" t="s">
-        <v>2496</v>
+        <v>1680</v>
+      </c>
+      <c r="C957" s="4" t="s">
+        <v>1681</v>
       </c>
       <c r="D957">
-        <v>19029000</v>
+        <v>18008000</v>
       </c>
       <c r="E957" s="3" t="str">
         <f>VLOOKUP(D957,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Shops: Glasses and Optometrist</v>
+        <v>Service: Business Services</v>
       </c>
     </row>
     <row r="958" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A958" s="1" t="s">
-        <v>1797</v>
+        <v>1682</v>
       </c>
       <c r="B958" s="4" t="s">
-        <v>1798</v>
+        <v>1683</v>
       </c>
       <c r="C958" s="4" t="s">
-        <v>1799</v>
+        <v>1683</v>
       </c>
       <c r="D958">
-        <v>14001003</v>
+        <v>22009000</v>
       </c>
       <c r="E958" s="3" t="str">
         <f>VLOOKUP(D958,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Podiatrists</v>
+        <v>Travel: Gas Stations</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A959" s="1" t="s">
-        <v>1800</v>
+        <v>1684</v>
       </c>
       <c r="B959" s="4" t="s">
-        <v>1801</v>
+        <v>1685</v>
       </c>
       <c r="C959" s="4" t="s">
-        <v>1802</v>
+        <v>1686</v>
       </c>
       <c r="D959">
-        <v>14001007</v>
+        <v>22005000</v>
       </c>
       <c r="E959" s="3" t="str">
         <f>VLOOKUP(D959,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Nurses</v>
+        <v>Travel: Car and Truck Rentals</v>
       </c>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A960" s="1" t="s">
-        <v>1803</v>
+        <v>1687</v>
       </c>
       <c r="B960" s="4" t="s">
-        <v>1804</v>
+        <v>1688</v>
       </c>
       <c r="C960" s="4" t="s">
-        <v>1804</v>
+        <v>1689</v>
       </c>
       <c r="D960">
-        <v>14001010</v>
+        <v>22005000</v>
       </c>
       <c r="E960" s="3" t="str">
         <f>VLOOKUP(D960,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Hospitals, Clinics and Medical Centers</v>
+        <v>Travel: Car and Truck Rentals</v>
       </c>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A961" s="1" t="s">
-        <v>1805</v>
+        <v>1690</v>
       </c>
       <c r="B961" s="4" t="s">
-        <v>1806</v>
+        <v>1691</v>
       </c>
       <c r="C961" s="4" t="s">
-        <v>1807</v>
+        <v>1692</v>
       </c>
       <c r="D961">
-        <v>14001009</v>
+        <v>19005003</v>
       </c>
       <c r="E961" s="3" t="str">
         <f>VLOOKUP(D961,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services: Medical Supplies and Labs</v>
+        <v>Shops: Automotive: RVs and Motor Homes</v>
       </c>
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A962" s="1" t="s">
-        <v>1808</v>
+        <v>1693</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>1809</v>
+        <v>1694</v>
       </c>
       <c r="C962" s="4" t="s">
-        <v>1810</v>
+        <v>1695</v>
       </c>
       <c r="D962">
-        <v>14001000</v>
+        <v>22013000</v>
       </c>
       <c r="E962" s="3" t="str">
         <f>VLOOKUP(D962,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Healthcare: Healthcare Services</v>
+        <v>Travel: Parking</v>
       </c>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A963" s="1" t="s">
-        <v>1811</v>
+      <c r="A963">
+        <v>7524</v>
       </c>
       <c r="B963" s="4" t="s">
-        <v>1812</v>
+        <v>2548</v>
       </c>
       <c r="C963" s="4" t="s">
-        <v>1813</v>
+        <v>2548</v>
       </c>
       <c r="D963">
-        <v>18033000</v>
+        <v>22013000</v>
       </c>
       <c r="E963" s="3" t="str">
         <f>VLOOKUP(D963,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Legal</v>
+        <v>Travel: Parking</v>
       </c>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A964" s="1" t="s">
-        <v>1814</v>
+        <v>1696</v>
       </c>
       <c r="B964" s="4" t="s">
-        <v>1815</v>
+        <v>1697</v>
       </c>
       <c r="C964" s="4" t="s">
-        <v>1816</v>
+        <v>1698</v>
       </c>
       <c r="D964">
-        <v>12008003</v>
+        <v>18006003</v>
       </c>
       <c r="E964" s="3" t="str">
         <f>VLOOKUP(D964,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A965" s="1" t="s">
-        <v>1817</v>
+        <v>1699</v>
       </c>
       <c r="B965" s="4" t="s">
-        <v>1818</v>
+        <v>1700</v>
       </c>
       <c r="C965" s="4" t="s">
-        <v>1819</v>
+        <v>1701</v>
       </c>
       <c r="D965">
-        <v>12008003</v>
+        <v>18006003</v>
       </c>
       <c r="E965" s="3" t="str">
         <f>VLOOKUP(D965,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A966" s="1" t="s">
-        <v>1820</v>
+        <v>1702</v>
       </c>
       <c r="B966" s="4" t="s">
-        <v>1821</v>
+        <v>1703</v>
       </c>
       <c r="C966" s="4" t="s">
-        <v>1821</v>
+        <v>1704</v>
       </c>
       <c r="D966">
-        <v>12008003</v>
+        <v>18006003</v>
       </c>
       <c r="E966" s="3" t="str">
         <f>VLOOKUP(D966,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A967" s="1" t="s">
-        <v>1822</v>
+        <v>1705</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>1823</v>
+        <v>1706</v>
       </c>
       <c r="C967" s="4" t="s">
-        <v>1824</v>
+        <v>1707</v>
       </c>
       <c r="D967">
-        <v>12008003</v>
+        <v>18006003</v>
       </c>
       <c r="E967" s="3" t="str">
         <f>VLOOKUP(D967,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Primary and Secondary Schools</v>
+        <v>Service: Automotive: Maintenance and Repair</v>
       </c>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A968" s="1" t="s">
-        <v>1825</v>
+        <v>1708</v>
       </c>
       <c r="B968" s="4" t="s">
-        <v>1826</v>
+        <v>1709</v>
       </c>
       <c r="C968" s="4" t="s">
-        <v>1827</v>
+        <v>1709</v>
       </c>
       <c r="D968">
-        <v>12008001</v>
+        <v>18006004</v>
       </c>
       <c r="E968" s="3" t="str">
         <f>VLOOKUP(D968,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education: Vocational Schools</v>
+        <v>Service: Automotive: Car Wash and Detail</v>
       </c>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A969" s="1" t="s">
-        <v>1828</v>
+        <v>1710</v>
       </c>
       <c r="B969" s="4" t="s">
-        <v>1829</v>
+        <v>1711</v>
       </c>
       <c r="C969" s="4" t="s">
-        <v>1830</v>
+        <v>1711</v>
       </c>
       <c r="D969">
-        <v>12008000</v>
+        <v>18006001</v>
       </c>
       <c r="E969" s="3" t="str">
         <f>VLOOKUP(D969,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Education</v>
+        <v>Service: Automotive: Towing</v>
       </c>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A970" s="1" t="s">
-        <v>1831</v>
+        <v>1712</v>
       </c>
       <c r="B970" s="4" t="s">
-        <v>1832</v>
+        <v>1713</v>
       </c>
       <c r="C970" s="4" t="s">
-        <v>1832</v>
+        <v>1714</v>
       </c>
       <c r="D970">
-        <v>12005000</v>
+        <v>19013000</v>
       </c>
       <c r="E970" s="3" t="str">
         <f>VLOOKUP(D970,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Day Care and Preschools</v>
+        <v>Shops: Computers and Electronics</v>
       </c>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A971" s="1" t="s">
-        <v>1833</v>
+        <v>1715</v>
       </c>
       <c r="B971" s="4" t="s">
-        <v>1834</v>
+        <v>1716</v>
       </c>
       <c r="C971" s="4" t="s">
-        <v>1835</v>
+        <v>1717</v>
       </c>
       <c r="D971">
-        <v>12015003</v>
+        <v>18053000</v>
       </c>
       <c r="E971" s="3" t="str">
         <f>VLOOKUP(D971,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations: Charities and Non-Profits</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A972" s="1" t="s">
-        <v>1836</v>
+        <v>1718</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>1837</v>
+        <v>1719</v>
       </c>
       <c r="C972" s="4" t="s">
-        <v>1838</v>
+        <v>1720</v>
       </c>
       <c r="D972">
-        <v>12015000</v>
+        <v>18053000</v>
       </c>
       <c r="E972" s="3" t="str">
         <f>VLOOKUP(D972,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A973" s="1" t="s">
-        <v>1839</v>
+        <v>1721</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>1840</v>
+        <v>1722</v>
       </c>
       <c r="C973" s="4" t="s">
-        <v>1840</v>
+        <v>1723</v>
       </c>
       <c r="D973">
-        <v>12015000</v>
+        <v>19033000</v>
       </c>
       <c r="E973" s="3" t="str">
         <f>VLOOKUP(D973,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Shops: Jewelry and Watches</v>
       </c>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A974" s="1" t="s">
-        <v>1841</v>
+        <v>1724</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>1842</v>
+        <v>1725</v>
       </c>
       <c r="C974" s="4" t="s">
-        <v>1842</v>
+        <v>1726</v>
       </c>
       <c r="D974">
-        <v>12018000</v>
+        <v>18053000</v>
       </c>
       <c r="E974" s="3" t="str">
         <f>VLOOKUP(D974,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Religious</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A975" s="1" t="s">
-        <v>1843</v>
+        <v>1727</v>
       </c>
       <c r="B975" s="4" t="s">
-        <v>1844</v>
+        <v>1728</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>1844</v>
+        <v>1728</v>
       </c>
       <c r="D975">
-        <v>12015000</v>
+        <v>18053000</v>
       </c>
       <c r="E975" s="3" t="str">
         <f>VLOOKUP(D975,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A976" s="1" t="s">
-        <v>1845</v>
+        <v>1729</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>1846</v>
+        <v>1730</v>
       </c>
       <c r="C976" s="4" t="s">
-        <v>1847</v>
+        <v>1731</v>
       </c>
       <c r="D976">
-        <v>12015000</v>
+        <v>18053000</v>
       </c>
       <c r="E976" s="3" t="str">
         <f>VLOOKUP(D976,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Organizations and Associations</v>
+        <v>Service: Repair Services</v>
       </c>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A977" s="1" t="s">
-        <v>1848</v>
+      <c r="A977">
+        <v>7778</v>
       </c>
       <c r="B977" s="4" t="s">
-        <v>1849</v>
+        <v>2549</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>1850</v>
+        <v>2549</v>
       </c>
       <c r="D977">
-        <v>18054000</v>
+        <v>10008000</v>
       </c>
       <c r="E977" s="3" t="str">
         <f>VLOOKUP(D977,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Research</v>
+        <v>Bank Fees: Cash Advance</v>
       </c>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A978" s="1" t="s">
-        <v>1851</v>
+        <v>1894</v>
       </c>
       <c r="B978" s="4" t="s">
-        <v>1852</v>
+        <v>1895</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>1853</v>
+        <v>1895</v>
       </c>
       <c r="D978">
-        <v>18050007</v>
+        <v>17001014</v>
       </c>
       <c r="E978" s="3" t="str">
         <f>VLOOKUP(D978,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Real Estate: Building and Land Surveyors</v>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
       </c>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A979" s="1" t="s">
-        <v>1854</v>
+      <c r="A979">
+        <v>7801</v>
       </c>
       <c r="B979" s="4" t="s">
-        <v>1855</v>
+        <v>2550</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>1856</v>
+        <v>2550</v>
       </c>
       <c r="D979">
-        <v>18020014</v>
+        <v>17001014</v>
       </c>
       <c r="E979" s="3" t="str">
         <f>VLOOKUP(D979,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service: Financial: Accounting and Bookkeeping</v>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
       </c>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A980" s="1" t="s">
-        <v>1857</v>
+      <c r="A980">
+        <v>7802</v>
       </c>
       <c r="B980" s="4" t="s">
-        <v>1858</v>
+        <v>2551</v>
       </c>
       <c r="C980" s="4" t="s">
-        <v>1859</v>
+        <v>2551</v>
       </c>
       <c r="D980">
-        <v>18000000</v>
+        <v>17001014</v>
       </c>
       <c r="E980" s="3" t="str">
         <f>VLOOKUP(D980,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Service</v>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
       </c>
     </row>
     <row r="981" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A981" s="1" t="s">
-        <v>1860</v>
+        <v>1732</v>
       </c>
       <c r="B981" s="4" t="s">
-        <v>1861</v>
+        <v>1733</v>
       </c>
       <c r="C981" s="4" t="s">
-        <v>1862</v>
+        <v>1734</v>
       </c>
       <c r="D981">
-        <v>12004000</v>
+        <v>18018001</v>
       </c>
       <c r="E981" s="3" t="str">
         <f>VLOOKUP(D981,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Courts</v>
+        <v>Service: Entertainment: Media</v>
       </c>
     </row>
     <row r="982" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A982" s="1" t="s">
-        <v>1863</v>
+        <v>1735</v>
       </c>
       <c r="B982" s="4" t="s">
-        <v>1864</v>
+        <v>1736</v>
       </c>
       <c r="C982" s="4" t="s">
-        <v>1865</v>
+        <v>1736</v>
       </c>
       <c r="D982">
-        <v>12009000</v>
+        <v>17001009</v>
       </c>
       <c r="E982" s="3" t="str">
         <f>VLOOKUP(D982,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Government Departments and Agencies</v>
+        <v>Recreation: Arts and Entertainment: Movie Theatres</v>
       </c>
     </row>
     <row r="983" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A983" s="1" t="s">
-        <v>1866</v>
+        <v>1737</v>
       </c>
       <c r="B983" s="4" t="s">
-        <v>1867</v>
+        <v>1738</v>
       </c>
       <c r="C983" s="4" t="s">
-        <v>1868</v>
+        <v>1738</v>
       </c>
       <c r="D983">
-        <v>12004000</v>
+        <v>19036000</v>
       </c>
       <c r="E983" s="3" t="str">
         <f>VLOOKUP(D983,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Courts</v>
+        <v>Shops: Music, Video and DVD</v>
       </c>
     </row>
     <row r="984" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A984" s="1" t="s">
-        <v>1869</v>
+        <v>1739</v>
       </c>
       <c r="B984" s="4" t="s">
-        <v>1870</v>
+        <v>1740</v>
       </c>
       <c r="C984" s="4" t="s">
-        <v>1871</v>
+        <v>1741</v>
       </c>
       <c r="D984">
-        <v>20000000</v>
+        <v>17001012</v>
       </c>
       <c r="E984" s="3" t="str">
         <f>VLOOKUP(D984,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Tax</v>
+        <v>Recreation: Arts and Entertainment: Dance Halls and Saloons</v>
       </c>
     </row>
     <row r="985" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A985" s="1" t="s">
-        <v>1872</v>
+        <v>1742</v>
       </c>
       <c r="B985" s="4" t="s">
-        <v>1873</v>
+        <v>1743</v>
       </c>
       <c r="C985" s="4" t="s">
-        <v>1874</v>
+        <v>1744</v>
       </c>
       <c r="D985">
-        <v>12009000</v>
+        <v>17001000</v>
       </c>
       <c r="E985" s="3" t="str">
         <f>VLOOKUP(D985,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Government Departments and Agencies</v>
+        <v>Recreation: Arts and Entertainment</v>
       </c>
     </row>
     <row r="986" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A986" s="1" t="s">
-        <v>1875</v>
+        <v>1745</v>
       </c>
       <c r="B986" s="4" t="s">
-        <v>1876</v>
+        <v>1746</v>
       </c>
       <c r="C986" s="4" t="s">
-        <v>1876</v>
+        <v>1747</v>
       </c>
       <c r="D986">
-        <v>12016000</v>
+        <v>17001002</v>
       </c>
       <c r="E986" s="3" t="str">
         <f>VLOOKUP(D986,Linked_fi_categories!$A:$C,3,TRUE)</f>
-        <v>Community: Post Offices</v>
+        <v>Recreation: Arts and Entertainment: Symphony and Opera</v>
       </c>
     </row>
     <row r="987" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A987" s="1" t="s">
-        <v>1877</v>
+        <v>1748</v>
       </c>
       <c r="B987" s="4" t="s">
-        <v>1878</v>
+        <v>1749</v>
       </c>
       <c r="C987" s="4" t="s">
-        <v>1879</v>
+        <v>1750</v>
       </c>
       <c r="D987">
-        <v>12009000</v>
+        <v>17001016</v>
       </c>
       <c r="E987" s="3" t="str">
         <f>VLOOKUP(D987,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Arts and Entertainment: Billiards and Pool</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A988" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C988" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D988">
+        <v>17001015</v>
+      </c>
+      <c r="E988" s="3" t="str">
+        <f>VLOOKUP(D988,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Arts and Entertainment: Bowling</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A989" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C989" s="4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D989">
+        <v>17042000</v>
+      </c>
+      <c r="E989" s="3" t="str">
+        <f>VLOOKUP(D989,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Sports Clubs</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A990" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C990" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D990">
+        <v>17023001</v>
+      </c>
+      <c r="E990" s="3" t="str">
+        <f>VLOOKUP(D990,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Landmarks: Monuments and Memorials</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A991" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C991" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D991">
+        <v>17015000</v>
+      </c>
+      <c r="E991" s="3" t="str">
+        <f>VLOOKUP(D991,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Golf</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A992" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C992" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D992">
+        <v>19013001</v>
+      </c>
+      <c r="E992" s="3" t="str">
+        <f>VLOOKUP(D992,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Shops: Computers and Electronics: Video Games</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A993" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C993" s="4" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D993">
+        <v>17001018</v>
+      </c>
+      <c r="E993" s="3" t="str">
+        <f>VLOOKUP(D993,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A994" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C994" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D994">
+        <v>17001014</v>
+      </c>
+      <c r="E994" s="3" t="str">
+        <f>VLOOKUP(D994,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A995" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C995" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D995">
+        <v>17001018</v>
+      </c>
+      <c r="E995" s="3" t="str">
+        <f>VLOOKUP(D995,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Arts and Entertainment: Arcades and Amusement Parks</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A996" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C996" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D996">
+        <v>17042000</v>
+      </c>
+      <c r="E996" s="3" t="str">
+        <f>VLOOKUP(D996,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Sports Clubs</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A997" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C997" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D997">
+        <v>17001019</v>
+      </c>
+      <c r="E997" s="3" t="str">
+        <f>VLOOKUP(D997,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Arts and Entertainment: Aquarium</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A998" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C998" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D998">
+        <v>17042000</v>
+      </c>
+      <c r="E998" s="3" t="str">
+        <f>VLOOKUP(D998,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Sports Clubs</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A999" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C999" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D999">
+        <v>14002000</v>
+      </c>
+      <c r="E999" s="3" t="str">
+        <f>VLOOKUP(D999,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Physicians</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1000" s="1" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C1000" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D1000">
+        <v>14001012</v>
+      </c>
+      <c r="E1000" s="3" t="str">
+        <f>VLOOKUP(D1000,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Dentists</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C1001" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D1001">
+        <v>14001016</v>
+      </c>
+      <c r="E1001" s="3" t="str">
+        <f>VLOOKUP(D1001,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Alternative Medicine</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1002" s="4" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1002">
+        <v>14001014</v>
+      </c>
+      <c r="E1002" s="3" t="str">
+        <f>VLOOKUP(D1002,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Chiropractors</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C1003" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D1003">
+        <v>14001005</v>
+      </c>
+      <c r="E1003" s="3" t="str">
+        <f>VLOOKUP(D1003,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Optometrists</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1004" s="4" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D1004">
+        <v>19029000</v>
+      </c>
+      <c r="E1004" s="3" t="str">
+        <f>VLOOKUP(D1004,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Shops: Glasses and Optometrist</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D1005">
+        <v>19029000</v>
+      </c>
+      <c r="E1005" s="3" t="str">
+        <f>VLOOKUP(D1005,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Shops: Glasses and Optometrist</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1006" s="4" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1006">
+        <v>14001003</v>
+      </c>
+      <c r="E1006" s="3" t="str">
+        <f>VLOOKUP(D1006,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Podiatrists</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C1007" s="4" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D1007">
+        <v>14001007</v>
+      </c>
+      <c r="E1007" s="3" t="str">
+        <f>VLOOKUP(D1007,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Nurses</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1008" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1008" s="4" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D1008">
+        <v>14001010</v>
+      </c>
+      <c r="E1008" s="3" t="str">
+        <f>VLOOKUP(D1008,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Hospitals, Clinics and Medical Centers</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1009" s="4" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D1009">
+        <v>14001009</v>
+      </c>
+      <c r="E1009" s="3" t="str">
+        <f>VLOOKUP(D1009,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Medical Supplies and Labs</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1010" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1010" s="4" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D1010">
+        <v>14001000</v>
+      </c>
+      <c r="E1010" s="3" t="str">
+        <f>VLOOKUP(D1010,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1011" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1011" s="4" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D1011">
+        <v>18033000</v>
+      </c>
+      <c r="E1011" s="3" t="str">
+        <f>VLOOKUP(D1011,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Service: Legal</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1012" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1012" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D1012">
+        <v>12008003</v>
+      </c>
+      <c r="E1012" s="3" t="str">
+        <f>VLOOKUP(D1012,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Education: Primary and Secondary Schools</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1013" s="1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1013" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D1013">
+        <v>12008003</v>
+      </c>
+      <c r="E1013" s="3" t="str">
+        <f>VLOOKUP(D1013,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Education: Primary and Secondary Schools</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1014" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1014" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D1014">
+        <v>12008003</v>
+      </c>
+      <c r="E1014" s="3" t="str">
+        <f>VLOOKUP(D1014,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Education: Primary and Secondary Schools</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1015" s="4" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C1015" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D1015">
+        <v>12008003</v>
+      </c>
+      <c r="E1015" s="3" t="str">
+        <f>VLOOKUP(D1015,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Education: Primary and Secondary Schools</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1016" s="4" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1016" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D1016">
+        <v>12008001</v>
+      </c>
+      <c r="E1016" s="3" t="str">
+        <f>VLOOKUP(D1016,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Education: Vocational Schools</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1017" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C1017" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D1017">
+        <v>12008000</v>
+      </c>
+      <c r="E1017" s="3" t="str">
+        <f>VLOOKUP(D1017,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Education</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1018" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1018" s="4" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D1018">
+        <v>12005000</v>
+      </c>
+      <c r="E1018" s="3" t="str">
+        <f>VLOOKUP(D1018,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Day Care and Preschools</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1019" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1019" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D1019">
+        <v>12015003</v>
+      </c>
+      <c r="E1019" s="3" t="str">
+        <f>VLOOKUP(D1019,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Organizations and Associations: Charities and Non-Profits</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1020" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C1020" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D1020">
+        <v>12015000</v>
+      </c>
+      <c r="E1020" s="3" t="str">
+        <f>VLOOKUP(D1020,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Organizations and Associations</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1021" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1021" s="4" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D1021">
+        <v>12015000</v>
+      </c>
+      <c r="E1021" s="3" t="str">
+        <f>VLOOKUP(D1021,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Organizations and Associations</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1022" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1022" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D1022">
+        <v>12018000</v>
+      </c>
+      <c r="E1022" s="3" t="str">
+        <f>VLOOKUP(D1022,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Religious</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1023" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1023" s="4" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D1023">
+        <v>12015000</v>
+      </c>
+      <c r="E1023" s="3" t="str">
+        <f>VLOOKUP(D1023,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Organizations and Associations</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1024" s="4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1024" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D1024">
+        <v>12015000</v>
+      </c>
+      <c r="E1024" s="3" t="str">
+        <f>VLOOKUP(D1024,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Organizations and Associations</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1025" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1025" s="4" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D1025">
+        <v>18054000</v>
+      </c>
+      <c r="E1025" s="3" t="str">
+        <f>VLOOKUP(D1025,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Service: Research</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1026" s="4" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1026" s="4" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D1026">
+        <v>18050007</v>
+      </c>
+      <c r="E1026" s="3" t="str">
+        <f>VLOOKUP(D1026,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Service: Real Estate: Building and Land Surveyors</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1027" s="4" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C1027" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D1027">
+        <v>18020014</v>
+      </c>
+      <c r="E1027" s="3" t="str">
+        <f>VLOOKUP(D1027,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Service: Financial: Accounting and Bookkeeping</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1028" s="4" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1028" s="4" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D1028">
+        <v>18000000</v>
+      </c>
+      <c r="E1028" s="3" t="str">
+        <f>VLOOKUP(D1028,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Service</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1029" s="4" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C1029" s="4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D1029">
+        <v>12004000</v>
+      </c>
+      <c r="E1029" s="3" t="str">
+        <f>VLOOKUP(D1029,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Courts</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1030" s="4" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1030" s="4" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1030">
+        <v>12009000</v>
+      </c>
+      <c r="E1030" s="3" t="str">
+        <f>VLOOKUP(D1030,Linked_fi_categories!$A:$C,3,TRUE)</f>
         <v>Community: Government Departments and Agencies</v>
       </c>
     </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1031" s="4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1031" s="4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D1031">
+        <v>12004000</v>
+      </c>
+      <c r="E1031" s="3" t="str">
+        <f>VLOOKUP(D1031,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Courts</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1032" s="4" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C1032" s="4" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D1032">
+        <v>20000000</v>
+      </c>
+      <c r="E1032" s="3" t="str">
+        <f>VLOOKUP(D1032,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Tax</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1033" s="4" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1033" s="4" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D1033">
+        <v>12009000</v>
+      </c>
+      <c r="E1033" s="3" t="str">
+        <f>VLOOKUP(D1033,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Government Departments and Agencies</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>9401</v>
+      </c>
+      <c r="B1034" s="4" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C1034" s="4" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D1034">
+        <v>19019000</v>
+      </c>
+      <c r="E1034" s="3" t="str">
+        <f>VLOOKUP(D1034,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Shops: Digital Purchase</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1035" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1035" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D1035">
+        <v>12016000</v>
+      </c>
+      <c r="E1035" s="3" t="str">
+        <f>VLOOKUP(D1035,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Post Offices</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1036" s="4" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1036" s="4" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D1036">
+        <v>12009000</v>
+      </c>
+      <c r="E1036" s="3" t="str">
+        <f>VLOOKUP(D1036,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Community: Government Departments and Agencies</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>9700</v>
+      </c>
+      <c r="B1037" s="4" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C1037" s="4" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D1037">
+        <v>18020000</v>
+      </c>
+      <c r="E1037" s="3" t="str">
+        <f>VLOOKUP(D1037,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Service: Financial</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>9701</v>
+      </c>
+      <c r="B1038" s="4" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C1038" s="4" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D1038">
+        <v>18020000</v>
+      </c>
+      <c r="E1038" s="3" t="str">
+        <f>VLOOKUP(D1038,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Service: Financial</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>9702</v>
+      </c>
+      <c r="B1039" s="4" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1039" s="4" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D1039">
+        <v>14001011</v>
+      </c>
+      <c r="E1039" s="3" t="str">
+        <f>VLOOKUP(D1039,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Healthcare: Healthcare Services: Emergency Services</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>9751</v>
+      </c>
+      <c r="B1040" s="4" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1040" s="4" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D1040">
+        <v>19047000</v>
+      </c>
+      <c r="E1040" s="3" t="str">
+        <f>VLOOKUP(D1040,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Shops: Supermarkets and Groceries</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>9752</v>
+      </c>
+      <c r="B1041" s="4" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C1041" s="4" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D1041">
+        <v>22009000</v>
+      </c>
+      <c r="E1041" s="3" t="str">
+        <f>VLOOKUP(D1041,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Travel: Gas Stations</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>9753</v>
+      </c>
+      <c r="B1042" s="4" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C1042" s="4" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D1042">
+        <v>19013000</v>
+      </c>
+      <c r="E1042" s="3" t="str">
+        <f>VLOOKUP(D1042,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Shops: Computers and Electronics</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>9754</v>
+      </c>
+      <c r="B1043" s="4" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C1043" s="4" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D1043">
+        <v>17001014</v>
+      </c>
+      <c r="E1043" s="3" t="str">
+        <f>VLOOKUP(D1043,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Recreation: Arts and Entertainment: Casinos and Gaming</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>9950</v>
+      </c>
+      <c r="B1044" s="4" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C1044" s="4" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D1044">
+        <v>21001000</v>
+      </c>
+      <c r="E1044" s="3" t="str">
+        <f>VLOOKUP(D1044,Linked_fi_categories!$A:$C,3,TRUE)</f>
+        <v>Transfer: Internal Account Transfer</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:E987">
-    <sortCondition ref="A3:A987"/>
+  <sortState ref="A2:E1044">
+    <sortCondition ref="A2:A1044"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -26202,8 +27393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C604"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26696,7 +27887,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>12015000</v>
       </c>
@@ -26707,7 +27898,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>12015001</v>
       </c>
@@ -26718,7 +27909,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>12015002</v>
       </c>
@@ -26729,7 +27920,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>12015003</v>
       </c>
@@ -26740,7 +27931,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>12016000</v>
       </c>
@@ -26751,7 +27942,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>12017000</v>
       </c>
@@ -26762,7 +27953,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>12018000</v>
       </c>
@@ -26773,7 +27964,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>12018001</v>
       </c>
@@ -26784,7 +27975,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>12018002</v>
       </c>
@@ -26795,7 +27986,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>12018003</v>
       </c>
@@ -26806,7 +27997,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>12018004</v>
       </c>
@@ -26817,7 +28008,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>12019000</v>
       </c>
@@ -26828,7 +28019,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12019001</v>
       </c>
@@ -26850,7 +28041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>13001000</v>
       </c>
@@ -26861,7 +28052,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>13001001</v>
       </c>
@@ -26872,7 +28063,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>13001002</v>
       </c>
@@ -26883,7 +28074,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>13001003</v>
       </c>
@@ -26894,7 +28085,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>13002000</v>
       </c>
@@ -26905,7 +28096,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>13003000</v>
       </c>
@@ -26916,7 +28107,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>13004000</v>
       </c>
@@ -26927,7 +28118,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>13004001</v>
       </c>
@@ -26938,7 +28129,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>13004002</v>
       </c>
@@ -26949,7 +28140,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>13004003</v>
       </c>
@@ -26960,7 +28151,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>13004004</v>
       </c>
@@ -26971,7 +28162,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>13004005</v>
       </c>
@@ -26982,7 +28173,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>13004006</v>
       </c>
@@ -26993,7 +28184,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>13005000</v>
       </c>
@@ -27004,7 +28195,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>13005001</v>
       </c>
@@ -27015,7 +28206,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>13005002</v>
       </c>
@@ -27026,7 +28217,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>13005003</v>
       </c>
@@ -27037,7 +28228,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>13005004</v>
       </c>
@@ -27048,7 +28239,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>13005005</v>
       </c>
@@ -27059,7 +28250,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>13005006</v>
       </c>
@@ -27070,7 +28261,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>13005007</v>
       </c>
@@ -27081,7 +28272,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>13005008</v>
       </c>
@@ -27092,7 +28283,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>13005009</v>
       </c>
@@ -27103,7 +28294,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>13005010</v>
       </c>
@@ -27114,7 +28305,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>13005011</v>
       </c>
@@ -27125,7 +28316,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>13005012</v>
       </c>
@@ -27136,7 +28327,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>13005013</v>
       </c>
@@ -27147,7 +28338,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>13005014</v>
       </c>
@@ -27158,7 +28349,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>13005015</v>
       </c>
@@ -27169,7 +28360,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>13005016</v>
       </c>
@@ -27180,7 +28371,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>13005017</v>
       </c>
@@ -27191,7 +28382,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>13005018</v>
       </c>
@@ -27202,7 +28393,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>13005019</v>
       </c>
@@ -27213,7 +28404,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>13005020</v>
       </c>
@@ -27224,7 +28415,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>13005021</v>
       </c>
@@ -27235,7 +28426,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>13005022</v>
       </c>
@@ -27246,7 +28437,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>13005023</v>
       </c>
@@ -27257,7 +28448,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>13005024</v>
       </c>
@@ -27268,7 +28459,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>13005025</v>
       </c>
@@ -27279,7 +28470,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>13005026</v>
       </c>
@@ -27290,7 +28481,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>13005027</v>
       </c>
@@ -27301,7 +28492,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>13005028</v>
       </c>
@@ -27312,7 +28503,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>13005029</v>
       </c>
@@ -27323,7 +28514,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>13005030</v>
       </c>
@@ -27334,7 +28525,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>13005031</v>
       </c>
@@ -27345,7 +28536,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>13005032</v>
       </c>
@@ -27356,7 +28547,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>13005033</v>
       </c>
@@ -27367,7 +28558,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>13005034</v>
       </c>
@@ -27378,7 +28569,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>13005035</v>
       </c>
@@ -27389,7 +28580,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>13005036</v>
       </c>
@@ -27400,7 +28591,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>13005037</v>
       </c>
@@ -27411,7 +28602,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>13005038</v>
       </c>
@@ -27422,7 +28613,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>13005039</v>
       </c>
@@ -27433,7 +28624,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>13005040</v>
       </c>
@@ -27444,7 +28635,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>13005041</v>
       </c>
@@ -27455,7 +28646,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>13005042</v>
       </c>
@@ -27466,7 +28657,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>13005043</v>
       </c>
@@ -27477,7 +28668,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>13005044</v>
       </c>
@@ -27488,7 +28679,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>13005045</v>
       </c>
@@ -27499,7 +28690,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>13005046</v>
       </c>
@@ -27510,7 +28701,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>13005047</v>
       </c>
@@ -27521,7 +28712,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>13005048</v>
       </c>
@@ -27532,7 +28723,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>13005049</v>
       </c>
@@ -27543,7 +28734,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>13005050</v>
       </c>
@@ -27554,7 +28745,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>13005051</v>
       </c>
@@ -27565,7 +28756,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>13005052</v>
       </c>
@@ -27576,7 +28767,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>13005053</v>
       </c>
@@ -27587,7 +28778,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>13005054</v>
       </c>
@@ -27598,7 +28789,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>13005055</v>
       </c>
@@ -27609,7 +28800,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>13005056</v>
       </c>
@@ -27620,7 +28811,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>13005057</v>
       </c>
@@ -27631,7 +28822,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>13005058</v>
       </c>
@@ -27642,7 +28833,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>13005059</v>
       </c>
@@ -27664,7 +28855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>14001000</v>
       </c>
@@ -27675,7 +28866,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>14001001</v>
       </c>
@@ -27686,7 +28877,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>14001002</v>
       </c>
@@ -27697,7 +28888,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>14001003</v>
       </c>
@@ -27708,7 +28899,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>14001004</v>
       </c>
@@ -27719,7 +28910,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>14001005</v>
       </c>
@@ -27730,7 +28921,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>14001006</v>
       </c>
@@ -27741,7 +28932,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>14001007</v>
       </c>
@@ -27752,7 +28943,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>14001008</v>
       </c>
@@ -27763,7 +28954,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>14001009</v>
       </c>
@@ -27774,7 +28965,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>14001010</v>
       </c>
@@ -27785,7 +28976,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>14001011</v>
       </c>
@@ -27796,7 +28987,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>14001012</v>
       </c>
@@ -27807,7 +28998,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>14001013</v>
       </c>
@@ -27818,7 +29009,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>14001014</v>
       </c>
@@ -27829,7 +29020,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>14001015</v>
       </c>
@@ -27840,7 +29031,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>14001016</v>
       </c>
@@ -27851,7 +29042,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>14001017</v>
       </c>
@@ -27862,7 +29053,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>14002000</v>
       </c>
@@ -27873,7 +29064,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>14002001</v>
       </c>
@@ -27884,7 +29075,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>14002002</v>
       </c>
@@ -27895,7 +29086,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>14002003</v>
       </c>
@@ -27906,7 +29097,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>14002004</v>
       </c>
@@ -27917,7 +29108,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>14002005</v>
       </c>
@@ -27928,7 +29119,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>14002006</v>
       </c>
@@ -27939,7 +29130,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>14002007</v>
       </c>
@@ -27950,7 +29141,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>14002008</v>
       </c>
@@ -27961,7 +29152,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>14002009</v>
       </c>
@@ -27972,7 +29163,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>14002010</v>
       </c>
@@ -27983,7 +29174,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>14002011</v>
       </c>
@@ -27994,7 +29185,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>14002012</v>
       </c>
@@ -28005,7 +29196,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>14002013</v>
       </c>
@@ -28016,7 +29207,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>14002014</v>
       </c>
@@ -28027,7 +29218,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>14002015</v>
       </c>
@@ -28038,7 +29229,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>14002016</v>
       </c>
@@ -28049,7 +29240,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>14002017</v>
       </c>
@@ -28060,7 +29251,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>14002018</v>
       </c>
@@ -28071,7 +29262,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>14002019</v>
       </c>
@@ -28082,7 +29273,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>14002020</v>
       </c>
@@ -28104,7 +29295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>15001000</v>
       </c>
@@ -28115,7 +29306,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>15002000</v>
       </c>
@@ -28137,7 +29328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>16001000</v>
       </c>
@@ -28148,7 +29339,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>16002000</v>
       </c>
@@ -28159,7 +29350,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>16003000</v>
       </c>
@@ -28181,7 +29372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>17001000</v>
       </c>
@@ -28192,7 +29383,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>17001001</v>
       </c>
@@ -28203,7 +29394,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>17001002</v>
       </c>
@@ -28214,7 +29405,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>17001003</v>
       </c>
@@ -28225,7 +29416,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>17001004</v>
       </c>
@@ -28236,7 +29427,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>17001005</v>
       </c>
@@ -28247,7 +29438,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>17001006</v>
       </c>
@@ -28258,7 +29449,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>17001007</v>
       </c>
@@ -28269,7 +29460,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>17001008</v>
       </c>
@@ -28280,7 +29471,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>17001009</v>
       </c>
@@ -28291,7 +29482,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>17001010</v>
       </c>
@@ -28302,7 +29493,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>17001011</v>
       </c>
@@ -28313,7 +29504,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>17001012</v>
       </c>
@@ -28324,7 +29515,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>17001013</v>
       </c>
@@ -28335,7 +29526,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>17001014</v>
       </c>
@@ -28346,7 +29537,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>17001015</v>
       </c>
@@ -28357,7 +29548,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>17001016</v>
       </c>
@@ -28368,7 +29559,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>17001017</v>
       </c>
@@ -28379,7 +29570,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>17001018</v>
       </c>
@@ -28390,7 +29581,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>17001019</v>
       </c>
@@ -28401,7 +29592,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>17002000</v>
       </c>
@@ -28412,7 +29603,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>17003000</v>
       </c>
@@ -28423,7 +29614,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>17004000</v>
       </c>
@@ -28434,7 +29625,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>17005000</v>
       </c>
@@ -28445,7 +29636,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>17006000</v>
       </c>
@@ -28456,7 +29647,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>17007000</v>
       </c>
@@ -28467,7 +29658,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>17008000</v>
       </c>
@@ -28478,7 +29669,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>17009000</v>
       </c>
@@ -28489,7 +29680,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>17010000</v>
       </c>
@@ -28500,7 +29691,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>17011000</v>
       </c>
@@ -28511,7 +29702,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>17012000</v>
       </c>
@@ -28522,7 +29713,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>17013000</v>
       </c>
@@ -28533,7 +29724,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>17014000</v>
       </c>
@@ -28544,7 +29735,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>17015000</v>
       </c>
@@ -28555,7 +29746,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>17016000</v>
       </c>
@@ -28566,7 +29757,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>17017000</v>
       </c>
@@ -28577,7 +29768,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>17018000</v>
       </c>
@@ -28588,7 +29779,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>17019000</v>
       </c>
@@ -28599,7 +29790,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>17020000</v>
       </c>
@@ -28610,7 +29801,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>17021000</v>
       </c>
@@ -28621,7 +29812,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>17022000</v>
       </c>
@@ -28632,7 +29823,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>17023000</v>
       </c>
@@ -28643,7 +29834,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>17023001</v>
       </c>
@@ -28654,7 +29845,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>17023002</v>
       </c>
@@ -28665,7 +29856,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>17023003</v>
       </c>
@@ -28676,7 +29867,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>17023004</v>
       </c>
@@ -28687,7 +29878,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>17024000</v>
       </c>
@@ -28698,7 +29889,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>17025000</v>
       </c>
@@ -28709,7 +29900,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>17025001</v>
       </c>
@@ -28720,7 +29911,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>17025002</v>
       </c>
@@ -28731,7 +29922,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>17025003</v>
       </c>
@@ -28742,7 +29933,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>17025004</v>
       </c>
@@ -28753,7 +29944,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>17025005</v>
       </c>
@@ -28764,7 +29955,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>17026000</v>
       </c>
@@ -28775,7 +29966,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>17027000</v>
       </c>
@@ -28786,7 +29977,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>17027001</v>
       </c>
@@ -28797,7 +29988,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>17027002</v>
       </c>
@@ -28808,7 +29999,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>17027003</v>
       </c>
@@ -28819,7 +30010,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>17028000</v>
       </c>
@@ -28830,7 +30021,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>17029000</v>
       </c>
@@ -28841,7 +30032,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>17030000</v>
       </c>
@@ -28852,7 +30043,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>17031000</v>
       </c>
@@ -28863,7 +30054,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>17032000</v>
       </c>
@@ -28874,7 +30065,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>17033000</v>
       </c>
@@ -28885,7 +30076,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>17034000</v>
       </c>
@@ -28896,7 +30087,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>17035000</v>
       </c>
@@ -28907,7 +30098,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>17036000</v>
       </c>
@@ -28918,7 +30109,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>17037000</v>
       </c>
@@ -28929,7 +30120,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>17038000</v>
       </c>
@@ -28940,7 +30131,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>17039000</v>
       </c>
@@ -28951,7 +30142,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>17040000</v>
       </c>
@@ -28962,7 +30153,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>17041000</v>
       </c>
@@ -28973,7 +30164,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>17042000</v>
       </c>
@@ -28984,7 +30175,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>17043000</v>
       </c>
@@ -28995,7 +30186,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>17044000</v>
       </c>
@@ -29006,7 +30197,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>17045000</v>
       </c>
@@ -29017,7 +30208,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>17046000</v>
       </c>
@@ -29028,7 +30219,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>17047000</v>
       </c>
@@ -29039,7 +30230,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>17048000</v>
       </c>
@@ -29061,7 +30252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>18001000</v>
       </c>
@@ -29072,7 +30263,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>18001001</v>
       </c>
@@ -29083,7 +30274,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>18001002</v>
       </c>
@@ -29094,7 +30285,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>18001003</v>
       </c>
@@ -29105,7 +30296,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>18001004</v>
       </c>
@@ -29116,7 +30307,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>18001005</v>
       </c>
@@ -29127,7 +30318,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>18001006</v>
       </c>
@@ -29138,7 +30329,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>18001007</v>
       </c>
@@ -29149,7 +30340,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>18001008</v>
       </c>
